--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A618DEE6-6EB7-484C-8DBD-31C1FCD3514F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42417E5E-9386-4F0C-9672-AFD0E13EF4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3022,7 +3022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
+      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4868,8 +4868,12 @@
         <f t="shared" si="2"/>
         <v>342.52000000000004</v>
       </c>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
+      <c r="C146" s="23">
+        <v>45</v>
+      </c>
+      <c r="D146" s="23">
+        <v>103</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="24">
@@ -4877,7 +4881,7 @@
       </c>
       <c r="B147" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
@@ -4888,7 +4892,7 @@
       </c>
       <c r="B148" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
@@ -4899,7 +4903,7 @@
       </c>
       <c r="B149" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -4910,7 +4914,7 @@
       </c>
       <c r="B150" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
@@ -4921,7 +4925,7 @@
       </c>
       <c r="B151" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -4932,7 +4936,7 @@
       </c>
       <c r="B152" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -4943,7 +4947,7 @@
       </c>
       <c r="B153" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -4954,7 +4958,7 @@
       </c>
       <c r="B154" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -4965,7 +4969,7 @@
       </c>
       <c r="B155" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
@@ -4976,7 +4980,7 @@
       </c>
       <c r="B156" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -4987,7 +4991,7 @@
       </c>
       <c r="B157" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -4998,7 +5002,7 @@
       </c>
       <c r="B158" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -5009,7 +5013,7 @@
       </c>
       <c r="B159" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
@@ -5020,7 +5024,7 @@
       </c>
       <c r="B160" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -5031,7 +5035,7 @@
       </c>
       <c r="B161" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
@@ -5042,7 +5046,7 @@
       </c>
       <c r="B162" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -5053,7 +5057,7 @@
       </c>
       <c r="B163" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -5064,7 +5068,7 @@
       </c>
       <c r="B164" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -5075,7 +5079,7 @@
       </c>
       <c r="B165" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
@@ -5086,7 +5090,7 @@
       </c>
       <c r="B166" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -5097,7 +5101,7 @@
       </c>
       <c r="B167" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -5108,7 +5112,7 @@
       </c>
       <c r="B168" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -5119,7 +5123,7 @@
       </c>
       <c r="B169" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -5130,7 +5134,7 @@
       </c>
       <c r="B170" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -5141,7 +5145,7 @@
       </c>
       <c r="B171" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -5152,7 +5156,7 @@
       </c>
       <c r="B172" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -5163,7 +5167,7 @@
       </c>
       <c r="B173" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -5174,7 +5178,7 @@
       </c>
       <c r="B174" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -5185,7 +5189,7 @@
       </c>
       <c r="B175" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -5196,7 +5200,7 @@
       </c>
       <c r="B176" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -5207,7 +5211,7 @@
       </c>
       <c r="B177" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -5218,7 +5222,7 @@
       </c>
       <c r="B178" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -5229,7 +5233,7 @@
       </c>
       <c r="B179" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -5240,7 +5244,7 @@
       </c>
       <c r="B180" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -5251,7 +5255,7 @@
       </c>
       <c r="B181" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -5262,7 +5266,7 @@
       </c>
       <c r="B182" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -5273,7 +5277,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5284,7 +5288,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5295,7 +5299,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5306,7 +5310,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5317,7 +5321,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5328,7 +5332,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5339,7 +5343,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5350,7 +5354,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5361,7 +5365,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5372,7 +5376,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5383,7 +5387,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5394,7 +5398,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5405,7 +5409,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5416,7 +5420,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5427,7 +5431,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5438,7 +5442,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5449,7 +5453,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5460,7 +5464,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5471,7 +5475,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5482,7 +5486,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5493,7 +5497,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5504,7 +5508,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5515,7 +5519,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5526,7 +5530,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5537,7 +5541,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5548,7 +5552,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5559,7 +5563,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5570,7 +5574,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5581,7 +5585,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5592,7 +5596,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5603,7 +5607,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5614,7 +5618,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5625,7 +5629,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5636,7 +5640,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5647,7 +5651,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5658,7 +5662,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5669,7 +5673,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5680,7 +5684,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5691,7 +5695,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5702,7 +5706,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5713,7 +5717,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5724,7 +5728,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5735,7 +5739,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5746,7 +5750,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5757,7 +5761,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5768,7 +5772,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5779,7 +5783,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5790,7 +5794,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5801,7 +5805,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5812,7 +5816,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5823,7 +5827,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5834,7 +5838,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5845,7 +5849,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5856,7 +5860,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5867,7 +5871,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5878,7 +5882,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5889,7 +5893,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5900,7 +5904,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5911,7 +5915,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -5922,7 +5926,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -5933,7 +5937,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -5944,7 +5948,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -5955,7 +5959,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -5966,7 +5970,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -5977,7 +5981,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -5988,7 +5992,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -5999,7 +6003,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6010,7 +6014,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6021,7 +6025,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6032,7 +6036,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6043,7 +6047,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6054,7 +6058,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6065,7 +6069,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6076,7 +6080,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6087,7 +6091,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6098,7 +6102,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6109,7 +6113,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6120,7 +6124,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6131,7 +6135,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6142,7 +6146,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6153,7 +6157,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6164,7 +6168,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6175,7 +6179,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6186,7 +6190,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6197,7 +6201,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6208,7 +6212,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6219,7 +6223,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6230,7 +6234,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6241,7 +6245,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6252,7 +6256,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6263,7 +6267,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6274,7 +6278,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6285,7 +6289,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6296,7 +6300,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6307,7 +6311,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6318,7 +6322,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6329,7 +6333,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6340,7 +6344,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6351,7 +6355,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6362,7 +6366,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6373,7 +6377,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6384,7 +6388,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6395,7 +6399,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6406,7 +6410,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6417,7 +6421,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6428,7 +6432,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6439,7 +6443,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6450,7 +6454,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6461,7 +6465,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6472,7 +6476,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6483,7 +6487,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6494,7 +6498,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6505,7 +6509,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6516,7 +6520,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6527,7 +6531,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6538,7 +6542,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6549,7 +6553,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6560,7 +6564,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6571,7 +6575,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6582,7 +6586,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6593,7 +6597,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6604,7 +6608,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6615,7 +6619,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6626,7 +6630,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6637,7 +6641,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6648,7 +6652,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6659,7 +6663,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6670,7 +6674,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6681,7 +6685,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6692,7 +6696,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6703,7 +6707,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6714,7 +6718,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6725,7 +6729,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6736,7 +6740,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6747,7 +6751,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6758,7 +6762,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6769,7 +6773,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6780,7 +6784,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6791,7 +6795,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6813,7 +6817,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6824,7 +6828,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6835,7 +6839,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6846,7 +6850,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6857,7 +6861,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6868,7 +6872,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6879,7 +6883,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6890,7 +6894,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6901,7 +6905,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6912,7 +6916,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -6923,7 +6927,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -6934,7 +6938,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -6945,7 +6949,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -6956,7 +6960,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -6967,7 +6971,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -6978,7 +6982,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -6989,7 +6993,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7000,7 +7004,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7011,7 +7015,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7022,7 +7026,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7033,7 +7037,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7044,7 +7048,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7055,7 +7059,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7066,7 +7070,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7077,7 +7081,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7088,7 +7092,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7099,7 +7103,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7110,7 +7114,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7121,7 +7125,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7132,7 +7136,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7143,7 +7147,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7154,7 +7158,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7165,7 +7169,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7176,7 +7180,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7187,7 +7191,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7198,7 +7202,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7209,7 +7213,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7220,7 +7224,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7231,7 +7235,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7242,7 +7246,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7253,7 +7257,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7264,7 +7268,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7275,7 +7279,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7286,7 +7290,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7297,7 +7301,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7308,7 +7312,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7319,7 +7323,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7330,7 +7334,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7341,7 +7345,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7352,7 +7356,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7363,7 +7367,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7374,7 +7378,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7385,7 +7389,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7396,7 +7400,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7407,7 +7411,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7418,7 +7422,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7429,7 +7433,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7440,7 +7444,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7451,7 +7455,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7462,7 +7466,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7473,7 +7477,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7484,7 +7488,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7495,7 +7499,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7506,7 +7510,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7517,7 +7521,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7528,7 +7532,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7539,7 +7543,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7550,7 +7554,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7561,7 +7565,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7572,7 +7576,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7583,7 +7587,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7594,7 +7598,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7605,7 +7609,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7616,7 +7620,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7627,7 +7631,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7638,7 +7642,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7649,7 +7653,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7660,7 +7664,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7671,7 +7675,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7682,7 +7686,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7693,7 +7697,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7704,7 +7708,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7715,7 +7719,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7726,7 +7730,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7737,7 +7741,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7748,7 +7752,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7759,7 +7763,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7770,7 +7774,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7781,7 +7785,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7792,7 +7796,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7803,7 +7807,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7814,7 +7818,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7825,7 +7829,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7836,7 +7840,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7847,7 +7851,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7858,7 +7862,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7869,7 +7873,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7880,7 +7884,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7891,7 +7895,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7902,7 +7906,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7913,7 +7917,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -7924,7 +7928,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -7935,7 +7939,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -7946,7 +7950,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -7957,7 +7961,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -7968,7 +7972,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -7979,7 +7983,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -7990,7 +7994,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8001,7 +8005,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8012,7 +8016,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8023,7 +8027,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8034,7 +8038,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8045,7 +8049,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8056,7 +8060,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8067,7 +8071,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8078,7 +8082,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8089,7 +8093,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8100,7 +8104,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8111,7 +8115,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8122,7 +8126,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8133,7 +8137,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8144,7 +8148,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8155,7 +8159,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8166,7 +8170,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8177,7 +8181,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8188,7 +8192,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8199,7 +8203,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8210,7 +8214,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8221,7 +8225,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8232,7 +8236,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8243,7 +8247,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8254,7 +8258,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8265,7 +8269,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8276,7 +8280,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8287,7 +8291,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8298,7 +8302,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8309,7 +8313,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8320,7 +8324,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8331,7 +8335,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8342,7 +8346,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8353,7 +8357,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8364,7 +8368,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8375,7 +8379,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8386,7 +8390,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8397,7 +8401,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8408,7 +8412,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8419,7 +8423,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8430,7 +8434,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8441,7 +8445,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8452,7 +8456,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8463,7 +8467,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8474,7 +8478,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8485,7 +8489,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8496,7 +8500,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8507,7 +8511,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8518,7 +8522,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8529,7 +8533,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8540,7 +8544,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8551,7 +8555,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8562,7 +8566,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8573,7 +8577,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8584,7 +8588,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8595,7 +8599,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8606,7 +8610,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8617,7 +8621,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8628,7 +8632,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8639,7 +8643,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8650,7 +8654,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8661,7 +8665,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8672,7 +8676,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8683,7 +8687,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8694,7 +8698,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8705,7 +8709,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8716,7 +8720,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8727,7 +8731,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8738,7 +8742,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8749,7 +8753,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8760,7 +8764,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8771,7 +8775,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8782,7 +8786,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8793,7 +8797,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8804,7 +8808,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8815,7 +8819,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8826,7 +8830,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8837,7 +8841,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8848,7 +8852,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8859,7 +8863,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8870,7 +8874,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8881,7 +8885,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8892,7 +8896,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8903,7 +8907,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8914,7 +8918,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -8925,7 +8929,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -8936,7 +8940,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -8947,7 +8951,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -8958,7 +8962,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -8969,7 +8973,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -8980,7 +8984,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -8991,7 +8995,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9002,7 +9006,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9013,7 +9017,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9024,7 +9028,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9035,7 +9039,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9046,7 +9050,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9057,7 +9061,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9068,7 +9072,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9079,7 +9083,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9090,7 +9094,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9101,7 +9105,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9112,7 +9116,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9123,7 +9127,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9134,7 +9138,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9145,7 +9149,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9156,7 +9160,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9167,7 +9171,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9178,7 +9182,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9189,7 +9193,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9200,7 +9204,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9211,7 +9215,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9222,7 +9226,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9233,7 +9237,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9244,7 +9248,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9255,7 +9259,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9266,7 +9270,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9277,7 +9281,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9288,7 +9292,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9299,7 +9303,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9310,7 +9314,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9321,7 +9325,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9332,7 +9336,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9343,7 +9347,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9354,7 +9358,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9365,7 +9369,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9376,7 +9380,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9387,7 +9391,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9398,7 +9402,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9409,7 +9413,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9420,7 +9424,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9431,7 +9435,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9442,7 +9446,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9453,7 +9457,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9464,7 +9468,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9475,7 +9479,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9486,7 +9490,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9497,7 +9501,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9508,7 +9512,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9519,7 +9523,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9530,7 +9534,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9541,7 +9545,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9552,7 +9556,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9563,7 +9567,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9574,7 +9578,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9585,7 +9589,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9596,7 +9600,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9607,7 +9611,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9618,7 +9622,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9629,7 +9633,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9640,7 +9644,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9651,7 +9655,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9662,7 +9666,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9673,7 +9677,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9684,7 +9688,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9695,7 +9699,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9706,7 +9710,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9717,7 +9721,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9728,7 +9732,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9739,7 +9743,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9750,7 +9754,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9761,7 +9765,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9772,7 +9776,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9783,7 +9787,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9794,7 +9798,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9805,7 +9809,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9816,7 +9820,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9827,7 +9831,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9838,7 +9842,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9849,7 +9853,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9860,7 +9864,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9871,7 +9875,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9882,7 +9886,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9893,7 +9897,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9904,7 +9908,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9915,7 +9919,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -9926,7 +9930,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -9937,7 +9941,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -9948,7 +9952,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -9959,7 +9963,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -9970,7 +9974,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -9981,7 +9985,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -9992,7 +9996,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10003,7 +10007,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10014,7 +10018,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10025,7 +10029,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10036,7 +10040,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10047,7 +10051,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10058,7 +10062,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10069,7 +10073,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10080,7 +10084,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10091,7 +10095,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10102,7 +10106,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10113,7 +10117,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10124,7 +10128,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10135,7 +10139,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10146,7 +10150,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10157,7 +10161,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10168,7 +10172,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10179,7 +10183,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10190,7 +10194,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10201,7 +10205,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10212,7 +10216,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10223,7 +10227,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10234,7 +10238,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10245,7 +10249,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10256,7 +10260,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10267,7 +10271,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>342.52000000000004</v>
+        <v>284.52000000000004</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42417E5E-9386-4F0C-9672-AFD0E13EF4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1015E558-0DAF-442B-94CF-A85303B3BDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3022,7 +3022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4894,8 +4894,13 @@
         <f t="shared" si="2"/>
         <v>284.52000000000004</v>
       </c>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
+      <c r="C148" s="23">
+        <f>50+25</f>
+        <v>75</v>
+      </c>
+      <c r="D148" s="23">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="24">
@@ -4903,7 +4908,7 @@
       </c>
       <c r="B149" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -4914,7 +4919,7 @@
       </c>
       <c r="B150" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
@@ -4925,7 +4930,7 @@
       </c>
       <c r="B151" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -4936,7 +4941,7 @@
       </c>
       <c r="B152" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -4947,7 +4952,7 @@
       </c>
       <c r="B153" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -4958,7 +4963,7 @@
       </c>
       <c r="B154" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -4969,7 +4974,7 @@
       </c>
       <c r="B155" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
@@ -4980,7 +4985,7 @@
       </c>
       <c r="B156" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -4991,7 +4996,7 @@
       </c>
       <c r="B157" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -5002,7 +5007,7 @@
       </c>
       <c r="B158" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -5013,7 +5018,7 @@
       </c>
       <c r="B159" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
@@ -5024,7 +5029,7 @@
       </c>
       <c r="B160" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -5035,7 +5040,7 @@
       </c>
       <c r="B161" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
@@ -5046,7 +5051,7 @@
       </c>
       <c r="B162" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -5057,7 +5062,7 @@
       </c>
       <c r="B163" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -5068,7 +5073,7 @@
       </c>
       <c r="B164" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -5079,7 +5084,7 @@
       </c>
       <c r="B165" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
@@ -5090,7 +5095,7 @@
       </c>
       <c r="B166" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -5101,7 +5106,7 @@
       </c>
       <c r="B167" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -5112,7 +5117,7 @@
       </c>
       <c r="B168" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -5123,7 +5128,7 @@
       </c>
       <c r="B169" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -5134,7 +5139,7 @@
       </c>
       <c r="B170" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -5145,7 +5150,7 @@
       </c>
       <c r="B171" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -5156,7 +5161,7 @@
       </c>
       <c r="B172" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="B173" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -5178,7 +5183,7 @@
       </c>
       <c r="B174" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -5189,7 +5194,7 @@
       </c>
       <c r="B175" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -5200,7 +5205,7 @@
       </c>
       <c r="B176" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -5211,7 +5216,7 @@
       </c>
       <c r="B177" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -5222,7 +5227,7 @@
       </c>
       <c r="B178" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -5233,7 +5238,7 @@
       </c>
       <c r="B179" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -5244,7 +5249,7 @@
       </c>
       <c r="B180" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -5255,7 +5260,7 @@
       </c>
       <c r="B181" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -5266,7 +5271,7 @@
       </c>
       <c r="B182" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -5277,7 +5282,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5288,7 +5293,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5299,7 +5304,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5310,7 +5315,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5321,7 +5326,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5332,7 +5337,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5343,7 +5348,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5354,7 +5359,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5365,7 +5370,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5376,7 +5381,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5387,7 +5392,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5398,7 +5403,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5409,7 +5414,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5420,7 +5425,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5431,7 +5436,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5442,7 +5447,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5453,7 +5458,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5464,7 +5469,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5475,7 +5480,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5486,7 +5491,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5497,7 +5502,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5508,7 +5513,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5519,7 +5524,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5530,7 +5535,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5541,7 +5546,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5552,7 +5557,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5563,7 +5568,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5574,7 +5579,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5585,7 +5590,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5596,7 +5601,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5607,7 +5612,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5618,7 +5623,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5629,7 +5634,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5640,7 +5645,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5651,7 +5656,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5662,7 +5667,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5673,7 +5678,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5684,7 +5689,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5695,7 +5700,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5706,7 +5711,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5717,7 +5722,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5728,7 +5733,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5739,7 +5744,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5750,7 +5755,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5761,7 +5766,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5772,7 +5777,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5783,7 +5788,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5794,7 +5799,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5805,7 +5810,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5816,7 +5821,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5827,7 +5832,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5838,7 +5843,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5849,7 +5854,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5860,7 +5865,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5871,7 +5876,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5882,7 +5887,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5893,7 +5898,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5904,7 +5909,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5915,7 +5920,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -5926,7 +5931,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -5937,7 +5942,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -5948,7 +5953,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -5959,7 +5964,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -5970,7 +5975,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -5981,7 +5986,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -5992,7 +5997,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6003,7 +6008,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6014,7 +6019,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6025,7 +6030,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6036,7 +6041,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6047,7 +6052,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6058,7 +6063,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6069,7 +6074,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6080,7 +6085,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6091,7 +6096,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6102,7 +6107,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6113,7 +6118,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6124,7 +6129,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6135,7 +6140,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6146,7 +6151,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6157,7 +6162,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6168,7 +6173,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6179,7 +6184,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6190,7 +6195,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6201,7 +6206,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6212,7 +6217,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6223,7 +6228,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6234,7 +6239,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6245,7 +6250,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6256,7 +6261,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6267,7 +6272,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6278,7 +6283,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6289,7 +6294,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6300,7 +6305,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6311,7 +6316,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6322,7 +6327,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6333,7 +6338,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6344,7 +6349,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6355,7 +6360,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6366,7 +6371,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6377,7 +6382,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6388,7 +6393,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6399,7 +6404,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6410,7 +6415,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6421,7 +6426,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6432,7 +6437,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6443,7 +6448,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6454,7 +6459,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6465,7 +6470,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6476,7 +6481,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6487,7 +6492,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6498,7 +6503,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6509,7 +6514,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6520,7 +6525,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6531,7 +6536,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6542,7 +6547,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6553,7 +6558,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6564,7 +6569,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6575,7 +6580,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6586,7 +6591,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6597,7 +6602,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6608,7 +6613,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6619,7 +6624,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6630,7 +6635,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6641,7 +6646,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6652,7 +6657,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6663,7 +6668,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6674,7 +6679,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6685,7 +6690,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6696,7 +6701,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6707,7 +6712,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6718,7 +6723,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6729,7 +6734,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6740,7 +6745,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6751,7 +6756,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6762,7 +6767,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6773,7 +6778,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6784,7 +6789,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6795,7 +6800,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6806,7 +6811,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6817,7 +6822,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6828,7 +6833,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6839,7 +6844,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6850,7 +6855,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6861,7 +6866,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6872,7 +6877,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6883,7 +6888,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6894,7 +6899,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6905,7 +6910,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6916,7 +6921,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -6927,7 +6932,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -6938,7 +6943,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -6949,7 +6954,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -6960,7 +6965,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -6971,7 +6976,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -6982,7 +6987,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -6993,7 +6998,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7004,7 +7009,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7015,7 +7020,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7026,7 +7031,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7037,7 +7042,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7048,7 +7053,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7059,7 +7064,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7070,7 +7075,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7081,7 +7086,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7092,7 +7097,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7103,7 +7108,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7114,7 +7119,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7125,7 +7130,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7136,7 +7141,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7147,7 +7152,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7158,7 +7163,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7169,7 +7174,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7180,7 +7185,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7191,7 +7196,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7202,7 +7207,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7213,7 +7218,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7224,7 +7229,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7235,7 +7240,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7246,7 +7251,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7257,7 +7262,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7268,7 +7273,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7279,7 +7284,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7290,7 +7295,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7301,7 +7306,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7312,7 +7317,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7323,7 +7328,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7334,7 +7339,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7345,7 +7350,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7356,7 +7361,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7367,7 +7372,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7378,7 +7383,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7389,7 +7394,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7400,7 +7405,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7411,7 +7416,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7422,7 +7427,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7433,7 +7438,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7444,7 +7449,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7455,7 +7460,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7466,7 +7471,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7477,7 +7482,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7488,7 +7493,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7499,7 +7504,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7510,7 +7515,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7532,7 +7537,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7543,7 +7548,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7554,7 +7559,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7565,7 +7570,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7576,7 +7581,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7587,7 +7592,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7598,7 +7603,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7609,7 +7614,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7620,7 +7625,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7631,7 +7636,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7642,7 +7647,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7653,7 +7658,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7664,7 +7669,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7675,7 +7680,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7686,7 +7691,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7697,7 +7702,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7708,7 +7713,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7719,7 +7724,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7730,7 +7735,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7741,7 +7746,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7752,7 +7757,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7763,7 +7768,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7774,7 +7779,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7785,7 +7790,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7796,7 +7801,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7807,7 +7812,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7818,7 +7823,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7829,7 +7834,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7840,7 +7845,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7851,7 +7856,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7862,7 +7867,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7873,7 +7878,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7884,7 +7889,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7895,7 +7900,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7906,7 +7911,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7917,7 +7922,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -7928,7 +7933,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -7939,7 +7944,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -7950,7 +7955,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -7961,7 +7966,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -7972,7 +7977,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -7983,7 +7988,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -7994,7 +7999,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8005,7 +8010,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8027,7 +8032,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8038,7 +8043,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8049,7 +8054,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8060,7 +8065,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8071,7 +8076,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8082,7 +8087,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8093,7 +8098,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8104,7 +8109,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8115,7 +8120,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8126,7 +8131,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8137,7 +8142,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8148,7 +8153,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8159,7 +8164,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8170,7 +8175,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8181,7 +8186,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8192,7 +8197,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8203,7 +8208,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8214,7 +8219,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8225,7 +8230,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8236,7 +8241,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8247,7 +8252,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8258,7 +8263,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8269,7 +8274,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8280,7 +8285,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8291,7 +8296,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8302,7 +8307,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8313,7 +8318,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8324,7 +8329,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8335,7 +8340,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8346,7 +8351,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8357,7 +8362,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8368,7 +8373,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8379,7 +8384,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8390,7 +8395,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8401,7 +8406,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8412,7 +8417,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8423,7 +8428,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8434,7 +8439,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8445,7 +8450,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8456,7 +8461,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8467,7 +8472,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8478,7 +8483,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8489,7 +8494,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8500,7 +8505,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8522,7 +8527,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8533,7 +8538,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8544,7 +8549,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8555,7 +8560,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8566,7 +8571,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8577,7 +8582,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8588,7 +8593,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8599,7 +8604,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8610,7 +8615,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8621,7 +8626,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8632,7 +8637,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8643,7 +8648,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8654,7 +8659,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8665,7 +8670,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8676,7 +8681,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8687,7 +8692,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8698,7 +8703,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8709,7 +8714,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8720,7 +8725,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8731,7 +8736,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8742,7 +8747,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8753,7 +8758,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8764,7 +8769,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8775,7 +8780,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8786,7 +8791,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8797,7 +8802,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8808,7 +8813,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8819,7 +8824,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8830,7 +8835,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8841,7 +8846,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8852,7 +8857,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8863,7 +8868,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8874,7 +8879,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8885,7 +8890,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8896,7 +8901,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8907,7 +8912,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8918,7 +8923,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -8929,7 +8934,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -8940,7 +8945,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -8951,7 +8956,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -8962,7 +8967,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -8973,7 +8978,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -8984,7 +8989,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -8995,7 +9000,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9017,7 +9022,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9028,7 +9033,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9039,7 +9044,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9050,7 +9055,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9061,7 +9066,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9072,7 +9077,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9083,7 +9088,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9094,7 +9099,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9105,7 +9110,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9116,7 +9121,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9127,7 +9132,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9138,7 +9143,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9149,7 +9154,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9160,7 +9165,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9171,7 +9176,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9182,7 +9187,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9193,7 +9198,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9204,7 +9209,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9215,7 +9220,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9226,7 +9231,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9237,7 +9242,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9248,7 +9253,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9259,7 +9264,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9270,7 +9275,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9281,7 +9286,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9292,7 +9297,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9303,7 +9308,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9314,7 +9319,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9325,7 +9330,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9336,7 +9341,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9347,7 +9352,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9358,7 +9363,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9369,7 +9374,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9380,7 +9385,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9391,7 +9396,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9402,7 +9407,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9413,7 +9418,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9424,7 +9429,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9435,7 +9440,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9446,7 +9451,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9457,7 +9462,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9468,7 +9473,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9479,7 +9484,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9490,7 +9495,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9501,7 +9506,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9512,7 +9517,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9523,7 +9528,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9534,7 +9539,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9545,7 +9550,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9556,7 +9561,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9567,7 +9572,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9578,7 +9583,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9589,7 +9594,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9600,7 +9605,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9611,7 +9616,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9622,7 +9627,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9633,7 +9638,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9644,7 +9649,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9655,7 +9660,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9666,7 +9671,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9677,7 +9682,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9688,7 +9693,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9699,7 +9704,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9710,7 +9715,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9721,7 +9726,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9732,7 +9737,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9743,7 +9748,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9754,7 +9759,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9765,7 +9770,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9776,7 +9781,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9787,7 +9792,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9798,7 +9803,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9809,7 +9814,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9820,7 +9825,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9831,7 +9836,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9842,7 +9847,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9853,7 +9858,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9864,7 +9869,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9875,7 +9880,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9886,7 +9891,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9897,7 +9902,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9908,7 +9913,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9919,7 +9924,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -9930,7 +9935,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -9941,7 +9946,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -9952,7 +9957,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -9963,7 +9968,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -9974,7 +9979,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -9985,7 +9990,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -9996,7 +10001,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10007,7 +10012,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10018,7 +10023,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10029,7 +10034,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10040,7 +10045,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10051,7 +10056,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10062,7 +10067,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10073,7 +10078,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10084,7 +10089,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10095,7 +10100,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10106,7 +10111,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10117,7 +10122,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10128,7 +10133,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10139,7 +10144,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10150,7 +10155,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10161,7 +10166,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10172,7 +10177,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10183,7 +10188,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10194,7 +10199,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10205,7 +10210,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10216,7 +10221,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10227,7 +10232,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10238,7 +10243,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10249,7 +10254,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10260,7 +10265,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10271,7 +10276,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>284.52000000000004</v>
+        <v>236.12000000000003</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1015E558-0DAF-442B-94CF-A85303B3BDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F836FC-D763-4D79-B5B5-696F1A02F332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3021,8 +3021,8 @@
   <dimension ref="A1:D637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4921,8 +4921,14 @@
         <f t="shared" si="2"/>
         <v>236.12000000000003</v>
       </c>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
+      <c r="C150" s="23">
+        <f>70+5+65</f>
+        <v>140</v>
+      </c>
+      <c r="D150" s="23">
+        <f>85+66.9</f>
+        <v>151.9</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="24">
@@ -4930,7 +4936,7 @@
       </c>
       <c r="B151" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -4941,7 +4947,7 @@
       </c>
       <c r="B152" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -4952,7 +4958,7 @@
       </c>
       <c r="B153" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -4963,7 +4969,7 @@
       </c>
       <c r="B154" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -4974,7 +4980,7 @@
       </c>
       <c r="B155" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
@@ -4985,7 +4991,7 @@
       </c>
       <c r="B156" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -4996,7 +5002,7 @@
       </c>
       <c r="B157" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -5007,7 +5013,7 @@
       </c>
       <c r="B158" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -5018,7 +5024,7 @@
       </c>
       <c r="B159" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
@@ -5029,7 +5035,7 @@
       </c>
       <c r="B160" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -5040,7 +5046,7 @@
       </c>
       <c r="B161" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
@@ -5051,7 +5057,7 @@
       </c>
       <c r="B162" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -5062,7 +5068,7 @@
       </c>
       <c r="B163" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -5073,7 +5079,7 @@
       </c>
       <c r="B164" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -5084,7 +5090,7 @@
       </c>
       <c r="B165" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
@@ -5095,7 +5101,7 @@
       </c>
       <c r="B166" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -5106,7 +5112,7 @@
       </c>
       <c r="B167" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -5117,7 +5123,7 @@
       </c>
       <c r="B168" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -5128,7 +5134,7 @@
       </c>
       <c r="B169" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -5139,7 +5145,7 @@
       </c>
       <c r="B170" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -5150,7 +5156,7 @@
       </c>
       <c r="B171" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -5161,7 +5167,7 @@
       </c>
       <c r="B172" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -5172,7 +5178,7 @@
       </c>
       <c r="B173" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -5183,7 +5189,7 @@
       </c>
       <c r="B174" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -5194,7 +5200,7 @@
       </c>
       <c r="B175" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -5205,7 +5211,7 @@
       </c>
       <c r="B176" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -5216,7 +5222,7 @@
       </c>
       <c r="B177" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -5227,7 +5233,7 @@
       </c>
       <c r="B178" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -5238,7 +5244,7 @@
       </c>
       <c r="B179" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -5249,7 +5255,7 @@
       </c>
       <c r="B180" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -5260,7 +5266,7 @@
       </c>
       <c r="B181" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -5271,7 +5277,7 @@
       </c>
       <c r="B182" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -5282,7 +5288,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5293,7 +5299,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5304,7 +5310,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5315,7 +5321,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5326,7 +5332,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5337,7 +5343,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5348,7 +5354,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5359,7 +5365,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5370,7 +5376,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5381,7 +5387,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5392,7 +5398,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5403,7 +5409,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5414,7 +5420,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5425,7 +5431,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5436,7 +5442,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5447,7 +5453,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5458,7 +5464,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5469,7 +5475,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5480,7 +5486,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5491,7 +5497,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5502,7 +5508,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5513,7 +5519,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5524,7 +5530,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5535,7 +5541,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5546,7 +5552,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5557,7 +5563,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5568,7 +5574,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5579,7 +5585,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5590,7 +5596,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5601,7 +5607,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5612,7 +5618,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5623,7 +5629,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5634,7 +5640,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5645,7 +5651,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5656,7 +5662,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5667,7 +5673,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5678,7 +5684,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5689,7 +5695,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5700,7 +5706,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5711,7 +5717,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5722,7 +5728,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5733,7 +5739,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5744,7 +5750,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5755,7 +5761,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5766,7 +5772,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5777,7 +5783,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5788,7 +5794,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5799,7 +5805,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5810,7 +5816,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5821,7 +5827,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5832,7 +5838,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5843,7 +5849,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5854,7 +5860,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5865,7 +5871,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5876,7 +5882,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5887,7 +5893,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5898,7 +5904,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5909,7 +5915,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5920,7 +5926,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -5931,7 +5937,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -5942,7 +5948,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -5953,7 +5959,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -5964,7 +5970,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -5975,7 +5981,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -5986,7 +5992,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -5997,7 +6003,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6008,7 +6014,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6019,7 +6025,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6030,7 +6036,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6041,7 +6047,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6052,7 +6058,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6063,7 +6069,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6074,7 +6080,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6085,7 +6091,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6096,7 +6102,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6107,7 +6113,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6118,7 +6124,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6129,7 +6135,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6140,7 +6146,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6151,7 +6157,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6162,7 +6168,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6173,7 +6179,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6184,7 +6190,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6195,7 +6201,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6206,7 +6212,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6217,7 +6223,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6228,7 +6234,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6239,7 +6245,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6250,7 +6256,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6261,7 +6267,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6272,7 +6278,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6283,7 +6289,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6294,7 +6300,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6305,7 +6311,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6316,7 +6322,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6327,7 +6333,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6338,7 +6344,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6349,7 +6355,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6360,7 +6366,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6371,7 +6377,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6382,7 +6388,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6393,7 +6399,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6404,7 +6410,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6415,7 +6421,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6426,7 +6432,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6437,7 +6443,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6448,7 +6454,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6459,7 +6465,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6470,7 +6476,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6481,7 +6487,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6492,7 +6498,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6503,7 +6509,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6514,7 +6520,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6525,7 +6531,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6536,7 +6542,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6547,7 +6553,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6558,7 +6564,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6569,7 +6575,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6580,7 +6586,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6591,7 +6597,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6602,7 +6608,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6613,7 +6619,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6624,7 +6630,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6635,7 +6641,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6646,7 +6652,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6657,7 +6663,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6668,7 +6674,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6679,7 +6685,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6690,7 +6696,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6701,7 +6707,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6712,7 +6718,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6723,7 +6729,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6734,7 +6740,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6745,7 +6751,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6756,7 +6762,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6767,7 +6773,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6778,7 +6784,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6789,7 +6795,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6800,7 +6806,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6811,7 +6817,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6822,7 +6828,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6833,7 +6839,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6844,7 +6850,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6855,7 +6861,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6866,7 +6872,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6877,7 +6883,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6888,7 +6894,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6899,7 +6905,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6910,7 +6916,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6921,7 +6927,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -6932,7 +6938,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -6943,7 +6949,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -6954,7 +6960,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -6965,7 +6971,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -6976,7 +6982,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -6987,7 +6993,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -6998,7 +7004,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7009,7 +7015,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7020,7 +7026,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7031,7 +7037,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7042,7 +7048,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7053,7 +7059,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7064,7 +7070,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7075,7 +7081,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7086,7 +7092,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7097,7 +7103,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7108,7 +7114,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7119,7 +7125,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7130,7 +7136,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7141,7 +7147,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7152,7 +7158,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7163,7 +7169,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7174,7 +7180,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7185,7 +7191,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7196,7 +7202,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7207,7 +7213,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7218,7 +7224,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7229,7 +7235,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7240,7 +7246,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7251,7 +7257,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7262,7 +7268,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7273,7 +7279,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7284,7 +7290,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7295,7 +7301,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7306,7 +7312,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7317,7 +7323,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7328,7 +7334,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7339,7 +7345,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7350,7 +7356,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7361,7 +7367,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7372,7 +7378,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7383,7 +7389,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7394,7 +7400,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7405,7 +7411,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7416,7 +7422,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7427,7 +7433,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7438,7 +7444,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7449,7 +7455,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7460,7 +7466,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7471,7 +7477,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7482,7 +7488,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7493,7 +7499,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7504,7 +7510,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7515,7 +7521,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7526,7 +7532,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7537,7 +7543,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7548,7 +7554,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7559,7 +7565,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7570,7 +7576,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7581,7 +7587,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7592,7 +7598,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7603,7 +7609,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7614,7 +7620,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7625,7 +7631,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7636,7 +7642,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7647,7 +7653,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7658,7 +7664,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7669,7 +7675,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7680,7 +7686,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7691,7 +7697,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7702,7 +7708,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7713,7 +7719,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7724,7 +7730,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7735,7 +7741,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7746,7 +7752,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7757,7 +7763,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7768,7 +7774,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7779,7 +7785,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7790,7 +7796,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7801,7 +7807,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7812,7 +7818,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7823,7 +7829,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7834,7 +7840,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7845,7 +7851,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7856,7 +7862,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7867,7 +7873,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7878,7 +7884,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7889,7 +7895,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7900,7 +7906,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7911,7 +7917,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7922,7 +7928,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -7933,7 +7939,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -7944,7 +7950,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -7955,7 +7961,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -7966,7 +7972,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -7977,7 +7983,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -7988,7 +7994,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -7999,7 +8005,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8010,7 +8016,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8021,7 +8027,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8032,7 +8038,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8043,7 +8049,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8054,7 +8060,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8065,7 +8071,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8076,7 +8082,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8087,7 +8093,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8098,7 +8104,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8109,7 +8115,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8120,7 +8126,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8131,7 +8137,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8142,7 +8148,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8153,7 +8159,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8164,7 +8170,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8175,7 +8181,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8186,7 +8192,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8197,7 +8203,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8208,7 +8214,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8219,7 +8225,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8230,7 +8236,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8241,7 +8247,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8252,7 +8258,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8263,7 +8269,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8274,7 +8280,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8285,7 +8291,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8296,7 +8302,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8307,7 +8313,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8318,7 +8324,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8329,7 +8335,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8340,7 +8346,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8351,7 +8357,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8362,7 +8368,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8373,7 +8379,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8384,7 +8390,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8395,7 +8401,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8406,7 +8412,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8417,7 +8423,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8428,7 +8434,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8439,7 +8445,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8450,7 +8456,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8461,7 +8467,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8472,7 +8478,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8483,7 +8489,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8494,7 +8500,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8505,7 +8511,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8516,7 +8522,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8527,7 +8533,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8538,7 +8544,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8549,7 +8555,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8560,7 +8566,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8571,7 +8577,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8582,7 +8588,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8593,7 +8599,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8604,7 +8610,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8615,7 +8621,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8626,7 +8632,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8637,7 +8643,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8648,7 +8654,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8659,7 +8665,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8670,7 +8676,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8681,7 +8687,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8692,7 +8698,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8703,7 +8709,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8714,7 +8720,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8725,7 +8731,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8736,7 +8742,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8747,7 +8753,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8758,7 +8764,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8769,7 +8775,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8780,7 +8786,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8791,7 +8797,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8802,7 +8808,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8813,7 +8819,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8824,7 +8830,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8835,7 +8841,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8846,7 +8852,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8857,7 +8863,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8868,7 +8874,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8879,7 +8885,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8890,7 +8896,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8901,7 +8907,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8912,7 +8918,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8923,7 +8929,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -8934,7 +8940,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -8945,7 +8951,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -8956,7 +8962,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -8967,7 +8973,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -8978,7 +8984,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -8989,7 +8995,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9000,7 +9006,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9011,7 +9017,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9022,7 +9028,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9033,7 +9039,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9044,7 +9050,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9055,7 +9061,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9066,7 +9072,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9077,7 +9083,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9088,7 +9094,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9099,7 +9105,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9110,7 +9116,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9121,7 +9127,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9132,7 +9138,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9143,7 +9149,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9154,7 +9160,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9165,7 +9171,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9176,7 +9182,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9187,7 +9193,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9198,7 +9204,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9209,7 +9215,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9220,7 +9226,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9231,7 +9237,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9242,7 +9248,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9253,7 +9259,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9264,7 +9270,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9275,7 +9281,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9286,7 +9292,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9297,7 +9303,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9308,7 +9314,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9319,7 +9325,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9330,7 +9336,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9341,7 +9347,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9352,7 +9358,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9363,7 +9369,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9374,7 +9380,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9385,7 +9391,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9396,7 +9402,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9407,7 +9413,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9418,7 +9424,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9429,7 +9435,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9440,7 +9446,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9451,7 +9457,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9462,7 +9468,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9473,7 +9479,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9484,7 +9490,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9495,7 +9501,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9506,7 +9512,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9517,7 +9523,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9528,7 +9534,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9539,7 +9545,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9550,7 +9556,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9561,7 +9567,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9572,7 +9578,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9583,7 +9589,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9594,7 +9600,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9605,7 +9611,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9616,7 +9622,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9627,7 +9633,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9638,7 +9644,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9649,7 +9655,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9660,7 +9666,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9671,7 +9677,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9682,7 +9688,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9693,7 +9699,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9704,7 +9710,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9715,7 +9721,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9726,7 +9732,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9737,7 +9743,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9748,7 +9754,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9759,7 +9765,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9770,7 +9776,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9781,7 +9787,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9792,7 +9798,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9803,7 +9809,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9814,7 +9820,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9825,7 +9831,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9836,7 +9842,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9847,7 +9853,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9858,7 +9864,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9869,7 +9875,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9880,7 +9886,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9891,7 +9897,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9902,7 +9908,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9913,7 +9919,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9924,7 +9930,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -9935,7 +9941,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -9946,7 +9952,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -9957,7 +9963,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -9968,7 +9974,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -9979,7 +9985,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -9990,7 +9996,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10001,7 +10007,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10012,7 +10018,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10023,7 +10029,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10034,7 +10040,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10045,7 +10051,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10056,7 +10062,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10067,7 +10073,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10078,7 +10084,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10089,7 +10095,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10100,7 +10106,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10111,7 +10117,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10122,7 +10128,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10133,7 +10139,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10144,7 +10150,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10155,7 +10161,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10166,7 +10172,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10177,7 +10183,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10188,7 +10194,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10199,7 +10205,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10210,7 +10216,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10221,7 +10227,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10232,7 +10238,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10243,7 +10249,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10254,7 +10260,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10265,7 +10271,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10276,7 +10282,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>236.12000000000003</v>
+        <v>224.22</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F836FC-D763-4D79-B5B5-696F1A02F332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD928343-2F6B-42DC-939C-12759774DBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD928343-2F6B-42DC-939C-12759774DBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8571BABC-1FC5-4ECC-86A8-F77670B098B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4922,8 +4922,8 @@
         <v>236.12000000000003</v>
       </c>
       <c r="C150" s="23">
-        <f>70+5+65</f>
-        <v>140</v>
+        <f>70+5+65+10</f>
+        <v>150</v>
       </c>
       <c r="D150" s="23">
         <f>85+66.9</f>
@@ -4936,10 +4936,12 @@
       </c>
       <c r="B151" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>234.22</v>
       </c>
       <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
+      <c r="D151" s="23">
+        <v>60</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="24">
@@ -4947,7 +4949,7 @@
       </c>
       <c r="B152" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -4958,7 +4960,7 @@
       </c>
       <c r="B153" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -4969,7 +4971,7 @@
       </c>
       <c r="B154" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -4980,7 +4982,7 @@
       </c>
       <c r="B155" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
@@ -4991,7 +4993,7 @@
       </c>
       <c r="B156" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -5002,7 +5004,7 @@
       </c>
       <c r="B157" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -5013,7 +5015,7 @@
       </c>
       <c r="B158" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -5024,7 +5026,7 @@
       </c>
       <c r="B159" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
@@ -5035,7 +5037,7 @@
       </c>
       <c r="B160" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -5046,7 +5048,7 @@
       </c>
       <c r="B161" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
@@ -5057,7 +5059,7 @@
       </c>
       <c r="B162" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -5068,7 +5070,7 @@
       </c>
       <c r="B163" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -5079,7 +5081,7 @@
       </c>
       <c r="B164" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -5090,7 +5092,7 @@
       </c>
       <c r="B165" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
@@ -5101,7 +5103,7 @@
       </c>
       <c r="B166" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -5112,7 +5114,7 @@
       </c>
       <c r="B167" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -5123,7 +5125,7 @@
       </c>
       <c r="B168" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -5134,7 +5136,7 @@
       </c>
       <c r="B169" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -5145,7 +5147,7 @@
       </c>
       <c r="B170" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -5156,7 +5158,7 @@
       </c>
       <c r="B171" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -5167,7 +5169,7 @@
       </c>
       <c r="B172" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -5178,7 +5180,7 @@
       </c>
       <c r="B173" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -5189,7 +5191,7 @@
       </c>
       <c r="B174" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -5200,7 +5202,7 @@
       </c>
       <c r="B175" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -5211,7 +5213,7 @@
       </c>
       <c r="B176" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -5222,7 +5224,7 @@
       </c>
       <c r="B177" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -5233,7 +5235,7 @@
       </c>
       <c r="B178" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -5244,7 +5246,7 @@
       </c>
       <c r="B179" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -5255,7 +5257,7 @@
       </c>
       <c r="B180" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -5266,7 +5268,7 @@
       </c>
       <c r="B181" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -5277,7 +5279,7 @@
       </c>
       <c r="B182" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -5288,7 +5290,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5299,7 +5301,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5310,7 +5312,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5321,7 +5323,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5332,7 +5334,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5343,7 +5345,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5354,7 +5356,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5365,7 +5367,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5376,7 +5378,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5387,7 +5389,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5398,7 +5400,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5409,7 +5411,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5420,7 +5422,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5431,7 +5433,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5442,7 +5444,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5453,7 +5455,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5464,7 +5466,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5475,7 +5477,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5486,7 +5488,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5497,7 +5499,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5508,7 +5510,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5519,7 +5521,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5530,7 +5532,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5541,7 +5543,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5552,7 +5554,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5563,7 +5565,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5574,7 +5576,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5585,7 +5587,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5596,7 +5598,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5607,7 +5609,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5618,7 +5620,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5629,7 +5631,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5640,7 +5642,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5651,7 +5653,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5662,7 +5664,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5673,7 +5675,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5684,7 +5686,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5695,7 +5697,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5706,7 +5708,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5717,7 +5719,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5728,7 +5730,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5739,7 +5741,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5750,7 +5752,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5761,7 +5763,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5772,7 +5774,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5783,7 +5785,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5794,7 +5796,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5805,7 +5807,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5816,7 +5818,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5827,7 +5829,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5838,7 +5840,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5849,7 +5851,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5860,7 +5862,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5871,7 +5873,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5882,7 +5884,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5893,7 +5895,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5904,7 +5906,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5915,7 +5917,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5926,7 +5928,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -5937,7 +5939,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -5948,7 +5950,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -5959,7 +5961,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -5970,7 +5972,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -5981,7 +5983,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -5992,7 +5994,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6003,7 +6005,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6014,7 +6016,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6025,7 +6027,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6036,7 +6038,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6047,7 +6049,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6058,7 +6060,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6069,7 +6071,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6080,7 +6082,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6091,7 +6093,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6102,7 +6104,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6113,7 +6115,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6124,7 +6126,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6135,7 +6137,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6146,7 +6148,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6157,7 +6159,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6168,7 +6170,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6179,7 +6181,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6190,7 +6192,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6201,7 +6203,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6212,7 +6214,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6223,7 +6225,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6234,7 +6236,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6245,7 +6247,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6256,7 +6258,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6267,7 +6269,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6278,7 +6280,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6289,7 +6291,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6300,7 +6302,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6311,7 +6313,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6322,7 +6324,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6333,7 +6335,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6344,7 +6346,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6355,7 +6357,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6366,7 +6368,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6377,7 +6379,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6388,7 +6390,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6399,7 +6401,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6410,7 +6412,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6421,7 +6423,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6432,7 +6434,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6443,7 +6445,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6454,7 +6456,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6465,7 +6467,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6476,7 +6478,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6487,7 +6489,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6498,7 +6500,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6509,7 +6511,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6520,7 +6522,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6531,7 +6533,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6542,7 +6544,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6553,7 +6555,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6564,7 +6566,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6575,7 +6577,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6586,7 +6588,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6597,7 +6599,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6608,7 +6610,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6619,7 +6621,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6630,7 +6632,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6641,7 +6643,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6652,7 +6654,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6663,7 +6665,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6674,7 +6676,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6685,7 +6687,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6696,7 +6698,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6707,7 +6709,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6718,7 +6720,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6729,7 +6731,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6740,7 +6742,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6751,7 +6753,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6762,7 +6764,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6773,7 +6775,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6784,7 +6786,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6795,7 +6797,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6806,7 +6808,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6817,7 +6819,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6828,7 +6830,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6839,7 +6841,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6850,7 +6852,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6861,7 +6863,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6872,7 +6874,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6883,7 +6885,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6894,7 +6896,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6905,7 +6907,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6916,7 +6918,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6927,7 +6929,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -6938,7 +6940,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -6949,7 +6951,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -6960,7 +6962,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -6971,7 +6973,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -6982,7 +6984,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -6993,7 +6995,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7004,7 +7006,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7015,7 +7017,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7026,7 +7028,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7037,7 +7039,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7048,7 +7050,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7059,7 +7061,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7070,7 +7072,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7081,7 +7083,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7092,7 +7094,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7103,7 +7105,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7114,7 +7116,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7125,7 +7127,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7136,7 +7138,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7147,7 +7149,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7158,7 +7160,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7169,7 +7171,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7180,7 +7182,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7191,7 +7193,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7202,7 +7204,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7213,7 +7215,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7224,7 +7226,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7235,7 +7237,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7246,7 +7248,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7257,7 +7259,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7268,7 +7270,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7279,7 +7281,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7290,7 +7292,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7301,7 +7303,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7312,7 +7314,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7323,7 +7325,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7334,7 +7336,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7345,7 +7347,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7356,7 +7358,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7367,7 +7369,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7378,7 +7380,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7389,7 +7391,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7400,7 +7402,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7411,7 +7413,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7422,7 +7424,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7433,7 +7435,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7444,7 +7446,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7455,7 +7457,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7466,7 +7468,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7477,7 +7479,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7488,7 +7490,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7499,7 +7501,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7510,7 +7512,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7521,7 +7523,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7532,7 +7534,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7543,7 +7545,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7554,7 +7556,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7565,7 +7567,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7576,7 +7578,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7587,7 +7589,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7598,7 +7600,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7609,7 +7611,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7620,7 +7622,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7631,7 +7633,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7642,7 +7644,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7653,7 +7655,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7664,7 +7666,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7675,7 +7677,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7686,7 +7688,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7697,7 +7699,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7708,7 +7710,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7719,7 +7721,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7730,7 +7732,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7741,7 +7743,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7752,7 +7754,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7763,7 +7765,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7774,7 +7776,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7785,7 +7787,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7796,7 +7798,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7807,7 +7809,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7818,7 +7820,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7829,7 +7831,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7840,7 +7842,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7851,7 +7853,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7862,7 +7864,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7873,7 +7875,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7884,7 +7886,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7895,7 +7897,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7906,7 +7908,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7917,7 +7919,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7928,7 +7930,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -7939,7 +7941,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -7950,7 +7952,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -7961,7 +7963,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -7972,7 +7974,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -7983,7 +7985,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -7994,7 +7996,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8005,7 +8007,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8016,7 +8018,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8027,7 +8029,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8038,7 +8040,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8049,7 +8051,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8060,7 +8062,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8071,7 +8073,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8082,7 +8084,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8093,7 +8095,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8104,7 +8106,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8115,7 +8117,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8126,7 +8128,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8137,7 +8139,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8148,7 +8150,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8159,7 +8161,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8170,7 +8172,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8181,7 +8183,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8192,7 +8194,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8203,7 +8205,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8214,7 +8216,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8225,7 +8227,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8236,7 +8238,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8247,7 +8249,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8258,7 +8260,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8269,7 +8271,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8280,7 +8282,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8291,7 +8293,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8302,7 +8304,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8313,7 +8315,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8324,7 +8326,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8335,7 +8337,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8346,7 +8348,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8357,7 +8359,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8368,7 +8370,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8379,7 +8381,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8390,7 +8392,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8401,7 +8403,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8412,7 +8414,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8423,7 +8425,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8434,7 +8436,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8445,7 +8447,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8456,7 +8458,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8467,7 +8469,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8478,7 +8480,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8489,7 +8491,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8500,7 +8502,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8511,7 +8513,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8522,7 +8524,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8533,7 +8535,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8544,7 +8546,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8555,7 +8557,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8566,7 +8568,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8577,7 +8579,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8588,7 +8590,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8599,7 +8601,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8610,7 +8612,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8621,7 +8623,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8632,7 +8634,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8643,7 +8645,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8654,7 +8656,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8665,7 +8667,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8676,7 +8678,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8687,7 +8689,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8698,7 +8700,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8709,7 +8711,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8720,7 +8722,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8731,7 +8733,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8742,7 +8744,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8753,7 +8755,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8764,7 +8766,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8775,7 +8777,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8786,7 +8788,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8797,7 +8799,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8808,7 +8810,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8819,7 +8821,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8830,7 +8832,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8841,7 +8843,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8852,7 +8854,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8863,7 +8865,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8874,7 +8876,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8885,7 +8887,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8896,7 +8898,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8907,7 +8909,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8918,7 +8920,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8929,7 +8931,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -8940,7 +8942,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -8951,7 +8953,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -8962,7 +8964,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -8973,7 +8975,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -8984,7 +8986,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -8995,7 +8997,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9006,7 +9008,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9017,7 +9019,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9028,7 +9030,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9039,7 +9041,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9050,7 +9052,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9061,7 +9063,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9072,7 +9074,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9083,7 +9085,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9094,7 +9096,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9105,7 +9107,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9116,7 +9118,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9127,7 +9129,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9138,7 +9140,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9149,7 +9151,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9160,7 +9162,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9171,7 +9173,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9182,7 +9184,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9193,7 +9195,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9204,7 +9206,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9215,7 +9217,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9226,7 +9228,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9237,7 +9239,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9248,7 +9250,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9259,7 +9261,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9270,7 +9272,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9281,7 +9283,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9292,7 +9294,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9303,7 +9305,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9314,7 +9316,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9325,7 +9327,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9336,7 +9338,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9347,7 +9349,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9358,7 +9360,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9369,7 +9371,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9380,7 +9382,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9391,7 +9393,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9402,7 +9404,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9413,7 +9415,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9424,7 +9426,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9435,7 +9437,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9446,7 +9448,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9457,7 +9459,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9468,7 +9470,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9479,7 +9481,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9490,7 +9492,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9501,7 +9503,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9512,7 +9514,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9523,7 +9525,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9534,7 +9536,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9545,7 +9547,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9556,7 +9558,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9567,7 +9569,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9578,7 +9580,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9589,7 +9591,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9600,7 +9602,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9611,7 +9613,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9622,7 +9624,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9633,7 +9635,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9644,7 +9646,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9655,7 +9657,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9666,7 +9668,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9677,7 +9679,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9688,7 +9690,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9699,7 +9701,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9710,7 +9712,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9721,7 +9723,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9732,7 +9734,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9743,7 +9745,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9754,7 +9756,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9765,7 +9767,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9776,7 +9778,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9787,7 +9789,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9798,7 +9800,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9809,7 +9811,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9820,7 +9822,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9831,7 +9833,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9842,7 +9844,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9853,7 +9855,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9864,7 +9866,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9875,7 +9877,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9886,7 +9888,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9897,7 +9899,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9908,7 +9910,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9919,7 +9921,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9930,7 +9932,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -9941,7 +9943,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -9952,7 +9954,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -9963,7 +9965,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -9974,7 +9976,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -9985,7 +9987,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -9996,7 +9998,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10007,7 +10009,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10018,7 +10020,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10029,7 +10031,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10040,7 +10042,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10051,7 +10053,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10062,7 +10064,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10073,7 +10075,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10084,7 +10086,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10095,7 +10097,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10106,7 +10108,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10117,7 +10119,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10128,7 +10130,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10139,7 +10141,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10150,7 +10152,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10161,7 +10163,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10172,7 +10174,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10183,7 +10185,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10194,7 +10196,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10205,7 +10207,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10216,7 +10218,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10227,7 +10229,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10238,7 +10240,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10249,7 +10251,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10260,7 +10262,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10271,7 +10273,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10282,7 +10284,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>224.22</v>
+        <v>174.22</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8571BABC-1FC5-4ECC-86A8-F77670B098B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DA261F-D400-4CC5-988C-16E29B3D0326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3022,7 +3022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
+      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4951,8 +4951,13 @@
         <f t="shared" si="2"/>
         <v>174.22</v>
       </c>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
+      <c r="C152" s="23">
+        <f>65+80</f>
+        <v>145</v>
+      </c>
+      <c r="D152" s="23">
+        <v>106.29</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="24">
@@ -4960,7 +4965,7 @@
       </c>
       <c r="B153" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>212.93</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -4971,7 +4976,7 @@
       </c>
       <c r="B154" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>212.93</v>
       </c>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -4982,10 +4987,15 @@
       </c>
       <c r="B155" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
-      </c>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
+        <v>212.93</v>
+      </c>
+      <c r="C155" s="23">
+        <f>30+10+10+10+80</f>
+        <v>140</v>
+      </c>
+      <c r="D155" s="23">
+        <v>134.41</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="24">
@@ -4993,7 +5003,7 @@
       </c>
       <c r="B156" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -5004,7 +5014,7 @@
       </c>
       <c r="B157" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -5015,7 +5025,7 @@
       </c>
       <c r="B158" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -5026,7 +5036,7 @@
       </c>
       <c r="B159" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
@@ -5037,7 +5047,7 @@
       </c>
       <c r="B160" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -5048,7 +5058,7 @@
       </c>
       <c r="B161" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
@@ -5059,7 +5069,7 @@
       </c>
       <c r="B162" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -5070,7 +5080,7 @@
       </c>
       <c r="B163" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -5081,7 +5091,7 @@
       </c>
       <c r="B164" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -5092,7 +5102,7 @@
       </c>
       <c r="B165" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
@@ -5103,7 +5113,7 @@
       </c>
       <c r="B166" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -5114,7 +5124,7 @@
       </c>
       <c r="B167" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -5125,7 +5135,7 @@
       </c>
       <c r="B168" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -5136,7 +5146,7 @@
       </c>
       <c r="B169" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -5147,7 +5157,7 @@
       </c>
       <c r="B170" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -5158,7 +5168,7 @@
       </c>
       <c r="B171" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -5169,7 +5179,7 @@
       </c>
       <c r="B172" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -5180,7 +5190,7 @@
       </c>
       <c r="B173" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -5191,7 +5201,7 @@
       </c>
       <c r="B174" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -5202,7 +5212,7 @@
       </c>
       <c r="B175" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -5213,7 +5223,7 @@
       </c>
       <c r="B176" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -5224,7 +5234,7 @@
       </c>
       <c r="B177" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -5235,7 +5245,7 @@
       </c>
       <c r="B178" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -5246,7 +5256,7 @@
       </c>
       <c r="B179" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -5257,7 +5267,7 @@
       </c>
       <c r="B180" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -5268,7 +5278,7 @@
       </c>
       <c r="B181" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -5279,7 +5289,7 @@
       </c>
       <c r="B182" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -5290,7 +5300,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5301,7 +5311,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5312,7 +5322,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5323,7 +5333,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5334,7 +5344,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5345,7 +5355,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5356,7 +5366,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5367,7 +5377,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5378,7 +5388,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5389,7 +5399,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5400,7 +5410,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5411,7 +5421,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5422,7 +5432,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5433,7 +5443,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5444,7 +5454,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5455,7 +5465,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5466,7 +5476,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5477,7 +5487,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5488,7 +5498,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5499,7 +5509,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5510,7 +5520,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5521,7 +5531,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5532,7 +5542,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5543,7 +5553,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5554,7 +5564,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5565,7 +5575,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5576,7 +5586,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5587,7 +5597,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5598,7 +5608,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5609,7 +5619,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5620,7 +5630,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5631,7 +5641,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5642,7 +5652,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5653,7 +5663,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5664,7 +5674,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5675,7 +5685,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5686,7 +5696,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5697,7 +5707,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5708,7 +5718,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5719,7 +5729,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5730,7 +5740,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5741,7 +5751,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5752,7 +5762,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5763,7 +5773,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5774,7 +5784,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5785,7 +5795,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5796,7 +5806,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5807,7 +5817,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5818,7 +5828,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5829,7 +5839,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5840,7 +5850,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5851,7 +5861,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5862,7 +5872,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5873,7 +5883,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5884,7 +5894,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5895,7 +5905,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5906,7 +5916,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5917,7 +5927,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5928,7 +5938,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -5939,7 +5949,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -5950,7 +5960,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -5961,7 +5971,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -5972,7 +5982,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -5983,7 +5993,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -5994,7 +6004,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6005,7 +6015,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6016,7 +6026,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6027,7 +6037,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6038,7 +6048,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6049,7 +6059,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6060,7 +6070,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6071,7 +6081,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6082,7 +6092,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6093,7 +6103,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6104,7 +6114,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6115,7 +6125,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6126,7 +6136,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6137,7 +6147,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6148,7 +6158,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6159,7 +6169,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6170,7 +6180,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6181,7 +6191,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6192,7 +6202,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6203,7 +6213,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6214,7 +6224,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6225,7 +6235,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6236,7 +6246,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6247,7 +6257,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6258,7 +6268,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6269,7 +6279,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6280,7 +6290,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6291,7 +6301,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6302,7 +6312,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6313,7 +6323,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6324,7 +6334,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6335,7 +6345,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6346,7 +6356,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6357,7 +6367,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6368,7 +6378,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6379,7 +6389,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6390,7 +6400,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6401,7 +6411,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6412,7 +6422,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6423,7 +6433,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6434,7 +6444,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6445,7 +6455,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6456,7 +6466,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6467,7 +6477,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6478,7 +6488,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6489,7 +6499,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6500,7 +6510,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6511,7 +6521,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6522,7 +6532,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6533,7 +6543,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6544,7 +6554,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6555,7 +6565,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6566,7 +6576,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6577,7 +6587,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6588,7 +6598,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6599,7 +6609,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6610,7 +6620,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6621,7 +6631,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6632,7 +6642,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6643,7 +6653,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6654,7 +6664,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6665,7 +6675,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6676,7 +6686,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6687,7 +6697,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6698,7 +6708,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6709,7 +6719,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6720,7 +6730,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6731,7 +6741,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6742,7 +6752,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6753,7 +6763,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6764,7 +6774,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6775,7 +6785,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6786,7 +6796,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6797,7 +6807,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6808,7 +6818,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6819,7 +6829,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6830,7 +6840,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6841,7 +6851,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6852,7 +6862,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6863,7 +6873,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6874,7 +6884,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6885,7 +6895,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6896,7 +6906,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6907,7 +6917,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6918,7 +6928,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6929,7 +6939,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -6940,7 +6950,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -6951,7 +6961,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -6962,7 +6972,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -6973,7 +6983,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -6984,7 +6994,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -6995,7 +7005,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7006,7 +7016,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7017,7 +7027,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7028,7 +7038,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7039,7 +7049,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7050,7 +7060,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7061,7 +7071,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7072,7 +7082,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7083,7 +7093,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7094,7 +7104,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7105,7 +7115,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7116,7 +7126,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7127,7 +7137,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7138,7 +7148,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7149,7 +7159,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7160,7 +7170,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7171,7 +7181,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7182,7 +7192,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7193,7 +7203,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7204,7 +7214,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7215,7 +7225,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7226,7 +7236,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7237,7 +7247,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7248,7 +7258,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7259,7 +7269,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7270,7 +7280,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7281,7 +7291,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7292,7 +7302,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7303,7 +7313,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7314,7 +7324,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7325,7 +7335,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7336,7 +7346,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7347,7 +7357,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7358,7 +7368,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7369,7 +7379,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7380,7 +7390,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7391,7 +7401,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7402,7 +7412,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7413,7 +7423,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7424,7 +7434,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7435,7 +7445,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7446,7 +7456,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7457,7 +7467,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7468,7 +7478,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7479,7 +7489,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7490,7 +7500,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7501,7 +7511,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7512,7 +7522,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7523,7 +7533,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7534,7 +7544,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7545,7 +7555,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7556,7 +7566,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7567,7 +7577,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7578,7 +7588,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7589,7 +7599,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7600,7 +7610,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7611,7 +7621,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7622,7 +7632,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7633,7 +7643,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7644,7 +7654,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7655,7 +7665,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7666,7 +7676,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7677,7 +7687,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7688,7 +7698,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7699,7 +7709,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7710,7 +7720,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7721,7 +7731,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7732,7 +7742,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7743,7 +7753,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7754,7 +7764,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7765,7 +7775,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7776,7 +7786,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7787,7 +7797,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7798,7 +7808,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7809,7 +7819,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7820,7 +7830,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7831,7 +7841,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7842,7 +7852,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7853,7 +7863,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7864,7 +7874,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7875,7 +7885,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7886,7 +7896,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7897,7 +7907,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7908,7 +7918,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7919,7 +7929,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7930,7 +7940,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -7941,7 +7951,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -7952,7 +7962,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -7963,7 +7973,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -7974,7 +7984,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -7985,7 +7995,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -7996,7 +8006,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8007,7 +8017,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8018,7 +8028,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8029,7 +8039,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8040,7 +8050,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8051,7 +8061,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8062,7 +8072,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8073,7 +8083,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8084,7 +8094,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8095,7 +8105,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8106,7 +8116,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8117,7 +8127,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8128,7 +8138,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8139,7 +8149,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8150,7 +8160,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8161,7 +8171,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8172,7 +8182,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8183,7 +8193,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8194,7 +8204,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8205,7 +8215,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8216,7 +8226,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8227,7 +8237,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8238,7 +8248,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8249,7 +8259,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8260,7 +8270,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8271,7 +8281,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8282,7 +8292,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8293,7 +8303,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8304,7 +8314,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8315,7 +8325,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8326,7 +8336,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8337,7 +8347,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8348,7 +8358,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8359,7 +8369,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8370,7 +8380,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8381,7 +8391,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8392,7 +8402,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8403,7 +8413,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8414,7 +8424,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8425,7 +8435,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8436,7 +8446,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8447,7 +8457,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8458,7 +8468,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8469,7 +8479,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8480,7 +8490,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8491,7 +8501,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8502,7 +8512,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8513,7 +8523,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8524,7 +8534,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8535,7 +8545,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8546,7 +8556,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8557,7 +8567,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8568,7 +8578,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8579,7 +8589,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8590,7 +8600,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8601,7 +8611,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8612,7 +8622,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8623,7 +8633,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8634,7 +8644,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8645,7 +8655,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8656,7 +8666,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8667,7 +8677,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8678,7 +8688,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8689,7 +8699,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8700,7 +8710,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8711,7 +8721,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8722,7 +8732,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8733,7 +8743,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8744,7 +8754,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8755,7 +8765,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8766,7 +8776,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8777,7 +8787,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8788,7 +8798,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8799,7 +8809,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8810,7 +8820,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8821,7 +8831,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8832,7 +8842,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8843,7 +8853,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8854,7 +8864,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8865,7 +8875,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8876,7 +8886,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8887,7 +8897,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8898,7 +8908,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8909,7 +8919,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8920,7 +8930,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8931,7 +8941,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -8942,7 +8952,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -8953,7 +8963,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -8964,7 +8974,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -8975,7 +8985,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -8986,7 +8996,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -8997,7 +9007,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9008,7 +9018,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9019,7 +9029,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9030,7 +9040,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9041,7 +9051,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9052,7 +9062,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9063,7 +9073,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9074,7 +9084,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9085,7 +9095,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9096,7 +9106,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9107,7 +9117,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9118,7 +9128,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9129,7 +9139,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9140,7 +9150,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9151,7 +9161,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9162,7 +9172,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9173,7 +9183,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9184,7 +9194,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9195,7 +9205,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9206,7 +9216,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9217,7 +9227,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9228,7 +9238,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9239,7 +9249,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9250,7 +9260,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9261,7 +9271,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9272,7 +9282,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9283,7 +9293,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9294,7 +9304,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9305,7 +9315,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9316,7 +9326,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9327,7 +9337,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9338,7 +9348,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9349,7 +9359,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9360,7 +9370,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9371,7 +9381,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9382,7 +9392,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9393,7 +9403,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9404,7 +9414,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9415,7 +9425,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9426,7 +9436,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9437,7 +9447,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9448,7 +9458,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9459,7 +9469,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9470,7 +9480,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9481,7 +9491,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9492,7 +9502,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9503,7 +9513,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9514,7 +9524,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9525,7 +9535,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9536,7 +9546,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9547,7 +9557,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9558,7 +9568,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9569,7 +9579,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9580,7 +9590,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9591,7 +9601,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9602,7 +9612,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9613,7 +9623,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9624,7 +9634,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9635,7 +9645,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9646,7 +9656,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9657,7 +9667,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9668,7 +9678,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9679,7 +9689,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9690,7 +9700,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9701,7 +9711,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9712,7 +9722,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9723,7 +9733,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9734,7 +9744,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9745,7 +9755,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9756,7 +9766,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9767,7 +9777,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9778,7 +9788,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9789,7 +9799,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9800,7 +9810,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9811,7 +9821,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9822,7 +9832,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9833,7 +9843,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9844,7 +9854,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9855,7 +9865,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9866,7 +9876,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9877,7 +9887,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9888,7 +9898,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9899,7 +9909,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9910,7 +9920,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9921,7 +9931,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9932,7 +9942,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -9943,7 +9953,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -9954,7 +9964,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -9965,7 +9975,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -9976,7 +9986,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -9987,7 +9997,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -9998,7 +10008,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10009,7 +10019,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10020,7 +10030,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10031,7 +10041,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10042,7 +10052,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10053,7 +10063,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10064,7 +10074,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10075,7 +10085,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10086,7 +10096,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10097,7 +10107,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10108,7 +10118,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10119,7 +10129,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10130,7 +10140,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10141,7 +10151,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10152,7 +10162,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10163,7 +10173,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10174,7 +10184,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10185,7 +10195,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10196,7 +10206,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10207,7 +10217,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10218,7 +10228,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10229,7 +10239,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10240,7 +10250,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10251,7 +10261,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10262,7 +10272,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10273,7 +10283,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10284,7 +10294,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>174.22</v>
+        <v>218.52</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DA261F-D400-4CC5-988C-16E29B3D0326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0BB800-EE8D-4D72-985E-0E391AD20CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3021,8 +3021,8 @@
   <dimension ref="A1:D637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5005,7 +5005,9 @@
         <f t="shared" si="2"/>
         <v>218.52</v>
       </c>
-      <c r="C156" s="23"/>
+      <c r="C156" s="23">
+        <v>10</v>
+      </c>
       <c r="D156" s="23"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,10 +5016,14 @@
       </c>
       <c r="B157" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
-      </c>
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
+        <v>228.52</v>
+      </c>
+      <c r="C157" s="23">
+        <v>20</v>
+      </c>
+      <c r="D157" s="23">
+        <v>142.96</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="24">
@@ -5025,9 +5031,11 @@
       </c>
       <c r="B158" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
-      </c>
-      <c r="C158" s="23"/>
+        <v>105.56</v>
+      </c>
+      <c r="C158" s="23">
+        <v>55</v>
+      </c>
       <c r="D158" s="23"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5036,10 +5044,15 @@
       </c>
       <c r="B159" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
-      </c>
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
+        <v>160.56</v>
+      </c>
+      <c r="C159" s="23">
+        <f>55+65</f>
+        <v>120</v>
+      </c>
+      <c r="D159" s="23">
+        <v>159.54</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="24">
@@ -5047,7 +5060,7 @@
       </c>
       <c r="B160" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>121.02000000000001</v>
       </c>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -5058,10 +5071,15 @@
       </c>
       <c r="B161" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
-      </c>
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
+        <v>121.02000000000001</v>
+      </c>
+      <c r="C161" s="23">
+        <f>10+50+50</f>
+        <v>110</v>
+      </c>
+      <c r="D161" s="23">
+        <v>94.86</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="24">
@@ -5069,7 +5087,7 @@
       </c>
       <c r="B162" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>136.16000000000003</v>
       </c>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -5080,10 +5098,15 @@
       </c>
       <c r="B163" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
-      </c>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
+        <v>136.16000000000003</v>
+      </c>
+      <c r="C163" s="23">
+        <f>45+10+75</f>
+        <v>130</v>
+      </c>
+      <c r="D163" s="23">
+        <v>104.5</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="24">
@@ -5091,7 +5114,7 @@
       </c>
       <c r="B164" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>161.66000000000003</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -5102,10 +5125,15 @@
       </c>
       <c r="B165" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
-      </c>
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
+        <v>161.66000000000003</v>
+      </c>
+      <c r="C165" s="23">
+        <f>45+10+55</f>
+        <v>110</v>
+      </c>
+      <c r="D165" s="23">
+        <v>104.1</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="24">
@@ -5113,7 +5141,7 @@
       </c>
       <c r="B166" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>167.56000000000003</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -5124,7 +5152,7 @@
       </c>
       <c r="B167" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>167.56000000000003</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -5135,7 +5163,7 @@
       </c>
       <c r="B168" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>167.56000000000003</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -5146,7 +5174,7 @@
       </c>
       <c r="B169" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>167.56000000000003</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -5157,10 +5185,15 @@
       </c>
       <c r="B170" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
-      </c>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
+        <v>167.56000000000003</v>
+      </c>
+      <c r="C170" s="23">
+        <f>10+60+45</f>
+        <v>115</v>
+      </c>
+      <c r="D170" s="23">
+        <v>110.52</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="24">
@@ -5168,7 +5201,7 @@
       </c>
       <c r="B171" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -5179,7 +5212,7 @@
       </c>
       <c r="B172" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -5190,7 +5223,7 @@
       </c>
       <c r="B173" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -5201,7 +5234,7 @@
       </c>
       <c r="B174" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -5212,7 +5245,7 @@
       </c>
       <c r="B175" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -5223,7 +5256,7 @@
       </c>
       <c r="B176" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -5234,7 +5267,7 @@
       </c>
       <c r="B177" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -5245,7 +5278,7 @@
       </c>
       <c r="B178" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -5256,7 +5289,7 @@
       </c>
       <c r="B179" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -5267,7 +5300,7 @@
       </c>
       <c r="B180" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -5278,7 +5311,7 @@
       </c>
       <c r="B181" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -5289,7 +5322,7 @@
       </c>
       <c r="B182" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -5300,7 +5333,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5311,7 +5344,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5322,7 +5355,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5333,7 +5366,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5344,7 +5377,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5355,7 +5388,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5366,7 +5399,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5377,7 +5410,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5388,7 +5421,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5399,7 +5432,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5410,7 +5443,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5421,7 +5454,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5432,7 +5465,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5443,7 +5476,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5454,7 +5487,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5465,7 +5498,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5476,7 +5509,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5487,7 +5520,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5498,7 +5531,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5509,7 +5542,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5520,7 +5553,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5531,7 +5564,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5542,7 +5575,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5553,7 +5586,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5564,7 +5597,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5575,7 +5608,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5586,7 +5619,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5597,7 +5630,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5608,7 +5641,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5619,7 +5652,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5630,7 +5663,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5641,7 +5674,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5652,7 +5685,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5663,7 +5696,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5674,7 +5707,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5685,7 +5718,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5696,7 +5729,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5707,7 +5740,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5718,7 +5751,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5729,7 +5762,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5740,7 +5773,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5751,7 +5784,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5762,7 +5795,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5773,7 +5806,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5784,7 +5817,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5795,7 +5828,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5806,7 +5839,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5817,7 +5850,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5828,7 +5861,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5839,7 +5872,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5850,7 +5883,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5861,7 +5894,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5872,7 +5905,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5883,7 +5916,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5894,7 +5927,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5905,7 +5938,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5916,7 +5949,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5927,7 +5960,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5938,7 +5971,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -5949,7 +5982,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -5960,7 +5993,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -5971,7 +6004,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -5982,7 +6015,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -5993,7 +6026,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -6004,7 +6037,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6015,7 +6048,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6026,7 +6059,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6037,7 +6070,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6048,7 +6081,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6059,7 +6092,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6070,7 +6103,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6081,7 +6114,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6092,7 +6125,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6103,7 +6136,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6114,7 +6147,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6125,7 +6158,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6136,7 +6169,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6147,7 +6180,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6158,7 +6191,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6169,7 +6202,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6180,7 +6213,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6191,7 +6224,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6202,7 +6235,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6213,7 +6246,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6224,7 +6257,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6235,7 +6268,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6246,7 +6279,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6257,7 +6290,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6268,7 +6301,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6279,7 +6312,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6290,7 +6323,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6301,7 +6334,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6312,7 +6345,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6323,7 +6356,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6334,7 +6367,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6345,7 +6378,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6356,7 +6389,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6367,7 +6400,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6378,7 +6411,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6389,7 +6422,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6400,7 +6433,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6411,7 +6444,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6422,7 +6455,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6433,7 +6466,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6444,7 +6477,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6455,7 +6488,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6466,7 +6499,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6477,7 +6510,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6488,7 +6521,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6499,7 +6532,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6510,7 +6543,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6521,7 +6554,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6532,7 +6565,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6543,7 +6576,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6554,7 +6587,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6565,7 +6598,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6576,7 +6609,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6587,7 +6620,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6598,7 +6631,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6609,7 +6642,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6620,7 +6653,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6631,7 +6664,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6642,7 +6675,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6653,7 +6686,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6664,7 +6697,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6675,7 +6708,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6686,7 +6719,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6697,7 +6730,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6708,7 +6741,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6719,7 +6752,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6730,7 +6763,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6741,7 +6774,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6752,7 +6785,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6763,7 +6796,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6774,7 +6807,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6785,7 +6818,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6796,7 +6829,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6807,7 +6840,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6818,7 +6851,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6829,7 +6862,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6840,7 +6873,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6851,7 +6884,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6862,7 +6895,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6873,7 +6906,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6884,7 +6917,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6895,7 +6928,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6906,7 +6939,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6917,7 +6950,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6928,7 +6961,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6939,7 +6972,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -6950,7 +6983,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -6961,7 +6994,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -6972,7 +7005,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -6983,7 +7016,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -6994,7 +7027,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -7005,7 +7038,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7016,7 +7049,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7027,7 +7060,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7038,7 +7071,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7049,7 +7082,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7060,7 +7093,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7071,7 +7104,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7082,7 +7115,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7093,7 +7126,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7104,7 +7137,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7115,7 +7148,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7126,7 +7159,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7137,7 +7170,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7148,7 +7181,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7159,7 +7192,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7170,7 +7203,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7181,7 +7214,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7192,7 +7225,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7203,7 +7236,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7214,7 +7247,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7225,7 +7258,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7236,7 +7269,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7247,7 +7280,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7258,7 +7291,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7269,7 +7302,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7280,7 +7313,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7291,7 +7324,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7302,7 +7335,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7313,7 +7346,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7324,7 +7357,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7335,7 +7368,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7346,7 +7379,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7357,7 +7390,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7368,7 +7401,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7379,7 +7412,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7390,7 +7423,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7401,7 +7434,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7412,7 +7445,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7423,7 +7456,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7434,7 +7467,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7445,7 +7478,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7456,7 +7489,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7467,7 +7500,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7478,7 +7511,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7489,7 +7522,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7500,7 +7533,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7511,7 +7544,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7522,7 +7555,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7533,7 +7566,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7544,7 +7577,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7555,7 +7588,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7566,7 +7599,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7577,7 +7610,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7588,7 +7621,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7599,7 +7632,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7610,7 +7643,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7621,7 +7654,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7632,7 +7665,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7643,7 +7676,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7654,7 +7687,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7665,7 +7698,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7676,7 +7709,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7687,7 +7720,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7698,7 +7731,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7709,7 +7742,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7720,7 +7753,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7731,7 +7764,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7742,7 +7775,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7753,7 +7786,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7764,7 +7797,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7775,7 +7808,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7786,7 +7819,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7797,7 +7830,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7808,7 +7841,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7819,7 +7852,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7830,7 +7863,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7841,7 +7874,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7852,7 +7885,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7863,7 +7896,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7874,7 +7907,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7885,7 +7918,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7896,7 +7929,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7907,7 +7940,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7918,7 +7951,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7929,7 +7962,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7940,7 +7973,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -7951,7 +7984,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -7962,7 +7995,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -7973,7 +8006,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -7984,7 +8017,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -7995,7 +8028,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -8006,7 +8039,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8017,7 +8050,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8028,7 +8061,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8039,7 +8072,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8050,7 +8083,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8061,7 +8094,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8072,7 +8105,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8083,7 +8116,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8094,7 +8127,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8105,7 +8138,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8116,7 +8149,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8127,7 +8160,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8138,7 +8171,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8149,7 +8182,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8160,7 +8193,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8171,7 +8204,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8182,7 +8215,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8193,7 +8226,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8204,7 +8237,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8215,7 +8248,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8226,7 +8259,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8237,7 +8270,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8248,7 +8281,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8259,7 +8292,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8270,7 +8303,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8281,7 +8314,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8292,7 +8325,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8303,7 +8336,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8314,7 +8347,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8325,7 +8358,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8336,7 +8369,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8347,7 +8380,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8358,7 +8391,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8369,7 +8402,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8380,7 +8413,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8391,7 +8424,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8402,7 +8435,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8413,7 +8446,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8424,7 +8457,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8435,7 +8468,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8446,7 +8479,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8457,7 +8490,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8468,7 +8501,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8479,7 +8512,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8490,7 +8523,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8501,7 +8534,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8512,7 +8545,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8523,7 +8556,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8534,7 +8567,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8545,7 +8578,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8556,7 +8589,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8567,7 +8600,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8578,7 +8611,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8589,7 +8622,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8600,7 +8633,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8611,7 +8644,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8622,7 +8655,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8633,7 +8666,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8644,7 +8677,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8655,7 +8688,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8666,7 +8699,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8677,7 +8710,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8688,7 +8721,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8699,7 +8732,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8710,7 +8743,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8721,7 +8754,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8732,7 +8765,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8743,7 +8776,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8754,7 +8787,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8765,7 +8798,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8776,7 +8809,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8787,7 +8820,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8798,7 +8831,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8809,7 +8842,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8820,7 +8853,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8831,7 +8864,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8842,7 +8875,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8853,7 +8886,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8864,7 +8897,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8875,7 +8908,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8886,7 +8919,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8897,7 +8930,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8908,7 +8941,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8919,7 +8952,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8930,7 +8963,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8941,7 +8974,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -8952,7 +8985,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -8963,7 +8996,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -8974,7 +9007,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -8985,7 +9018,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -8996,7 +9029,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -9007,7 +9040,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9018,7 +9051,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9029,7 +9062,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9040,7 +9073,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9051,7 +9084,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9062,7 +9095,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9073,7 +9106,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9084,7 +9117,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9095,7 +9128,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9106,7 +9139,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9117,7 +9150,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9128,7 +9161,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9139,7 +9172,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9150,7 +9183,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9161,7 +9194,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9172,7 +9205,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9183,7 +9216,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9194,7 +9227,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9205,7 +9238,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9216,7 +9249,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9227,7 +9260,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9238,7 +9271,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9249,7 +9282,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9260,7 +9293,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9271,7 +9304,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9282,7 +9315,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9293,7 +9326,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9304,7 +9337,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9315,7 +9348,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9326,7 +9359,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9337,7 +9370,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9348,7 +9381,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9359,7 +9392,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9370,7 +9403,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9381,7 +9414,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9392,7 +9425,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9403,7 +9436,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9414,7 +9447,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9425,7 +9458,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9436,7 +9469,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9447,7 +9480,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9458,7 +9491,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9469,7 +9502,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9480,7 +9513,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9491,7 +9524,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9502,7 +9535,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9513,7 +9546,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9524,7 +9557,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9535,7 +9568,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9546,7 +9579,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9557,7 +9590,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9568,7 +9601,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9579,7 +9612,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9590,7 +9623,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9601,7 +9634,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9612,7 +9645,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9623,7 +9656,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9634,7 +9667,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9645,7 +9678,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9656,7 +9689,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9667,7 +9700,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9678,7 +9711,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9689,7 +9722,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9700,7 +9733,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9711,7 +9744,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9722,7 +9755,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9733,7 +9766,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9744,7 +9777,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9755,7 +9788,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9766,7 +9799,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9777,7 +9810,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9788,7 +9821,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9799,7 +9832,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9810,7 +9843,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9821,7 +9854,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9832,7 +9865,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9843,7 +9876,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9854,7 +9887,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9865,7 +9898,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9876,7 +9909,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9887,7 +9920,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9898,7 +9931,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9909,7 +9942,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9920,7 +9953,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9931,7 +9964,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9942,7 +9975,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -9953,7 +9986,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -9964,7 +9997,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -9975,7 +10008,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -9986,7 +10019,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -9997,7 +10030,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -10008,7 +10041,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10019,7 +10052,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10030,7 +10063,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10041,7 +10074,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10052,7 +10085,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10063,7 +10096,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10074,7 +10107,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10085,7 +10118,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10096,7 +10129,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10107,7 +10140,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10118,7 +10151,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10129,7 +10162,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10140,7 +10173,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10151,7 +10184,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10162,7 +10195,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10173,7 +10206,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10184,7 +10217,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10195,7 +10228,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10206,7 +10239,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10217,7 +10250,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10228,7 +10261,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10239,7 +10272,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10250,7 +10283,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10261,7 +10294,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10272,7 +10305,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10283,7 +10316,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10294,7 +10327,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>218.52</v>
+        <v>172.04000000000008</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0BB800-EE8D-4D72-985E-0E391AD20CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF4B87-FA8E-42E2-818E-2BEA2537618E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3021,8 +3021,8 @@
   <dimension ref="A1:D637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5236,8 +5236,13 @@
         <f t="shared" si="2"/>
         <v>172.04000000000008</v>
       </c>
-      <c r="C174" s="23"/>
-      <c r="D174" s="23"/>
+      <c r="C174" s="23">
+        <f>10+55+75</f>
+        <v>140</v>
+      </c>
+      <c r="D174" s="23">
+        <v>133</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="24">
@@ -5245,7 +5250,7 @@
       </c>
       <c r="B175" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -5256,7 +5261,7 @@
       </c>
       <c r="B176" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -5267,7 +5272,7 @@
       </c>
       <c r="B177" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -5278,7 +5283,7 @@
       </c>
       <c r="B178" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -5289,7 +5294,7 @@
       </c>
       <c r="B179" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -5300,7 +5305,7 @@
       </c>
       <c r="B180" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -5311,7 +5316,7 @@
       </c>
       <c r="B181" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -5322,7 +5327,7 @@
       </c>
       <c r="B182" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -5333,7 +5338,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5344,7 +5349,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5355,7 +5360,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5366,7 +5371,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5377,7 +5382,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5388,7 +5393,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5399,7 +5404,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5410,7 +5415,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5421,7 +5426,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5432,7 +5437,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5443,7 +5448,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5454,7 +5459,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5465,7 +5470,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5476,7 +5481,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5487,7 +5492,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5498,7 +5503,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5509,7 +5514,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5520,7 +5525,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5531,7 +5536,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5542,7 +5547,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5553,7 +5558,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5564,7 +5569,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5575,7 +5580,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5586,7 +5591,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5597,7 +5602,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5608,7 +5613,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5619,7 +5624,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5630,7 +5635,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5641,7 +5646,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5652,7 +5657,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5663,7 +5668,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5674,7 +5679,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5685,7 +5690,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5696,7 +5701,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5707,7 +5712,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5718,7 +5723,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5729,7 +5734,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5740,7 +5745,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5751,7 +5756,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5762,7 +5767,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5773,7 +5778,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5784,7 +5789,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5795,7 +5800,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5806,7 +5811,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5817,7 +5822,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5828,7 +5833,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5839,7 +5844,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5850,7 +5855,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5861,7 +5866,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5872,7 +5877,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5883,7 +5888,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5894,7 +5899,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5905,7 +5910,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5916,7 +5921,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5927,7 +5932,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5938,7 +5943,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5949,7 +5954,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5960,7 +5965,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5971,7 +5976,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -5982,7 +5987,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -5993,7 +5998,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -6004,7 +6009,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -6015,7 +6020,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -6026,7 +6031,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -6037,7 +6042,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6048,7 +6053,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6059,7 +6064,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6070,7 +6075,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6081,7 +6086,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6092,7 +6097,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6103,7 +6108,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6114,7 +6119,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6125,7 +6130,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6136,7 +6141,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6147,7 +6152,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6158,7 +6163,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6169,7 +6174,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6180,7 +6185,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6191,7 +6196,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6202,7 +6207,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6213,7 +6218,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6224,7 +6229,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6235,7 +6240,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6246,7 +6251,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6257,7 +6262,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6268,7 +6273,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6279,7 +6284,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6290,7 +6295,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6301,7 +6306,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6312,7 +6317,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6323,7 +6328,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6334,7 +6339,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6345,7 +6350,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6356,7 +6361,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6367,7 +6372,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6378,7 +6383,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6389,7 +6394,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6400,7 +6405,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6411,7 +6416,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6422,7 +6427,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6433,7 +6438,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6444,7 +6449,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6455,7 +6460,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6466,7 +6471,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6477,7 +6482,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6488,7 +6493,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6499,7 +6504,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6510,7 +6515,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6521,7 +6526,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6532,7 +6537,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6543,7 +6548,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6554,7 +6559,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6565,7 +6570,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6576,7 +6581,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6587,7 +6592,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6598,7 +6603,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6609,7 +6614,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6620,7 +6625,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6631,7 +6636,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6642,7 +6647,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6653,7 +6658,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6664,7 +6669,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6675,7 +6680,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6686,7 +6691,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6697,7 +6702,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6708,7 +6713,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6719,7 +6724,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6730,7 +6735,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6741,7 +6746,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6752,7 +6757,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6763,7 +6768,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6774,7 +6779,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6785,7 +6790,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6796,7 +6801,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6807,7 +6812,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6818,7 +6823,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6829,7 +6834,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6840,7 +6845,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6851,7 +6856,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6862,7 +6867,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6873,7 +6878,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6884,7 +6889,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6895,7 +6900,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6906,7 +6911,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6917,7 +6922,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6928,7 +6933,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6939,7 +6944,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6950,7 +6955,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6961,7 +6966,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6972,7 +6977,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -6983,7 +6988,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -6994,7 +6999,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -7005,7 +7010,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -7016,7 +7021,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -7027,7 +7032,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -7038,7 +7043,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7049,7 +7054,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7060,7 +7065,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7071,7 +7076,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7082,7 +7087,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7093,7 +7098,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7104,7 +7109,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7115,7 +7120,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7126,7 +7131,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7137,7 +7142,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7148,7 +7153,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7159,7 +7164,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7170,7 +7175,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7181,7 +7186,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7192,7 +7197,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7203,7 +7208,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7214,7 +7219,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7225,7 +7230,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7236,7 +7241,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7247,7 +7252,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7258,7 +7263,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7269,7 +7274,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7280,7 +7285,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7291,7 +7296,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7302,7 +7307,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7313,7 +7318,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7324,7 +7329,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7335,7 +7340,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7346,7 +7351,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7357,7 +7362,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7368,7 +7373,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7379,7 +7384,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7390,7 +7395,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7401,7 +7406,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7412,7 +7417,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7423,7 +7428,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7434,7 +7439,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7445,7 +7450,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7456,7 +7461,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7467,7 +7472,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7478,7 +7483,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7489,7 +7494,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7500,7 +7505,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7511,7 +7516,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7522,7 +7527,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7533,7 +7538,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7544,7 +7549,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7555,7 +7560,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7577,7 +7582,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7588,7 +7593,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7599,7 +7604,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7610,7 +7615,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7621,7 +7626,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7632,7 +7637,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7643,7 +7648,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7654,7 +7659,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7665,7 +7670,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7676,7 +7681,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7687,7 +7692,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7698,7 +7703,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7709,7 +7714,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7720,7 +7725,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7731,7 +7736,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7742,7 +7747,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7753,7 +7758,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7764,7 +7769,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7775,7 +7780,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7786,7 +7791,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7797,7 +7802,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7808,7 +7813,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7819,7 +7824,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7830,7 +7835,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7841,7 +7846,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7852,7 +7857,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7863,7 +7868,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7874,7 +7879,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7885,7 +7890,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7896,7 +7901,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7907,7 +7912,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7918,7 +7923,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7929,7 +7934,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7940,7 +7945,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7951,7 +7956,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7962,7 +7967,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7973,7 +7978,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -7984,7 +7989,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -7995,7 +8000,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -8006,7 +8011,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -8017,7 +8022,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -8028,7 +8033,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -8039,7 +8044,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8050,7 +8055,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8072,7 +8077,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8083,7 +8088,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8094,7 +8099,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8105,7 +8110,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8116,7 +8121,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8127,7 +8132,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8138,7 +8143,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8149,7 +8154,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8160,7 +8165,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8171,7 +8176,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8182,7 +8187,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8193,7 +8198,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8204,7 +8209,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8215,7 +8220,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8226,7 +8231,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8237,7 +8242,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8248,7 +8253,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8259,7 +8264,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8270,7 +8275,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8281,7 +8286,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8292,7 +8297,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8303,7 +8308,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8314,7 +8319,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8325,7 +8330,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8336,7 +8341,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8347,7 +8352,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8358,7 +8363,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8369,7 +8374,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8380,7 +8385,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8391,7 +8396,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8402,7 +8407,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8413,7 +8418,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8424,7 +8429,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8435,7 +8440,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8446,7 +8451,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8457,7 +8462,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8468,7 +8473,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8479,7 +8484,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8490,7 +8495,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8501,7 +8506,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8512,7 +8517,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8523,7 +8528,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8534,7 +8539,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8545,7 +8550,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8567,7 +8572,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8578,7 +8583,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8589,7 +8594,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8600,7 +8605,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8611,7 +8616,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8622,7 +8627,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8633,7 +8638,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8644,7 +8649,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8655,7 +8660,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8666,7 +8671,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8677,7 +8682,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8688,7 +8693,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8699,7 +8704,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8710,7 +8715,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8721,7 +8726,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8732,7 +8737,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8743,7 +8748,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8754,7 +8759,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8765,7 +8770,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8776,7 +8781,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8787,7 +8792,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8798,7 +8803,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8809,7 +8814,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8820,7 +8825,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8831,7 +8836,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8842,7 +8847,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8853,7 +8858,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8864,7 +8869,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8875,7 +8880,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8886,7 +8891,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8897,7 +8902,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8908,7 +8913,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8919,7 +8924,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8930,7 +8935,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8941,7 +8946,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8952,7 +8957,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8963,7 +8968,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8974,7 +8979,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -8985,7 +8990,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -8996,7 +9001,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -9007,7 +9012,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -9018,7 +9023,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -9029,7 +9034,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -9040,7 +9045,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9051,7 +9056,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9062,7 +9067,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9073,7 +9078,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9084,7 +9089,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9095,7 +9100,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9106,7 +9111,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9117,7 +9122,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9128,7 +9133,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9139,7 +9144,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9150,7 +9155,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9161,7 +9166,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9172,7 +9177,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9183,7 +9188,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9194,7 +9199,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9205,7 +9210,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9216,7 +9221,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9227,7 +9232,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9238,7 +9243,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9249,7 +9254,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9260,7 +9265,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9271,7 +9276,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9282,7 +9287,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9293,7 +9298,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9304,7 +9309,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9315,7 +9320,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9326,7 +9331,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9337,7 +9342,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9348,7 +9353,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9359,7 +9364,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9370,7 +9375,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9381,7 +9386,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9392,7 +9397,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9403,7 +9408,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9414,7 +9419,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9425,7 +9430,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9436,7 +9441,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9447,7 +9452,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9458,7 +9463,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9469,7 +9474,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9480,7 +9485,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9491,7 +9496,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9502,7 +9507,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9513,7 +9518,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9524,7 +9529,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9535,7 +9540,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9546,7 +9551,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9557,7 +9562,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9568,7 +9573,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9579,7 +9584,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9590,7 +9595,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9601,7 +9606,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9612,7 +9617,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9623,7 +9628,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9634,7 +9639,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9645,7 +9650,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9656,7 +9661,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9667,7 +9672,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9678,7 +9683,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9689,7 +9694,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9700,7 +9705,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9711,7 +9716,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9722,7 +9727,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9733,7 +9738,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9744,7 +9749,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9755,7 +9760,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9766,7 +9771,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9777,7 +9782,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9788,7 +9793,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9799,7 +9804,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9810,7 +9815,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9821,7 +9826,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9832,7 +9837,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9843,7 +9848,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9854,7 +9859,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9865,7 +9870,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9876,7 +9881,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9887,7 +9892,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9898,7 +9903,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9909,7 +9914,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9920,7 +9925,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9931,7 +9936,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9942,7 +9947,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9953,7 +9958,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9964,7 +9969,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9975,7 +9980,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -9986,7 +9991,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -9997,7 +10002,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -10008,7 +10013,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -10019,7 +10024,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -10030,7 +10035,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -10041,7 +10046,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10052,7 +10057,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10063,7 +10068,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10074,7 +10079,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10085,7 +10090,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10096,7 +10101,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10107,7 +10112,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10118,7 +10123,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10129,7 +10134,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10140,7 +10145,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10151,7 +10156,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10162,7 +10167,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10173,7 +10178,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10184,7 +10189,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10195,7 +10200,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10206,7 +10211,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10217,7 +10222,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10228,7 +10233,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10239,7 +10244,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10250,7 +10255,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10261,7 +10266,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10272,7 +10277,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10283,7 +10288,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10294,7 +10299,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10305,7 +10310,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10316,7 +10321,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10327,7 +10332,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>172.04000000000008</v>
+        <v>179.04000000000008</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF4B87-FA8E-42E2-818E-2BEA2537618E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE093E3-91D5-4BCF-A737-7E9B5488EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3022,7 +3022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
+      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5263,8 +5263,13 @@
         <f t="shared" si="2"/>
         <v>179.04000000000008</v>
       </c>
-      <c r="C176" s="23"/>
-      <c r="D176" s="23"/>
+      <c r="C176" s="23">
+        <f>60+10+75</f>
+        <v>145</v>
+      </c>
+      <c r="D176" s="23">
+        <v>140</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="24">
@@ -5272,7 +5277,7 @@
       </c>
       <c r="B177" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -5283,7 +5288,7 @@
       </c>
       <c r="B178" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -5294,7 +5299,7 @@
       </c>
       <c r="B179" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -5305,7 +5310,7 @@
       </c>
       <c r="B180" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -5316,7 +5321,7 @@
       </c>
       <c r="B181" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -5327,7 +5332,7 @@
       </c>
       <c r="B182" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -5338,7 +5343,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5349,7 +5354,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5360,7 +5365,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5371,7 +5376,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5382,7 +5387,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5393,7 +5398,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5404,7 +5409,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5415,7 +5420,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5426,7 +5431,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5437,7 +5442,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5448,7 +5453,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5459,7 +5464,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5470,7 +5475,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5481,7 +5486,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5492,7 +5497,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5503,7 +5508,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5514,7 +5519,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5525,7 +5530,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5536,7 +5541,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5547,7 +5552,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5558,7 +5563,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5569,7 +5574,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5580,7 +5585,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5591,7 +5596,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5602,7 +5607,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5613,7 +5618,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5624,7 +5629,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5635,7 +5640,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5646,7 +5651,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5657,7 +5662,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5668,7 +5673,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5679,7 +5684,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5690,7 +5695,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5701,7 +5706,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5712,7 +5717,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5723,7 +5728,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5734,7 +5739,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5745,7 +5750,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5756,7 +5761,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5767,7 +5772,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5778,7 +5783,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5789,7 +5794,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5800,7 +5805,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5811,7 +5816,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5822,7 +5827,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5833,7 +5838,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5844,7 +5849,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5855,7 +5860,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5866,7 +5871,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5877,7 +5882,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5888,7 +5893,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5899,7 +5904,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5910,7 +5915,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5921,7 +5926,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5932,7 +5937,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5943,7 +5948,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5954,7 +5959,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5965,7 +5970,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5976,7 +5981,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -5987,7 +5992,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -5998,7 +6003,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -6009,7 +6014,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -6020,7 +6025,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -6031,7 +6036,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -6042,7 +6047,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6053,7 +6058,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6064,7 +6069,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6075,7 +6080,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6086,7 +6091,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6097,7 +6102,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6108,7 +6113,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6119,7 +6124,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6130,7 +6135,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6141,7 +6146,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6152,7 +6157,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6163,7 +6168,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6174,7 +6179,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6185,7 +6190,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6196,7 +6201,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6207,7 +6212,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6218,7 +6223,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6229,7 +6234,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6240,7 +6245,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6251,7 +6256,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6262,7 +6267,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6273,7 +6278,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6284,7 +6289,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6295,7 +6300,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6306,7 +6311,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6317,7 +6322,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6328,7 +6333,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6339,7 +6344,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6350,7 +6355,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6361,7 +6366,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6372,7 +6377,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6383,7 +6388,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6394,7 +6399,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6405,7 +6410,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6416,7 +6421,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6427,7 +6432,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6438,7 +6443,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6449,7 +6454,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6460,7 +6465,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6471,7 +6476,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6482,7 +6487,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6493,7 +6498,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6504,7 +6509,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6515,7 +6520,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6526,7 +6531,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6537,7 +6542,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6548,7 +6553,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6559,7 +6564,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6570,7 +6575,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6581,7 +6586,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6592,7 +6597,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6603,7 +6608,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6614,7 +6619,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6625,7 +6630,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6636,7 +6641,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6647,7 +6652,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6658,7 +6663,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6669,7 +6674,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6680,7 +6685,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6691,7 +6696,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6702,7 +6707,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6713,7 +6718,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6724,7 +6729,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6735,7 +6740,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6746,7 +6751,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6757,7 +6762,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6768,7 +6773,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6779,7 +6784,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6790,7 +6795,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6801,7 +6806,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6812,7 +6817,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6823,7 +6828,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6834,7 +6839,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6845,7 +6850,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6856,7 +6861,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6867,7 +6872,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6878,7 +6883,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6889,7 +6894,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6900,7 +6905,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6911,7 +6916,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6922,7 +6927,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6933,7 +6938,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6944,7 +6949,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6955,7 +6960,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6966,7 +6971,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6977,7 +6982,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -6988,7 +6993,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -6999,7 +7004,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -7010,7 +7015,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -7021,7 +7026,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -7032,7 +7037,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -7043,7 +7048,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7054,7 +7059,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7065,7 +7070,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7076,7 +7081,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7087,7 +7092,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7098,7 +7103,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7109,7 +7114,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7120,7 +7125,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7131,7 +7136,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7142,7 +7147,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7153,7 +7158,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7164,7 +7169,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7175,7 +7180,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7186,7 +7191,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7197,7 +7202,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7208,7 +7213,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7219,7 +7224,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7230,7 +7235,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7241,7 +7246,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7252,7 +7257,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7263,7 +7268,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7274,7 +7279,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7285,7 +7290,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7307,7 +7312,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7318,7 +7323,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7329,7 +7334,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7340,7 +7345,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7351,7 +7356,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7362,7 +7367,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7373,7 +7378,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7384,7 +7389,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7395,7 +7400,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7406,7 +7411,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7417,7 +7422,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7428,7 +7433,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7439,7 +7444,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7450,7 +7455,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7461,7 +7466,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7472,7 +7477,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7483,7 +7488,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7494,7 +7499,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7505,7 +7510,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7516,7 +7521,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7527,7 +7532,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7538,7 +7543,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7549,7 +7554,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7560,7 +7565,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7571,7 +7576,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7582,7 +7587,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7593,7 +7598,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7604,7 +7609,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7615,7 +7620,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7626,7 +7631,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7637,7 +7642,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7648,7 +7653,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7659,7 +7664,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7670,7 +7675,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7681,7 +7686,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7692,7 +7697,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7703,7 +7708,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7714,7 +7719,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7725,7 +7730,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7736,7 +7741,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7747,7 +7752,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7758,7 +7763,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7769,7 +7774,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7780,7 +7785,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7802,7 +7807,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7813,7 +7818,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7824,7 +7829,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7835,7 +7840,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7846,7 +7851,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7857,7 +7862,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7868,7 +7873,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7879,7 +7884,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7890,7 +7895,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7901,7 +7906,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7912,7 +7917,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7923,7 +7928,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7934,7 +7939,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7945,7 +7950,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7956,7 +7961,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7967,7 +7972,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7978,7 +7983,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -7989,7 +7994,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -8000,7 +8005,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -8011,7 +8016,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -8022,7 +8027,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -8033,7 +8038,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -8044,7 +8049,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8055,7 +8060,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8066,7 +8071,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8077,7 +8082,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8088,7 +8093,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8099,7 +8104,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8110,7 +8115,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8121,7 +8126,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8132,7 +8137,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8143,7 +8148,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8154,7 +8159,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8165,7 +8170,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8176,7 +8181,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8187,7 +8192,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8198,7 +8203,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8209,7 +8214,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8220,7 +8225,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8231,7 +8236,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8242,7 +8247,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8253,7 +8258,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8264,7 +8269,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8275,7 +8280,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8297,7 +8302,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8308,7 +8313,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8319,7 +8324,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8330,7 +8335,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8341,7 +8346,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8352,7 +8357,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8363,7 +8368,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8374,7 +8379,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8385,7 +8390,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8396,7 +8401,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8407,7 +8412,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8418,7 +8423,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8429,7 +8434,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8440,7 +8445,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8451,7 +8456,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8462,7 +8467,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8473,7 +8478,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8484,7 +8489,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8495,7 +8500,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8506,7 +8511,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8517,7 +8522,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8528,7 +8533,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8539,7 +8544,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8550,7 +8555,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8561,7 +8566,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8572,7 +8577,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8583,7 +8588,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8594,7 +8599,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8605,7 +8610,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8616,7 +8621,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8627,7 +8632,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8638,7 +8643,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8649,7 +8654,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8660,7 +8665,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8671,7 +8676,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8682,7 +8687,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8693,7 +8698,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8704,7 +8709,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8715,7 +8720,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8726,7 +8731,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8737,7 +8742,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8748,7 +8753,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8759,7 +8764,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8770,7 +8775,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8792,7 +8797,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8803,7 +8808,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8814,7 +8819,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8825,7 +8830,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8836,7 +8841,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8847,7 +8852,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8858,7 +8863,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8869,7 +8874,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8880,7 +8885,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8891,7 +8896,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8902,7 +8907,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8913,7 +8918,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8924,7 +8929,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8935,7 +8940,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8946,7 +8951,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8957,7 +8962,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8968,7 +8973,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8979,7 +8984,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -8990,7 +8995,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -9001,7 +9006,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -9012,7 +9017,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -9023,7 +9028,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -9034,7 +9039,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -9045,7 +9050,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9056,7 +9061,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9067,7 +9072,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9078,7 +9083,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9089,7 +9094,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9100,7 +9105,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9111,7 +9116,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9122,7 +9127,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9133,7 +9138,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9144,7 +9149,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9155,7 +9160,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9166,7 +9171,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9177,7 +9182,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9188,7 +9193,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9199,7 +9204,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9210,7 +9215,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9221,7 +9226,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9232,7 +9237,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9243,7 +9248,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9254,7 +9259,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9265,7 +9270,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9276,7 +9281,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9287,7 +9292,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9298,7 +9303,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9309,7 +9314,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9320,7 +9325,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9331,7 +9336,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9342,7 +9347,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9353,7 +9358,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9364,7 +9369,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9375,7 +9380,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9386,7 +9391,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9397,7 +9402,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9408,7 +9413,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9419,7 +9424,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9430,7 +9435,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9441,7 +9446,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9452,7 +9457,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9463,7 +9468,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9474,7 +9479,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9485,7 +9490,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9496,7 +9501,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9507,7 +9512,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9518,7 +9523,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9529,7 +9534,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9540,7 +9545,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9551,7 +9556,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9562,7 +9567,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9573,7 +9578,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9584,7 +9589,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9595,7 +9600,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9606,7 +9611,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9617,7 +9622,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9628,7 +9633,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9639,7 +9644,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9650,7 +9655,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9661,7 +9666,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9672,7 +9677,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9683,7 +9688,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9694,7 +9699,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9705,7 +9710,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9716,7 +9721,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9727,7 +9732,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9738,7 +9743,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9749,7 +9754,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9760,7 +9765,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9771,7 +9776,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9782,7 +9787,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9793,7 +9798,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9804,7 +9809,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9815,7 +9820,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9826,7 +9831,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9837,7 +9842,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9848,7 +9853,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9859,7 +9864,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9870,7 +9875,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9881,7 +9886,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9892,7 +9897,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9903,7 +9908,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9914,7 +9919,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9925,7 +9930,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9936,7 +9941,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9947,7 +9952,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9958,7 +9963,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9969,7 +9974,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9980,7 +9985,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -9991,7 +9996,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -10002,7 +10007,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -10013,7 +10018,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -10024,7 +10029,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -10035,7 +10040,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -10046,7 +10051,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10057,7 +10062,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10068,7 +10073,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10079,7 +10084,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10090,7 +10095,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10101,7 +10106,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10112,7 +10117,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10123,7 +10128,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10134,7 +10139,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10145,7 +10150,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10156,7 +10161,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10167,7 +10172,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10178,7 +10183,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10189,7 +10194,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10200,7 +10205,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10211,7 +10216,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10222,7 +10227,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10233,7 +10238,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10244,7 +10249,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10255,7 +10260,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10266,7 +10271,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10277,7 +10282,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10288,7 +10293,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10299,7 +10304,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10310,7 +10315,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10321,7 +10326,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10332,7 +10337,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>179.04000000000008</v>
+        <v>184.04000000000008</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE093E3-91D5-4BCF-A737-7E9B5488EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8649EB7-A0CE-4558-BDC3-C9CD023D4F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3021,8 +3021,8 @@
   <dimension ref="A1:D637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5279,7 +5279,9 @@
         <f t="shared" si="2"/>
         <v>184.04000000000008</v>
       </c>
-      <c r="C177" s="23"/>
+      <c r="C177" s="23">
+        <v>65</v>
+      </c>
       <c r="D177" s="23"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5288,10 +5290,14 @@
       </c>
       <c r="B178" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
-      </c>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
+        <v>249.04000000000008</v>
+      </c>
+      <c r="C178" s="23">
+        <v>55</v>
+      </c>
+      <c r="D178" s="23">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="24">
@@ -5299,7 +5305,7 @@
       </c>
       <c r="B179" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -5310,7 +5316,7 @@
       </c>
       <c r="B180" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -5321,7 +5327,7 @@
       </c>
       <c r="B181" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -5332,7 +5338,7 @@
       </c>
       <c r="B182" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -5343,7 +5349,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5354,7 +5360,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5365,7 +5371,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5376,7 +5382,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5387,7 +5393,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5398,7 +5404,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5409,7 +5415,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5420,7 +5426,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5431,7 +5437,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5442,7 +5448,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5453,7 +5459,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5464,7 +5470,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5475,7 +5481,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5486,7 +5492,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5497,7 +5503,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5508,7 +5514,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5519,7 +5525,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5530,7 +5536,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5541,7 +5547,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5552,7 +5558,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5563,7 +5569,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5574,7 +5580,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5585,7 +5591,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5596,7 +5602,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5607,7 +5613,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5618,7 +5624,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5629,7 +5635,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5640,7 +5646,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5651,7 +5657,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5662,7 +5668,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5673,7 +5679,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5684,7 +5690,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5695,7 +5701,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5706,7 +5712,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5717,7 +5723,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5728,7 +5734,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5739,7 +5745,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5750,7 +5756,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5761,7 +5767,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5772,7 +5778,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5783,7 +5789,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5794,7 +5800,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5805,7 +5811,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5816,7 +5822,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5827,7 +5833,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5838,7 +5844,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5849,7 +5855,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5860,7 +5866,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5871,7 +5877,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5882,7 +5888,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5893,7 +5899,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5904,7 +5910,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5915,7 +5921,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5926,7 +5932,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5937,7 +5943,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5948,7 +5954,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5959,7 +5965,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5970,7 +5976,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5981,7 +5987,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -5992,7 +5998,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -6003,7 +6009,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -6014,7 +6020,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -6025,7 +6031,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -6036,7 +6042,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -6047,7 +6053,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6058,7 +6064,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6069,7 +6075,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6080,7 +6086,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6091,7 +6097,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6102,7 +6108,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6113,7 +6119,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6124,7 +6130,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6135,7 +6141,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6146,7 +6152,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6157,7 +6163,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6168,7 +6174,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6179,7 +6185,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6190,7 +6196,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6201,7 +6207,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6212,7 +6218,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6223,7 +6229,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6234,7 +6240,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6245,7 +6251,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6256,7 +6262,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6267,7 +6273,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6278,7 +6284,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6289,7 +6295,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6300,7 +6306,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6311,7 +6317,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6322,7 +6328,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6333,7 +6339,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6344,7 +6350,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6355,7 +6361,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6366,7 +6372,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6377,7 +6383,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6388,7 +6394,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6399,7 +6405,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6410,7 +6416,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6421,7 +6427,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6432,7 +6438,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6443,7 +6449,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6454,7 +6460,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6465,7 +6471,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6476,7 +6482,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6487,7 +6493,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6498,7 +6504,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6509,7 +6515,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6520,7 +6526,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6531,7 +6537,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6542,7 +6548,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6553,7 +6559,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6564,7 +6570,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6575,7 +6581,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6586,7 +6592,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6597,7 +6603,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6608,7 +6614,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6619,7 +6625,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6630,7 +6636,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6641,7 +6647,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6652,7 +6658,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6663,7 +6669,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6674,7 +6680,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6685,7 +6691,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6696,7 +6702,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6707,7 +6713,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6718,7 +6724,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6729,7 +6735,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6740,7 +6746,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6751,7 +6757,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6762,7 +6768,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6773,7 +6779,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6784,7 +6790,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6795,7 +6801,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6806,7 +6812,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6817,7 +6823,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6828,7 +6834,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6839,7 +6845,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6850,7 +6856,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6861,7 +6867,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6872,7 +6878,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6883,7 +6889,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6894,7 +6900,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6905,7 +6911,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6916,7 +6922,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6927,7 +6933,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6938,7 +6944,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6949,7 +6955,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6960,7 +6966,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6971,7 +6977,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6982,7 +6988,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -6993,7 +6999,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -7004,7 +7010,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -7015,7 +7021,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -7026,7 +7032,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -7037,7 +7043,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -7048,7 +7054,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7059,7 +7065,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7070,7 +7076,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7081,7 +7087,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7092,7 +7098,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7103,7 +7109,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7114,7 +7120,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7125,7 +7131,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7136,7 +7142,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7147,7 +7153,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7158,7 +7164,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7169,7 +7175,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7180,7 +7186,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7191,7 +7197,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7202,7 +7208,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7213,7 +7219,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7224,7 +7230,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7235,7 +7241,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7246,7 +7252,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7257,7 +7263,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7268,7 +7274,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7279,7 +7285,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7290,7 +7296,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7301,7 +7307,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7312,7 +7318,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7323,7 +7329,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7334,7 +7340,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7345,7 +7351,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7356,7 +7362,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7367,7 +7373,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7378,7 +7384,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7389,7 +7395,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7400,7 +7406,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7411,7 +7417,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7422,7 +7428,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7433,7 +7439,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7444,7 +7450,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7455,7 +7461,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7466,7 +7472,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7477,7 +7483,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7488,7 +7494,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7499,7 +7505,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7510,7 +7516,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7521,7 +7527,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7532,7 +7538,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7543,7 +7549,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7554,7 +7560,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7565,7 +7571,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7576,7 +7582,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7587,7 +7593,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7598,7 +7604,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7609,7 +7615,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7620,7 +7626,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7631,7 +7637,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7642,7 +7648,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7653,7 +7659,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7664,7 +7670,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7675,7 +7681,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7686,7 +7692,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7697,7 +7703,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7708,7 +7714,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7719,7 +7725,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7730,7 +7736,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7741,7 +7747,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7752,7 +7758,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7763,7 +7769,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7774,7 +7780,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7785,7 +7791,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7796,7 +7802,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7807,7 +7813,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7818,7 +7824,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7829,7 +7835,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7840,7 +7846,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7851,7 +7857,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7862,7 +7868,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7873,7 +7879,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7884,7 +7890,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7895,7 +7901,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7906,7 +7912,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7917,7 +7923,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7928,7 +7934,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7939,7 +7945,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7950,7 +7956,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7961,7 +7967,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7972,7 +7978,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7983,7 +7989,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -7994,7 +8000,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -8005,7 +8011,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -8016,7 +8022,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -8027,7 +8033,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -8038,7 +8044,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -8049,7 +8055,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8060,7 +8066,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8071,7 +8077,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8082,7 +8088,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8093,7 +8099,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8104,7 +8110,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8115,7 +8121,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8126,7 +8132,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8137,7 +8143,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8148,7 +8154,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8159,7 +8165,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8170,7 +8176,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8181,7 +8187,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8192,7 +8198,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8203,7 +8209,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8214,7 +8220,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8225,7 +8231,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8236,7 +8242,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8247,7 +8253,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8258,7 +8264,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8269,7 +8275,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8280,7 +8286,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8291,7 +8297,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8302,7 +8308,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8313,7 +8319,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8324,7 +8330,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8335,7 +8341,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8346,7 +8352,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8357,7 +8363,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8368,7 +8374,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8379,7 +8385,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8390,7 +8396,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8401,7 +8407,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8412,7 +8418,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8423,7 +8429,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8434,7 +8440,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8445,7 +8451,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8456,7 +8462,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8467,7 +8473,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8478,7 +8484,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8489,7 +8495,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8500,7 +8506,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8511,7 +8517,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8522,7 +8528,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8533,7 +8539,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8544,7 +8550,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8555,7 +8561,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8566,7 +8572,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8577,7 +8583,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8588,7 +8594,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8599,7 +8605,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8610,7 +8616,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8621,7 +8627,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8632,7 +8638,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8643,7 +8649,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8654,7 +8660,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8665,7 +8671,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8676,7 +8682,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8687,7 +8693,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8698,7 +8704,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8709,7 +8715,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8720,7 +8726,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8731,7 +8737,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8742,7 +8748,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8753,7 +8759,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8764,7 +8770,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8775,7 +8781,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8786,7 +8792,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8797,7 +8803,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8808,7 +8814,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8819,7 +8825,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8830,7 +8836,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8841,7 +8847,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8852,7 +8858,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8863,7 +8869,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8874,7 +8880,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8885,7 +8891,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8896,7 +8902,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8907,7 +8913,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8918,7 +8924,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8929,7 +8935,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8940,7 +8946,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8951,7 +8957,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8962,7 +8968,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8973,7 +8979,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8984,7 +8990,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -8995,7 +9001,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -9006,7 +9012,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -9017,7 +9023,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -9028,7 +9034,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -9039,7 +9045,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -9050,7 +9056,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9061,7 +9067,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9072,7 +9078,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9083,7 +9089,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9094,7 +9100,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9105,7 +9111,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9116,7 +9122,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9127,7 +9133,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9138,7 +9144,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9149,7 +9155,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9160,7 +9166,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9171,7 +9177,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9182,7 +9188,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9193,7 +9199,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9204,7 +9210,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9215,7 +9221,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9226,7 +9232,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9237,7 +9243,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9248,7 +9254,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9259,7 +9265,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9270,7 +9276,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9281,7 +9287,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9292,7 +9298,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9303,7 +9309,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9314,7 +9320,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9325,7 +9331,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9336,7 +9342,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9347,7 +9353,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9358,7 +9364,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9369,7 +9375,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9380,7 +9386,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9391,7 +9397,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9402,7 +9408,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9413,7 +9419,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9424,7 +9430,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9435,7 +9441,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9446,7 +9452,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9457,7 +9463,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9468,7 +9474,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9479,7 +9485,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9490,7 +9496,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9501,7 +9507,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9512,7 +9518,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9523,7 +9529,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9534,7 +9540,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9545,7 +9551,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9556,7 +9562,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9567,7 +9573,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9578,7 +9584,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9589,7 +9595,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9600,7 +9606,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9611,7 +9617,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9622,7 +9628,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9633,7 +9639,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9644,7 +9650,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9655,7 +9661,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9666,7 +9672,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9677,7 +9683,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9688,7 +9694,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9699,7 +9705,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9710,7 +9716,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9721,7 +9727,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9732,7 +9738,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9743,7 +9749,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9754,7 +9760,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9765,7 +9771,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9776,7 +9782,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9787,7 +9793,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9798,7 +9804,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9809,7 +9815,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9820,7 +9826,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9831,7 +9837,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9842,7 +9848,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9853,7 +9859,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9864,7 +9870,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9875,7 +9881,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9886,7 +9892,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9897,7 +9903,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9908,7 +9914,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9919,7 +9925,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9930,7 +9936,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9941,7 +9947,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9952,7 +9958,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9963,7 +9969,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9974,7 +9980,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9985,7 +9991,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -9996,7 +10002,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -10007,7 +10013,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -10018,7 +10024,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -10029,7 +10035,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -10040,7 +10046,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -10051,7 +10057,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10062,7 +10068,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10073,7 +10079,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10084,7 +10090,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10095,7 +10101,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10106,7 +10112,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10117,7 +10123,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10128,7 +10134,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10139,7 +10145,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10150,7 +10156,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10161,7 +10167,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10172,7 +10178,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10183,7 +10189,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10194,7 +10200,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10205,7 +10211,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10216,7 +10222,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10227,7 +10233,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10238,7 +10244,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10249,7 +10255,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10260,7 +10266,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10271,7 +10277,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10282,7 +10288,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10293,7 +10299,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10304,7 +10310,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10315,7 +10321,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10326,7 +10332,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10337,7 +10343,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>184.04000000000008</v>
+        <v>117.94000000000008</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8649EB7-A0CE-4558-BDC3-C9CD023D4F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718DFA92-9AAF-4139-A169-81841517DB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3021,8 +3021,8 @@
   <dimension ref="A1:D637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C180" sqref="C180"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5318,8 +5318,13 @@
         <f t="shared" si="2"/>
         <v>117.94000000000008</v>
       </c>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
+      <c r="C180" s="23">
+        <f>55+60+10</f>
+        <v>125</v>
+      </c>
+      <c r="D180" s="23">
+        <v>152.13</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="24">
@@ -5327,7 +5332,7 @@
       </c>
       <c r="B181" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -5338,7 +5343,7 @@
       </c>
       <c r="B182" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -5349,7 +5354,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5360,7 +5365,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5371,7 +5376,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5382,7 +5387,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5393,7 +5398,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5404,7 +5409,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5415,7 +5420,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5426,7 +5431,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5437,7 +5442,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5448,7 +5453,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5459,7 +5464,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5470,7 +5475,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5481,7 +5486,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5492,7 +5497,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5503,7 +5508,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5514,7 +5519,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5525,7 +5530,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5536,7 +5541,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5547,7 +5552,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5558,7 +5563,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5569,7 +5574,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5580,7 +5585,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5591,7 +5596,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5602,7 +5607,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5613,7 +5618,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5624,7 +5629,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5635,7 +5640,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5646,7 +5651,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5657,7 +5662,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5668,7 +5673,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5679,7 +5684,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5690,7 +5695,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5701,7 +5706,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5712,7 +5717,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5723,7 +5728,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5734,7 +5739,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5745,7 +5750,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5756,7 +5761,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5767,7 +5772,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5778,7 +5783,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5789,7 +5794,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5800,7 +5805,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5811,7 +5816,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5822,7 +5827,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5833,7 +5838,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5844,7 +5849,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5855,7 +5860,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5866,7 +5871,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5877,7 +5882,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5888,7 +5893,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5899,7 +5904,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5910,7 +5915,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5921,7 +5926,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5932,7 +5937,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5943,7 +5948,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5954,7 +5959,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5965,7 +5970,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5976,7 +5981,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5987,7 +5992,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -5998,7 +6003,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -6009,7 +6014,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -6020,7 +6025,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -6031,7 +6036,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -6042,7 +6047,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -6053,7 +6058,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6064,7 +6069,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6075,7 +6080,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6086,7 +6091,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6097,7 +6102,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6108,7 +6113,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6119,7 +6124,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6130,7 +6135,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6141,7 +6146,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6152,7 +6157,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6163,7 +6168,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6174,7 +6179,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6185,7 +6190,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6196,7 +6201,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6207,7 +6212,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6218,7 +6223,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6229,7 +6234,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6240,7 +6245,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6251,7 +6256,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6262,7 +6267,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6273,7 +6278,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6284,7 +6289,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6295,7 +6300,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6306,7 +6311,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6317,7 +6322,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6328,7 +6333,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6339,7 +6344,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6350,7 +6355,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6361,7 +6366,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6372,7 +6377,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6383,7 +6388,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6394,7 +6399,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6405,7 +6410,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6416,7 +6421,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6427,7 +6432,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6438,7 +6443,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6449,7 +6454,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6460,7 +6465,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6471,7 +6476,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6482,7 +6487,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6493,7 +6498,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6504,7 +6509,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6515,7 +6520,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6526,7 +6531,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6537,7 +6542,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6548,7 +6553,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6559,7 +6564,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6570,7 +6575,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6581,7 +6586,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6592,7 +6597,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6603,7 +6608,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6614,7 +6619,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6625,7 +6630,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6636,7 +6641,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6647,7 +6652,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6658,7 +6663,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6669,7 +6674,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6680,7 +6685,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6691,7 +6696,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6702,7 +6707,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6713,7 +6718,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6724,7 +6729,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6735,7 +6740,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6746,7 +6751,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6757,7 +6762,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6768,7 +6773,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6779,7 +6784,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6790,7 +6795,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6801,7 +6806,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6812,7 +6817,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6823,7 +6828,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6834,7 +6839,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6845,7 +6850,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6856,7 +6861,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6867,7 +6872,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6878,7 +6883,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6889,7 +6894,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6900,7 +6905,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6911,7 +6916,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6922,7 +6927,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6933,7 +6938,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6944,7 +6949,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6955,7 +6960,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6966,7 +6971,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6977,7 +6982,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6988,7 +6993,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -6999,7 +7004,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -7010,7 +7015,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -7021,7 +7026,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -7032,7 +7037,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -7043,7 +7048,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -7054,7 +7059,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7065,7 +7070,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7076,7 +7081,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7087,7 +7092,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7098,7 +7103,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7109,7 +7114,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7120,7 +7125,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7131,7 +7136,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7142,7 +7147,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7153,7 +7158,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7164,7 +7169,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7175,7 +7180,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7186,7 +7191,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7197,7 +7202,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7208,7 +7213,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7219,7 +7224,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7230,7 +7235,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7241,7 +7246,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7252,7 +7257,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7263,7 +7268,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7274,7 +7279,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7285,7 +7290,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7307,7 +7312,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7318,7 +7323,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7329,7 +7334,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7340,7 +7345,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7351,7 +7356,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7362,7 +7367,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7373,7 +7378,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7384,7 +7389,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7395,7 +7400,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7406,7 +7411,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7417,7 +7422,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7428,7 +7433,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7439,7 +7444,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7450,7 +7455,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7461,7 +7466,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7472,7 +7477,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7483,7 +7488,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7494,7 +7499,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7505,7 +7510,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7516,7 +7521,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7527,7 +7532,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7538,7 +7543,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7549,7 +7554,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7560,7 +7565,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7571,7 +7576,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7582,7 +7587,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7593,7 +7598,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7604,7 +7609,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7615,7 +7620,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7626,7 +7631,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7637,7 +7642,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7648,7 +7653,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7659,7 +7664,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7670,7 +7675,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7681,7 +7686,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7692,7 +7697,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7703,7 +7708,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7714,7 +7719,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7725,7 +7730,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7736,7 +7741,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7747,7 +7752,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7758,7 +7763,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7769,7 +7774,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7780,7 +7785,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7802,7 +7807,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7813,7 +7818,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7824,7 +7829,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7835,7 +7840,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7846,7 +7851,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7857,7 +7862,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7868,7 +7873,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7879,7 +7884,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7890,7 +7895,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7901,7 +7906,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7912,7 +7917,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7923,7 +7928,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7934,7 +7939,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7945,7 +7950,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7956,7 +7961,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7967,7 +7972,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7978,7 +7983,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7989,7 +7994,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -8000,7 +8005,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -8011,7 +8016,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -8022,7 +8027,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -8033,7 +8038,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -8044,7 +8049,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -8055,7 +8060,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8066,7 +8071,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8077,7 +8082,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8088,7 +8093,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8099,7 +8104,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8110,7 +8115,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8121,7 +8126,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8132,7 +8137,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8143,7 +8148,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8154,7 +8159,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8165,7 +8170,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8176,7 +8181,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8187,7 +8192,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8198,7 +8203,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8209,7 +8214,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8220,7 +8225,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8231,7 +8236,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8242,7 +8247,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8253,7 +8258,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8264,7 +8269,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8275,7 +8280,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8297,7 +8302,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8308,7 +8313,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8319,7 +8324,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8330,7 +8335,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8341,7 +8346,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8352,7 +8357,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8363,7 +8368,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8374,7 +8379,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8385,7 +8390,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8396,7 +8401,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8407,7 +8412,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8418,7 +8423,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8429,7 +8434,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8440,7 +8445,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8451,7 +8456,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8462,7 +8467,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8473,7 +8478,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8484,7 +8489,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8495,7 +8500,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8506,7 +8511,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8517,7 +8522,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8528,7 +8533,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8539,7 +8544,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8550,7 +8555,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8561,7 +8566,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8572,7 +8577,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8583,7 +8588,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8594,7 +8599,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8605,7 +8610,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8616,7 +8621,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8627,7 +8632,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8638,7 +8643,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8649,7 +8654,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8660,7 +8665,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8671,7 +8676,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8682,7 +8687,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8693,7 +8698,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8704,7 +8709,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8715,7 +8720,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8726,7 +8731,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8737,7 +8742,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8748,7 +8753,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8759,7 +8764,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8770,7 +8775,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8792,7 +8797,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8803,7 +8808,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8814,7 +8819,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8825,7 +8830,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8836,7 +8841,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8847,7 +8852,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8858,7 +8863,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8869,7 +8874,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8880,7 +8885,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8891,7 +8896,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8902,7 +8907,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8913,7 +8918,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8924,7 +8929,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8935,7 +8940,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8946,7 +8951,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8957,7 +8962,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8968,7 +8973,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8979,7 +8984,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8990,7 +8995,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -9001,7 +9006,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -9012,7 +9017,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -9023,7 +9028,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -9034,7 +9039,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -9045,7 +9050,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -9056,7 +9061,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9067,7 +9072,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9078,7 +9083,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9089,7 +9094,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9100,7 +9105,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9111,7 +9116,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9122,7 +9127,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9133,7 +9138,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9144,7 +9149,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9155,7 +9160,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9166,7 +9171,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9177,7 +9182,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9188,7 +9193,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9199,7 +9204,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9210,7 +9215,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9221,7 +9226,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9232,7 +9237,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9243,7 +9248,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9254,7 +9259,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9265,7 +9270,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9276,7 +9281,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9287,7 +9292,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9298,7 +9303,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9309,7 +9314,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9320,7 +9325,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9331,7 +9336,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9342,7 +9347,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9353,7 +9358,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9364,7 +9369,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9375,7 +9380,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9386,7 +9391,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9397,7 +9402,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9408,7 +9413,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9419,7 +9424,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9430,7 +9435,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9441,7 +9446,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9452,7 +9457,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9463,7 +9468,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9474,7 +9479,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9485,7 +9490,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9496,7 +9501,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9507,7 +9512,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9518,7 +9523,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9529,7 +9534,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9540,7 +9545,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9551,7 +9556,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9562,7 +9567,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9573,7 +9578,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9584,7 +9589,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9595,7 +9600,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9606,7 +9611,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9617,7 +9622,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9628,7 +9633,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9639,7 +9644,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9650,7 +9655,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9661,7 +9666,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9672,7 +9677,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9683,7 +9688,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9694,7 +9699,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9705,7 +9710,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9716,7 +9721,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9727,7 +9732,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9738,7 +9743,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9749,7 +9754,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9760,7 +9765,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9771,7 +9776,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9782,7 +9787,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9793,7 +9798,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9804,7 +9809,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9815,7 +9820,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9826,7 +9831,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9837,7 +9842,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9848,7 +9853,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9859,7 +9864,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9870,7 +9875,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9881,7 +9886,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9892,7 +9897,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9903,7 +9908,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9914,7 +9919,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9925,7 +9930,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9936,7 +9941,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9947,7 +9952,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9958,7 +9963,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9969,7 +9974,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9980,7 +9985,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9991,7 +9996,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -10002,7 +10007,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -10013,7 +10018,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -10024,7 +10029,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -10035,7 +10040,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -10046,7 +10051,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -10057,7 +10062,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10068,7 +10073,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10079,7 +10084,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10090,7 +10095,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10101,7 +10106,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10112,7 +10117,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10123,7 +10128,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10134,7 +10139,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10145,7 +10150,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10156,7 +10161,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10167,7 +10172,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10178,7 +10183,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10189,7 +10194,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10200,7 +10205,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10211,7 +10216,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10222,7 +10227,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10233,7 +10238,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10244,7 +10249,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10255,7 +10260,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10266,7 +10271,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10277,7 +10282,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10288,7 +10293,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10299,7 +10304,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10310,7 +10315,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10321,7 +10326,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10332,7 +10337,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10343,7 +10348,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>117.94000000000008</v>
+        <v>90.810000000000088</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718DFA92-9AAF-4139-A169-81841517DB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F146D-3294-4F50-8751-7D371F7EFFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3022,7 +3022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
+      <selection pane="bottomLeft" activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5345,8 +5345,13 @@
         <f t="shared" si="2"/>
         <v>90.810000000000088</v>
       </c>
-      <c r="C182" s="23"/>
-      <c r="D182" s="23"/>
+      <c r="C182" s="23">
+        <f>60+5+90</f>
+        <v>155</v>
+      </c>
+      <c r="D182" s="23">
+        <v>161.16</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="24">
@@ -5354,7 +5359,7 @@
       </c>
       <c r="B183" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -5365,7 +5370,7 @@
       </c>
       <c r="B184" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -5376,7 +5381,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5387,7 +5392,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5398,7 +5403,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5409,7 +5414,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5420,7 +5425,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5431,7 +5436,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5442,7 +5447,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5453,7 +5458,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5464,7 +5469,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5475,7 +5480,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5486,7 +5491,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5497,7 +5502,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5508,7 +5513,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5519,7 +5524,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5530,7 +5535,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5541,7 +5546,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5552,7 +5557,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5563,7 +5568,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5574,7 +5579,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5585,7 +5590,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5596,7 +5601,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5607,7 +5612,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5618,7 +5623,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5629,7 +5634,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5640,7 +5645,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5651,7 +5656,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5662,7 +5667,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5673,7 +5678,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5684,7 +5689,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5695,7 +5700,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5706,7 +5711,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5717,7 +5722,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5728,7 +5733,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5739,7 +5744,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5750,7 +5755,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5761,7 +5766,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5772,7 +5777,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5783,7 +5788,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5794,7 +5799,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5805,7 +5810,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5816,7 +5821,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5827,7 +5832,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5838,7 +5843,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5849,7 +5854,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5860,7 +5865,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5871,7 +5876,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5882,7 +5887,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5893,7 +5898,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5904,7 +5909,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5915,7 +5920,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5926,7 +5931,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5937,7 +5942,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5948,7 +5953,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5959,7 +5964,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5970,7 +5975,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5981,7 +5986,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5992,7 +5997,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -6003,7 +6008,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -6014,7 +6019,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -6025,7 +6030,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -6036,7 +6041,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -6047,7 +6052,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -6058,7 +6063,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6069,7 +6074,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6080,7 +6085,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6091,7 +6096,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6102,7 +6107,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6113,7 +6118,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6124,7 +6129,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6135,7 +6140,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6146,7 +6151,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6157,7 +6162,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6168,7 +6173,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6179,7 +6184,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6190,7 +6195,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6201,7 +6206,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6212,7 +6217,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6223,7 +6228,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6234,7 +6239,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6245,7 +6250,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6256,7 +6261,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6267,7 +6272,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6278,7 +6283,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6289,7 +6294,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6300,7 +6305,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6311,7 +6316,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6322,7 +6327,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6333,7 +6338,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6344,7 +6349,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6355,7 +6360,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6366,7 +6371,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6377,7 +6382,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6388,7 +6393,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6399,7 +6404,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6410,7 +6415,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6421,7 +6426,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6432,7 +6437,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6443,7 +6448,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6454,7 +6459,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6465,7 +6470,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6476,7 +6481,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6487,7 +6492,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6498,7 +6503,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6509,7 +6514,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6520,7 +6525,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6531,7 +6536,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6542,7 +6547,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6553,7 +6558,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6564,7 +6569,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6575,7 +6580,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6586,7 +6591,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6597,7 +6602,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6608,7 +6613,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6619,7 +6624,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6630,7 +6635,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6641,7 +6646,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6652,7 +6657,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6663,7 +6668,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6674,7 +6679,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6685,7 +6690,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6696,7 +6701,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6707,7 +6712,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6718,7 +6723,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6729,7 +6734,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6740,7 +6745,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6751,7 +6756,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6762,7 +6767,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6773,7 +6778,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6784,7 +6789,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6795,7 +6800,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6806,7 +6811,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6817,7 +6822,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6828,7 +6833,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6839,7 +6844,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6850,7 +6855,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6861,7 +6866,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6872,7 +6877,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6883,7 +6888,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6894,7 +6899,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6905,7 +6910,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6916,7 +6921,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6927,7 +6932,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6938,7 +6943,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6949,7 +6954,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6960,7 +6965,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6971,7 +6976,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6982,7 +6987,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6993,7 +6998,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -7004,7 +7009,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -7015,7 +7020,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -7026,7 +7031,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -7037,7 +7042,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -7048,7 +7053,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -7059,7 +7064,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7070,7 +7075,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7081,7 +7086,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7092,7 +7097,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7103,7 +7108,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7114,7 +7119,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7125,7 +7130,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7136,7 +7141,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7147,7 +7152,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7158,7 +7163,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7169,7 +7174,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7180,7 +7185,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7191,7 +7196,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7202,7 +7207,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7213,7 +7218,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7224,7 +7229,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7235,7 +7240,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7246,7 +7251,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7257,7 +7262,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7268,7 +7273,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7279,7 +7284,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7290,7 +7295,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7301,7 +7306,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7312,7 +7317,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7323,7 +7328,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7334,7 +7339,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7345,7 +7350,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7356,7 +7361,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7367,7 +7372,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7378,7 +7383,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7389,7 +7394,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7400,7 +7405,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7411,7 +7416,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7422,7 +7427,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7433,7 +7438,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7444,7 +7449,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7455,7 +7460,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7466,7 +7471,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7477,7 +7482,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7488,7 +7493,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7499,7 +7504,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7510,7 +7515,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7532,7 +7537,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7543,7 +7548,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7554,7 +7559,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7565,7 +7570,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7576,7 +7581,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7587,7 +7592,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7598,7 +7603,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7609,7 +7614,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7620,7 +7625,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7631,7 +7636,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7642,7 +7647,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7653,7 +7658,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7664,7 +7669,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7675,7 +7680,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7686,7 +7691,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7697,7 +7702,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7708,7 +7713,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7719,7 +7724,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7730,7 +7735,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7741,7 +7746,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7752,7 +7757,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7763,7 +7768,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7774,7 +7779,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7785,7 +7790,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7796,7 +7801,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7807,7 +7812,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7818,7 +7823,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7829,7 +7834,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7840,7 +7845,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7851,7 +7856,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7862,7 +7867,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7873,7 +7878,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7884,7 +7889,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7895,7 +7900,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7906,7 +7911,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7917,7 +7922,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7928,7 +7933,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7939,7 +7944,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7950,7 +7955,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7961,7 +7966,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7972,7 +7977,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7983,7 +7988,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7994,7 +7999,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -8005,7 +8010,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -8027,7 +8032,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -8038,7 +8043,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -8049,7 +8054,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -8060,7 +8065,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8071,7 +8076,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8082,7 +8087,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8093,7 +8098,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8104,7 +8109,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8115,7 +8120,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8126,7 +8131,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8137,7 +8142,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8148,7 +8153,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8159,7 +8164,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8170,7 +8175,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8181,7 +8186,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8192,7 +8197,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8203,7 +8208,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8214,7 +8219,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8225,7 +8230,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8236,7 +8241,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8247,7 +8252,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8258,7 +8263,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8269,7 +8274,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8280,7 +8285,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8291,7 +8296,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8302,7 +8307,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8313,7 +8318,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8324,7 +8329,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8335,7 +8340,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8346,7 +8351,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8357,7 +8362,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8368,7 +8373,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8379,7 +8384,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8390,7 +8395,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8401,7 +8406,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8412,7 +8417,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8423,7 +8428,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8434,7 +8439,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8445,7 +8450,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8456,7 +8461,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8467,7 +8472,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8478,7 +8483,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8489,7 +8494,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8500,7 +8505,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8522,7 +8527,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8533,7 +8538,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8544,7 +8549,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8555,7 +8560,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8566,7 +8571,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8577,7 +8582,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8588,7 +8593,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8599,7 +8604,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8610,7 +8615,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8621,7 +8626,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8632,7 +8637,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8643,7 +8648,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8654,7 +8659,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8665,7 +8670,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8676,7 +8681,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8687,7 +8692,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8698,7 +8703,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8709,7 +8714,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8720,7 +8725,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8731,7 +8736,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8742,7 +8747,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8753,7 +8758,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8764,7 +8769,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8775,7 +8780,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8786,7 +8791,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8797,7 +8802,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8808,7 +8813,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8819,7 +8824,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8830,7 +8835,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8841,7 +8846,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8852,7 +8857,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8863,7 +8868,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8874,7 +8879,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8885,7 +8890,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8896,7 +8901,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8907,7 +8912,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8918,7 +8923,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8929,7 +8934,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8940,7 +8945,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8951,7 +8956,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8962,7 +8967,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8973,7 +8978,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8984,7 +8989,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -8995,7 +9000,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -9017,7 +9022,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -9028,7 +9033,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -9039,7 +9044,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -9050,7 +9055,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -9061,7 +9066,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9072,7 +9077,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9083,7 +9088,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9094,7 +9099,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9105,7 +9110,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9116,7 +9121,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9127,7 +9132,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9138,7 +9143,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9149,7 +9154,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9160,7 +9165,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9171,7 +9176,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9182,7 +9187,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9193,7 +9198,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9204,7 +9209,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9215,7 +9220,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9226,7 +9231,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9237,7 +9242,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9248,7 +9253,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9259,7 +9264,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9270,7 +9275,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9281,7 +9286,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9292,7 +9297,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9303,7 +9308,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9314,7 +9319,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9325,7 +9330,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9336,7 +9341,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9347,7 +9352,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9358,7 +9363,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9369,7 +9374,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9380,7 +9385,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9391,7 +9396,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9402,7 +9407,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9413,7 +9418,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9424,7 +9429,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9435,7 +9440,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9446,7 +9451,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9457,7 +9462,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9468,7 +9473,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9479,7 +9484,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9490,7 +9495,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9501,7 +9506,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9512,7 +9517,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9523,7 +9528,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9534,7 +9539,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9545,7 +9550,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9556,7 +9561,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9567,7 +9572,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9578,7 +9583,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9589,7 +9594,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9600,7 +9605,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9611,7 +9616,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9622,7 +9627,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9633,7 +9638,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9644,7 +9649,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9655,7 +9660,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9666,7 +9671,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9677,7 +9682,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9688,7 +9693,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9699,7 +9704,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9710,7 +9715,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9721,7 +9726,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9732,7 +9737,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9743,7 +9748,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9754,7 +9759,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9765,7 +9770,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9776,7 +9781,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9787,7 +9792,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9798,7 +9803,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9809,7 +9814,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9820,7 +9825,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9831,7 +9836,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9842,7 +9847,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9853,7 +9858,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9864,7 +9869,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9875,7 +9880,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9886,7 +9891,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9897,7 +9902,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9908,7 +9913,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9919,7 +9924,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9930,7 +9935,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9941,7 +9946,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9952,7 +9957,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9963,7 +9968,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9974,7 +9979,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9985,7 +9990,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -9996,7 +10001,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -10007,7 +10012,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -10018,7 +10023,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -10029,7 +10034,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -10040,7 +10045,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -10051,7 +10056,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -10062,7 +10067,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10073,7 +10078,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10084,7 +10089,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10095,7 +10100,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10106,7 +10111,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10117,7 +10122,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10128,7 +10133,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10139,7 +10144,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10150,7 +10155,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10161,7 +10166,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10172,7 +10177,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10183,7 +10188,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10194,7 +10199,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10205,7 +10210,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10216,7 +10221,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10227,7 +10232,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10238,7 +10243,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10249,7 +10254,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10260,7 +10265,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10271,7 +10276,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10282,7 +10287,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10293,7 +10298,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10304,7 +10309,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10315,7 +10320,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10326,7 +10331,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10337,7 +10342,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10348,7 +10353,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>90.810000000000088</v>
+        <v>84.650000000000091</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F146D-3294-4F50-8751-7D371F7EFFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42EA358-28FC-46E6-A557-49F8C754B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3022,7 +3022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C184" sqref="C184"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5372,8 +5372,13 @@
         <f t="shared" si="2"/>
         <v>84.650000000000091</v>
       </c>
-      <c r="C184" s="23"/>
-      <c r="D184" s="23"/>
+      <c r="C184" s="23">
+        <f>60+10+85</f>
+        <v>155</v>
+      </c>
+      <c r="D184" s="23">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="24">
@@ -5381,7 +5386,7 @@
       </c>
       <c r="B185" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -5392,7 +5397,7 @@
       </c>
       <c r="B186" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -5403,7 +5408,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5414,7 +5419,7 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -5425,7 +5430,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5436,7 +5441,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5447,7 +5452,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5458,7 +5463,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5469,7 +5474,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5480,7 +5485,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5491,7 +5496,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5502,7 +5507,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5513,7 +5518,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5524,7 +5529,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5535,7 +5540,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5546,7 +5551,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5557,7 +5562,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5568,7 +5573,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5579,7 +5584,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5590,7 +5595,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5601,7 +5606,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5612,7 +5617,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5623,7 +5628,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5634,7 +5639,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5645,7 +5650,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5656,7 +5661,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5667,7 +5672,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5678,7 +5683,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5689,7 +5694,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5700,7 +5705,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5711,7 +5716,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5722,7 +5727,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5733,7 +5738,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5744,7 +5749,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5755,7 +5760,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5766,7 +5771,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5777,7 +5782,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5788,7 +5793,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5799,7 +5804,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5810,7 +5815,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5821,7 +5826,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5832,7 +5837,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5843,7 +5848,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5854,7 +5859,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5865,7 +5870,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5876,7 +5881,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5887,7 +5892,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5898,7 +5903,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5909,7 +5914,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5920,7 +5925,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5931,7 +5936,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5942,7 +5947,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5953,7 +5958,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5964,7 +5969,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5975,7 +5980,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5986,7 +5991,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -5997,7 +6002,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -6008,7 +6013,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -6019,7 +6024,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -6030,7 +6035,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -6041,7 +6046,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -6052,7 +6057,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -6063,7 +6068,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6074,7 +6079,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6085,7 +6090,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6096,7 +6101,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6107,7 +6112,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6118,7 +6123,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6129,7 +6134,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6140,7 +6145,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6151,7 +6156,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6162,7 +6167,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6173,7 +6178,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6184,7 +6189,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6195,7 +6200,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6206,7 +6211,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6217,7 +6222,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6228,7 +6233,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6239,7 +6244,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6250,7 +6255,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6261,7 +6266,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6272,7 +6277,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6283,7 +6288,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6294,7 +6299,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6305,7 +6310,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6316,7 +6321,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6327,7 +6332,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6338,7 +6343,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6349,7 +6354,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6360,7 +6365,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6371,7 +6376,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6382,7 +6387,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6393,7 +6398,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6404,7 +6409,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6415,7 +6420,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6426,7 +6431,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6437,7 +6442,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6448,7 +6453,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6459,7 +6464,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6470,7 +6475,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6481,7 +6486,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6492,7 +6497,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6503,7 +6508,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6514,7 +6519,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6525,7 +6530,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6536,7 +6541,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6547,7 +6552,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6558,7 +6563,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6569,7 +6574,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6580,7 +6585,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6591,7 +6596,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6602,7 +6607,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6613,7 +6618,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6624,7 +6629,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6635,7 +6640,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6646,7 +6651,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6657,7 +6662,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6668,7 +6673,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6679,7 +6684,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6690,7 +6695,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6701,7 +6706,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6712,7 +6717,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6723,7 +6728,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6734,7 +6739,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6745,7 +6750,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6756,7 +6761,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6767,7 +6772,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6778,7 +6783,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6789,7 +6794,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6800,7 +6805,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6811,7 +6816,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6822,7 +6827,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6833,7 +6838,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6844,7 +6849,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6855,7 +6860,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6866,7 +6871,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6877,7 +6882,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6888,7 +6893,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6899,7 +6904,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6910,7 +6915,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6921,7 +6926,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6932,7 +6937,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6943,7 +6948,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6954,7 +6959,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6965,7 +6970,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6976,7 +6981,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6987,7 +6992,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -6998,7 +7003,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -7009,7 +7014,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -7020,7 +7025,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -7031,7 +7036,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -7042,7 +7047,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -7053,7 +7058,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -7064,7 +7069,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7075,7 +7080,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7086,7 +7091,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7097,7 +7102,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7108,7 +7113,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7119,7 +7124,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7130,7 +7135,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7141,7 +7146,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7152,7 +7157,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7163,7 +7168,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7174,7 +7179,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7185,7 +7190,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7196,7 +7201,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7207,7 +7212,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7218,7 +7223,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7229,7 +7234,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7240,7 +7245,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7262,7 +7267,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7273,7 +7278,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7284,7 +7289,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7295,7 +7300,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7306,7 +7311,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7317,7 +7322,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7328,7 +7333,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7339,7 +7344,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7350,7 +7355,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7361,7 +7366,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7372,7 +7377,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7383,7 +7388,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7394,7 +7399,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7405,7 +7410,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7416,7 +7421,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7427,7 +7432,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7438,7 +7443,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7449,7 +7454,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7460,7 +7465,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7471,7 +7476,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7482,7 +7487,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7493,7 +7498,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7504,7 +7509,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7515,7 +7520,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7526,7 +7531,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7537,7 +7542,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7548,7 +7553,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7559,7 +7564,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7570,7 +7575,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7581,7 +7586,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7592,7 +7597,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7603,7 +7608,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7614,7 +7619,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7625,7 +7630,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7636,7 +7641,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7647,7 +7652,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7658,7 +7663,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7669,7 +7674,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7680,7 +7685,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7691,7 +7696,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7702,7 +7707,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7713,7 +7718,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7724,7 +7729,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7735,7 +7740,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7757,7 +7762,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7768,7 +7773,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7779,7 +7784,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7790,7 +7795,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7801,7 +7806,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7812,7 +7817,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7823,7 +7828,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7834,7 +7839,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7845,7 +7850,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7856,7 +7861,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7867,7 +7872,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7878,7 +7883,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7889,7 +7894,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7900,7 +7905,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7911,7 +7916,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7922,7 +7927,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7933,7 +7938,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7944,7 +7949,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7955,7 +7960,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7966,7 +7971,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7977,7 +7982,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7988,7 +7993,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -7999,7 +8004,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -8010,7 +8015,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -8021,7 +8026,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -8032,7 +8037,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -8043,7 +8048,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -8054,7 +8059,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -8065,7 +8070,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8076,7 +8081,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8087,7 +8092,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8098,7 +8103,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8109,7 +8114,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8120,7 +8125,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8131,7 +8136,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8142,7 +8147,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8153,7 +8158,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8164,7 +8169,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8175,7 +8180,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8186,7 +8191,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8197,7 +8202,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8208,7 +8213,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8219,7 +8224,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8230,7 +8235,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8241,7 +8246,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8252,7 +8257,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8263,7 +8268,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8274,7 +8279,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8285,7 +8290,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8296,7 +8301,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8307,7 +8312,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8318,7 +8323,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8329,7 +8334,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8340,7 +8345,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8351,7 +8356,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8362,7 +8367,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8373,7 +8378,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8384,7 +8389,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8395,7 +8400,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8406,7 +8411,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8417,7 +8422,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8428,7 +8433,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8439,7 +8444,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8450,7 +8455,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8461,7 +8466,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8472,7 +8477,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8483,7 +8488,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8494,7 +8499,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8505,7 +8510,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8516,7 +8521,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8527,7 +8532,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8538,7 +8543,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8549,7 +8554,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8560,7 +8565,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8571,7 +8576,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8582,7 +8587,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8593,7 +8598,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8604,7 +8609,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8615,7 +8620,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8626,7 +8631,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8637,7 +8642,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8648,7 +8653,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8659,7 +8664,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8670,7 +8675,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8681,7 +8686,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8692,7 +8697,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8703,7 +8708,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8714,7 +8719,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8725,7 +8730,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8747,7 +8752,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8758,7 +8763,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8769,7 +8774,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8780,7 +8785,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8791,7 +8796,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8802,7 +8807,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8813,7 +8818,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8824,7 +8829,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8835,7 +8840,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8846,7 +8851,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8857,7 +8862,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8868,7 +8873,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8879,7 +8884,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8890,7 +8895,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8901,7 +8906,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8912,7 +8917,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8923,7 +8928,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8934,7 +8939,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8945,7 +8950,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8956,7 +8961,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8967,7 +8972,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8978,7 +8983,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8989,7 +8994,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -9000,7 +9005,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -9011,7 +9016,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -9022,7 +9027,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -9033,7 +9038,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -9044,7 +9049,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -9055,7 +9060,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -9066,7 +9071,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9077,7 +9082,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9088,7 +9093,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9099,7 +9104,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9110,7 +9115,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9121,7 +9126,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9132,7 +9137,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9143,7 +9148,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9154,7 +9159,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9165,7 +9170,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9176,7 +9181,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9187,7 +9192,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9198,7 +9203,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9209,7 +9214,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9220,7 +9225,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9231,7 +9236,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9242,7 +9247,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9253,7 +9258,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9264,7 +9269,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9275,7 +9280,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9286,7 +9291,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9297,7 +9302,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9308,7 +9313,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9319,7 +9324,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9330,7 +9335,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9341,7 +9346,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9352,7 +9357,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9363,7 +9368,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9374,7 +9379,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9385,7 +9390,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9396,7 +9401,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9407,7 +9412,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9418,7 +9423,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9429,7 +9434,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9440,7 +9445,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9451,7 +9456,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9462,7 +9467,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9473,7 +9478,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9484,7 +9489,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9495,7 +9500,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9506,7 +9511,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9517,7 +9522,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9528,7 +9533,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9539,7 +9544,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9550,7 +9555,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9561,7 +9566,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9572,7 +9577,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9583,7 +9588,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9594,7 +9599,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9605,7 +9610,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9616,7 +9621,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9627,7 +9632,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9638,7 +9643,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9649,7 +9654,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9660,7 +9665,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9671,7 +9676,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9682,7 +9687,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9693,7 +9698,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9704,7 +9709,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9715,7 +9720,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9726,7 +9731,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9737,7 +9742,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9748,7 +9753,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9759,7 +9764,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9770,7 +9775,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9781,7 +9786,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9792,7 +9797,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9803,7 +9808,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9814,7 +9819,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9825,7 +9830,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9836,7 +9841,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9847,7 +9852,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9858,7 +9863,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9869,7 +9874,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9880,7 +9885,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9891,7 +9896,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9902,7 +9907,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9913,7 +9918,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9924,7 +9929,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9935,7 +9940,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9946,7 +9951,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9957,7 +9962,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9968,7 +9973,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9979,7 +9984,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9990,7 +9995,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -10001,7 +10006,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -10012,7 +10017,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -10023,7 +10028,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -10034,7 +10039,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -10045,7 +10050,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -10056,7 +10061,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -10067,7 +10072,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10078,7 +10083,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10089,7 +10094,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10100,7 +10105,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10111,7 +10116,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10122,7 +10127,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10133,7 +10138,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10144,7 +10149,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10155,7 +10160,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10166,7 +10171,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10177,7 +10182,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10188,7 +10193,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10199,7 +10204,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10210,7 +10215,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10221,7 +10226,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10232,7 +10237,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10243,7 +10248,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10254,7 +10259,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10265,7 +10270,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10276,7 +10281,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10287,7 +10292,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10298,7 +10303,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10309,7 +10314,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10320,7 +10325,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10331,7 +10336,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10342,7 +10347,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10353,7 +10358,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>84.650000000000091</v>
+        <v>99.750000000000085</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42EA358-28FC-46E6-A557-49F8C754B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE94737-359B-4DD6-A5B4-F9D1D41DA492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3021,8 +3021,8 @@
   <dimension ref="A1:D637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5399,8 +5399,13 @@
         <f t="shared" si="2"/>
         <v>99.750000000000085</v>
       </c>
-      <c r="C186" s="23"/>
-      <c r="D186" s="23"/>
+      <c r="C186" s="23">
+        <f>95+45</f>
+        <v>140</v>
+      </c>
+      <c r="D186" s="23">
+        <v>86.56</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="24">
@@ -5408,7 +5413,7 @@
       </c>
       <c r="B187" s="23">
         <f t="shared" si="2"/>
-        <v>99.750000000000085</v>
+        <v>153.19000000000008</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -5419,10 +5424,15 @@
       </c>
       <c r="B188" s="23">
         <f t="shared" si="2"/>
-        <v>99.750000000000085</v>
-      </c>
-      <c r="C188" s="23"/>
-      <c r="D188" s="23"/>
+        <v>153.19000000000008</v>
+      </c>
+      <c r="C188" s="23">
+        <f>60+5+65</f>
+        <v>130</v>
+      </c>
+      <c r="D188" s="23">
+        <v>180.46</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="24">
@@ -5430,7 +5440,7 @@
       </c>
       <c r="B189" s="23">
         <f t="shared" si="2"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -5441,7 +5451,7 @@
       </c>
       <c r="B190" s="23">
         <f t="shared" si="2"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -5452,7 +5462,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5463,7 +5473,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5474,7 +5484,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5485,7 +5495,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5496,7 +5506,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5507,7 +5517,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5518,7 +5528,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5529,7 +5539,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5540,7 +5550,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5551,7 +5561,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5562,7 +5572,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5573,7 +5583,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5584,7 +5594,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5595,7 +5605,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5606,7 +5616,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5617,7 +5627,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5628,7 +5638,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5639,7 +5649,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5650,7 +5660,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5661,7 +5671,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5672,7 +5682,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5683,7 +5693,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5694,7 +5704,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5705,7 +5715,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5716,7 +5726,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5727,7 +5737,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5738,7 +5748,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5749,7 +5759,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5760,7 +5770,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5771,7 +5781,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5782,7 +5792,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5793,7 +5803,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5804,7 +5814,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5815,7 +5825,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5826,7 +5836,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5837,7 +5847,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5848,7 +5858,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5859,7 +5869,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5870,7 +5880,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5881,7 +5891,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5892,7 +5902,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5903,7 +5913,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5914,7 +5924,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5925,7 +5935,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5936,7 +5946,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5947,7 +5957,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5958,7 +5968,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5969,7 +5979,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5980,7 +5990,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -5991,7 +6001,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -6002,7 +6012,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -6013,7 +6023,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -6024,7 +6034,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -6035,7 +6045,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -6046,7 +6056,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -6057,7 +6067,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -6068,7 +6078,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6079,7 +6089,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6090,7 +6100,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6101,7 +6111,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6112,7 +6122,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6123,7 +6133,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6134,7 +6144,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6145,7 +6155,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6156,7 +6166,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6167,7 +6177,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6178,7 +6188,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6189,7 +6199,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6200,7 +6210,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6211,7 +6221,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6222,7 +6232,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6233,7 +6243,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6244,7 +6254,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6255,7 +6265,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6266,7 +6276,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6277,7 +6287,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6288,7 +6298,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6299,7 +6309,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6310,7 +6320,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6321,7 +6331,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6332,7 +6342,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6343,7 +6353,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6354,7 +6364,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6365,7 +6375,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6376,7 +6386,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6387,7 +6397,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6398,7 +6408,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6409,7 +6419,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6420,7 +6430,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6431,7 +6441,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6442,7 +6452,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6453,7 +6463,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6464,7 +6474,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6475,7 +6485,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6486,7 +6496,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6497,7 +6507,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6508,7 +6518,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6519,7 +6529,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6530,7 +6540,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6541,7 +6551,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6552,7 +6562,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6563,7 +6573,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6574,7 +6584,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6585,7 +6595,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6596,7 +6606,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6607,7 +6617,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6618,7 +6628,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6629,7 +6639,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6640,7 +6650,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6651,7 +6661,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6662,7 +6672,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6673,7 +6683,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6684,7 +6694,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6695,7 +6705,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6706,7 +6716,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6717,7 +6727,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6728,7 +6738,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6739,7 +6749,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6750,7 +6760,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6761,7 +6771,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6772,7 +6782,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6783,7 +6793,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6794,7 +6804,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6805,7 +6815,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6816,7 +6826,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6827,7 +6837,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6838,7 +6848,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6849,7 +6859,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6860,7 +6870,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6871,7 +6881,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6882,7 +6892,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6893,7 +6903,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6904,7 +6914,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6915,7 +6925,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6926,7 +6936,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6937,7 +6947,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6948,7 +6958,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6959,7 +6969,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6970,7 +6980,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6981,7 +6991,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -6992,7 +7002,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -7003,7 +7013,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -7014,7 +7024,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -7025,7 +7035,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -7036,7 +7046,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -7047,7 +7057,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -7058,7 +7068,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -7069,7 +7079,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7080,7 +7090,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7091,7 +7101,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7102,7 +7112,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7113,7 +7123,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7124,7 +7134,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7135,7 +7145,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7146,7 +7156,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7157,7 +7167,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7168,7 +7178,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7179,7 +7189,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7190,7 +7200,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7201,7 +7211,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7212,7 +7222,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7223,7 +7233,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7234,7 +7244,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7245,7 +7255,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7256,7 +7266,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7267,7 +7277,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7278,7 +7288,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7289,7 +7299,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7300,7 +7310,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7311,7 +7321,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7322,7 +7332,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7333,7 +7343,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7344,7 +7354,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7355,7 +7365,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7366,7 +7376,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7377,7 +7387,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7388,7 +7398,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7399,7 +7409,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7410,7 +7420,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7421,7 +7431,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7432,7 +7442,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7443,7 +7453,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7454,7 +7464,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7465,7 +7475,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7476,7 +7486,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7487,7 +7497,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7498,7 +7508,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7509,7 +7519,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7520,7 +7530,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7531,7 +7541,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7542,7 +7552,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7553,7 +7563,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7564,7 +7574,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7575,7 +7585,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7586,7 +7596,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7597,7 +7607,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7608,7 +7618,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7619,7 +7629,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7630,7 +7640,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7641,7 +7651,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7652,7 +7662,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7663,7 +7673,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7674,7 +7684,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7685,7 +7695,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7696,7 +7706,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7707,7 +7717,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7718,7 +7728,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7729,7 +7739,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7740,7 +7750,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7751,7 +7761,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7762,7 +7772,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7773,7 +7783,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7784,7 +7794,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7795,7 +7805,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7806,7 +7816,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7817,7 +7827,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7828,7 +7838,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7839,7 +7849,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7850,7 +7860,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7861,7 +7871,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7872,7 +7882,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7883,7 +7893,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7894,7 +7904,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7905,7 +7915,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7916,7 +7926,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7927,7 +7937,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7938,7 +7948,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7949,7 +7959,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7960,7 +7970,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7971,7 +7981,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7982,7 +7992,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -7993,7 +8003,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -8004,7 +8014,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -8015,7 +8025,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -8026,7 +8036,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -8037,7 +8047,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -8048,7 +8058,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -8059,7 +8069,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -8070,7 +8080,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8081,7 +8091,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8092,7 +8102,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8103,7 +8113,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8114,7 +8124,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8125,7 +8135,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8136,7 +8146,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8147,7 +8157,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8158,7 +8168,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8169,7 +8179,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8180,7 +8190,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8191,7 +8201,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8202,7 +8212,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8213,7 +8223,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8224,7 +8234,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8235,7 +8245,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8246,7 +8256,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8257,7 +8267,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8268,7 +8278,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8279,7 +8289,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8290,7 +8300,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8301,7 +8311,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8312,7 +8322,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8323,7 +8333,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8334,7 +8344,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8345,7 +8355,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8356,7 +8366,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8367,7 +8377,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8378,7 +8388,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8389,7 +8399,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8400,7 +8410,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8411,7 +8421,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8422,7 +8432,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8433,7 +8443,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8444,7 +8454,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8455,7 +8465,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8466,7 +8476,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8477,7 +8487,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8488,7 +8498,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8499,7 +8509,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8510,7 +8520,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8521,7 +8531,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8532,7 +8542,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8543,7 +8553,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8554,7 +8564,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8565,7 +8575,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8576,7 +8586,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8587,7 +8597,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8598,7 +8608,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8609,7 +8619,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8620,7 +8630,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8631,7 +8641,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8642,7 +8652,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8653,7 +8663,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8664,7 +8674,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8675,7 +8685,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8686,7 +8696,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8697,7 +8707,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8708,7 +8718,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8719,7 +8729,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8730,7 +8740,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8741,7 +8751,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8752,7 +8762,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8763,7 +8773,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8774,7 +8784,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8785,7 +8795,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8796,7 +8806,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8807,7 +8817,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8818,7 +8828,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8829,7 +8839,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8840,7 +8850,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8851,7 +8861,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8862,7 +8872,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8873,7 +8883,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8884,7 +8894,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8895,7 +8905,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8906,7 +8916,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8917,7 +8927,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8928,7 +8938,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8939,7 +8949,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8950,7 +8960,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8961,7 +8971,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8972,7 +8982,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8983,7 +8993,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -8994,7 +9004,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -9005,7 +9015,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -9016,7 +9026,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -9027,7 +9037,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -9038,7 +9048,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -9049,7 +9059,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -9060,7 +9070,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -9071,7 +9081,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9082,7 +9092,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9093,7 +9103,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9104,7 +9114,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9115,7 +9125,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9126,7 +9136,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9137,7 +9147,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9148,7 +9158,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9159,7 +9169,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9170,7 +9180,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9181,7 +9191,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9192,7 +9202,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9203,7 +9213,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9214,7 +9224,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9225,7 +9235,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9236,7 +9246,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9247,7 +9257,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9258,7 +9268,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9269,7 +9279,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9280,7 +9290,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9291,7 +9301,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9302,7 +9312,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9313,7 +9323,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9324,7 +9334,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9335,7 +9345,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9346,7 +9356,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9357,7 +9367,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9368,7 +9378,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9379,7 +9389,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9390,7 +9400,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9401,7 +9411,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9412,7 +9422,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9423,7 +9433,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9434,7 +9444,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9445,7 +9455,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9456,7 +9466,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9467,7 +9477,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9478,7 +9488,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9489,7 +9499,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9500,7 +9510,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9511,7 +9521,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9522,7 +9532,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9533,7 +9543,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9544,7 +9554,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9555,7 +9565,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9566,7 +9576,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9577,7 +9587,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9588,7 +9598,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9599,7 +9609,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9610,7 +9620,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9621,7 +9631,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9632,7 +9642,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9643,7 +9653,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9654,7 +9664,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9665,7 +9675,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9676,7 +9686,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9687,7 +9697,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9698,7 +9708,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9709,7 +9719,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9720,7 +9730,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9731,7 +9741,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9742,7 +9752,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9753,7 +9763,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9764,7 +9774,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9775,7 +9785,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9786,7 +9796,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9797,7 +9807,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9808,7 +9818,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9819,7 +9829,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9830,7 +9840,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9841,7 +9851,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9852,7 +9862,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9863,7 +9873,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9874,7 +9884,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9885,7 +9895,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9896,7 +9906,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9907,7 +9917,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9918,7 +9928,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9929,7 +9939,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9940,7 +9950,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9951,7 +9961,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9962,7 +9972,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9973,7 +9983,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9984,7 +9994,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -9995,7 +10005,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -10006,7 +10016,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -10017,7 +10027,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -10028,7 +10038,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -10039,7 +10049,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -10050,7 +10060,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -10061,7 +10071,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -10072,7 +10082,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10083,7 +10093,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10094,7 +10104,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10105,7 +10115,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10116,7 +10126,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10127,7 +10137,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10138,7 +10148,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10149,7 +10159,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10160,7 +10170,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10171,7 +10181,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10182,7 +10192,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10193,7 +10203,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10204,7 +10214,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10215,7 +10225,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10226,7 +10236,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10237,7 +10247,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10248,7 +10258,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10259,7 +10269,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10270,7 +10280,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10281,7 +10291,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10292,7 +10302,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10303,7 +10313,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10314,7 +10324,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10325,7 +10335,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10336,7 +10346,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10347,7 +10357,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10358,7 +10368,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>99.750000000000085</v>
+        <v>102.73000000000005</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE94737-359B-4DD6-A5B4-F9D1D41DA492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CAE30-3FE7-4D74-BD44-DEC1665485A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3021,8 +3021,8 @@
   <dimension ref="A1:D637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C190" sqref="C190"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5453,8 +5453,12 @@
         <f t="shared" si="2"/>
         <v>102.73000000000005</v>
       </c>
-      <c r="C190" s="23"/>
-      <c r="D190" s="23"/>
+      <c r="C190" s="23">
+        <v>60</v>
+      </c>
+      <c r="D190" s="23">
+        <v>148.69999999999999</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="24">
@@ -5462,7 +5466,7 @@
       </c>
       <c r="B191" s="23">
         <f t="shared" si="2"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -5473,7 +5477,7 @@
       </c>
       <c r="B192" s="23">
         <f t="shared" si="2"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -5484,7 +5488,7 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -5495,7 +5499,7 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -5506,7 +5510,7 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -5517,7 +5521,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5528,7 +5532,7 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -5539,7 +5543,7 @@
       </c>
       <c r="B198" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -5550,7 +5554,7 @@
       </c>
       <c r="B199" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -5561,7 +5565,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5572,7 +5576,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5583,7 +5587,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5594,7 +5598,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5605,7 +5609,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5616,7 +5620,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5627,7 +5631,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5638,7 +5642,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5649,7 +5653,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5660,7 +5664,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5671,7 +5675,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5682,7 +5686,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5693,7 +5697,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5704,7 +5708,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5715,7 +5719,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5726,7 +5730,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5737,7 +5741,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5748,7 +5752,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5759,7 +5763,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5770,7 +5774,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5781,7 +5785,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5792,7 +5796,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5803,7 +5807,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5814,7 +5818,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5825,7 +5829,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5836,7 +5840,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5847,7 +5851,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5858,7 +5862,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5869,7 +5873,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5880,7 +5884,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5891,7 +5895,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5902,7 +5906,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5913,7 +5917,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5924,7 +5928,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5935,7 +5939,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5946,7 +5950,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5957,7 +5961,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5968,7 +5972,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5979,7 +5983,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5990,7 +5994,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -6001,7 +6005,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -6012,7 +6016,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -6023,7 +6027,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -6034,7 +6038,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -6045,7 +6049,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -6056,7 +6060,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -6067,7 +6071,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -6078,7 +6082,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6089,7 +6093,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6100,7 +6104,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6111,7 +6115,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6122,7 +6126,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6133,7 +6137,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6144,7 +6148,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6155,7 +6159,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6166,7 +6170,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6177,7 +6181,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6188,7 +6192,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6199,7 +6203,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6210,7 +6214,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6221,7 +6225,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6232,7 +6236,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6243,7 +6247,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6254,7 +6258,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6265,7 +6269,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6276,7 +6280,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6287,7 +6291,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6298,7 +6302,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6309,7 +6313,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6320,7 +6324,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6331,7 +6335,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6342,7 +6346,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6353,7 +6357,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6364,7 +6368,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6375,7 +6379,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6386,7 +6390,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6397,7 +6401,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6408,7 +6412,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6419,7 +6423,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6430,7 +6434,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6441,7 +6445,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6452,7 +6456,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6463,7 +6467,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6474,7 +6478,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6485,7 +6489,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6496,7 +6500,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6507,7 +6511,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6518,7 +6522,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6529,7 +6533,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6540,7 +6544,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6551,7 +6555,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6562,7 +6566,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6573,7 +6577,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6584,7 +6588,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6595,7 +6599,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6606,7 +6610,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6617,7 +6621,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6628,7 +6632,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6639,7 +6643,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6650,7 +6654,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6661,7 +6665,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6672,7 +6676,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6683,7 +6687,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6694,7 +6698,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6705,7 +6709,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6716,7 +6720,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6727,7 +6731,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6738,7 +6742,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6749,7 +6753,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6760,7 +6764,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6771,7 +6775,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6782,7 +6786,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6793,7 +6797,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6804,7 +6808,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6815,7 +6819,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6826,7 +6830,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6837,7 +6841,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6848,7 +6852,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6859,7 +6863,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6870,7 +6874,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6881,7 +6885,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6892,7 +6896,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6903,7 +6907,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6914,7 +6918,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6925,7 +6929,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6936,7 +6940,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6947,7 +6951,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6958,7 +6962,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6969,7 +6973,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6980,7 +6984,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6991,7 +6995,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -7002,7 +7006,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -7013,7 +7017,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -7024,7 +7028,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -7035,7 +7039,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -7046,7 +7050,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -7057,7 +7061,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -7068,7 +7072,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -7079,7 +7083,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7090,7 +7094,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7101,7 +7105,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7112,7 +7116,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7123,7 +7127,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7134,7 +7138,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7145,7 +7149,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7156,7 +7160,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7167,7 +7171,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7178,7 +7182,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7189,7 +7193,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7200,7 +7204,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7211,7 +7215,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7222,7 +7226,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7233,7 +7237,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7244,7 +7248,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7255,7 +7259,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7266,7 +7270,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7277,7 +7281,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7288,7 +7292,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7299,7 +7303,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7310,7 +7314,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7321,7 +7325,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7332,7 +7336,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7343,7 +7347,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7354,7 +7358,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7365,7 +7369,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7376,7 +7380,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7387,7 +7391,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7398,7 +7402,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7409,7 +7413,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7420,7 +7424,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7431,7 +7435,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7442,7 +7446,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7453,7 +7457,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7464,7 +7468,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7475,7 +7479,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7486,7 +7490,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7497,7 +7501,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7508,7 +7512,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7519,7 +7523,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7530,7 +7534,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7541,7 +7545,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7552,7 +7556,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7563,7 +7567,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7574,7 +7578,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7585,7 +7589,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7596,7 +7600,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7607,7 +7611,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7618,7 +7622,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7629,7 +7633,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7640,7 +7644,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7651,7 +7655,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7662,7 +7666,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7673,7 +7677,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7684,7 +7688,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7695,7 +7699,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7706,7 +7710,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7717,7 +7721,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7728,7 +7732,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7739,7 +7743,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7750,7 +7754,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7761,7 +7765,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7772,7 +7776,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7783,7 +7787,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7794,7 +7798,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7805,7 +7809,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7816,7 +7820,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7827,7 +7831,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7838,7 +7842,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7849,7 +7853,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7860,7 +7864,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7871,7 +7875,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7882,7 +7886,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7893,7 +7897,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7904,7 +7908,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7915,7 +7919,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7926,7 +7930,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7937,7 +7941,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7948,7 +7952,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7959,7 +7963,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7970,7 +7974,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7981,7 +7985,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7992,7 +7996,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -8003,7 +8007,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -8014,7 +8018,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -8025,7 +8029,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -8036,7 +8040,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -8047,7 +8051,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -8058,7 +8062,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -8069,7 +8073,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -8080,7 +8084,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8091,7 +8095,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8102,7 +8106,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8113,7 +8117,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8124,7 +8128,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8135,7 +8139,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8146,7 +8150,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8157,7 +8161,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8168,7 +8172,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8179,7 +8183,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8190,7 +8194,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8201,7 +8205,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8212,7 +8216,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8223,7 +8227,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8234,7 +8238,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8245,7 +8249,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8256,7 +8260,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8267,7 +8271,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8278,7 +8282,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8289,7 +8293,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8300,7 +8304,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8311,7 +8315,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8322,7 +8326,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8333,7 +8337,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8344,7 +8348,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8355,7 +8359,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8366,7 +8370,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8377,7 +8381,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8388,7 +8392,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8399,7 +8403,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8410,7 +8414,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8421,7 +8425,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8432,7 +8436,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8443,7 +8447,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8454,7 +8458,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8465,7 +8469,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8476,7 +8480,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8487,7 +8491,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8498,7 +8502,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8509,7 +8513,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8520,7 +8524,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8531,7 +8535,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8542,7 +8546,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8553,7 +8557,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8564,7 +8568,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8575,7 +8579,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8586,7 +8590,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8597,7 +8601,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8608,7 +8612,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8619,7 +8623,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8630,7 +8634,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8641,7 +8645,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8652,7 +8656,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8663,7 +8667,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8674,7 +8678,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8685,7 +8689,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8696,7 +8700,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8707,7 +8711,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8718,7 +8722,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8729,7 +8733,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8740,7 +8744,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8751,7 +8755,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8762,7 +8766,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8773,7 +8777,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8784,7 +8788,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8795,7 +8799,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8806,7 +8810,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8817,7 +8821,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8828,7 +8832,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8839,7 +8843,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8850,7 +8854,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8861,7 +8865,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8872,7 +8876,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8883,7 +8887,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8894,7 +8898,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8905,7 +8909,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8916,7 +8920,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8927,7 +8931,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8938,7 +8942,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8949,7 +8953,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8960,7 +8964,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8971,7 +8975,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8982,7 +8986,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8993,7 +8997,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -9004,7 +9008,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -9015,7 +9019,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -9026,7 +9030,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -9037,7 +9041,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -9048,7 +9052,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -9059,7 +9063,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -9070,7 +9074,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -9081,7 +9085,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9092,7 +9096,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9103,7 +9107,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9114,7 +9118,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9125,7 +9129,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9136,7 +9140,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9147,7 +9151,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9158,7 +9162,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9169,7 +9173,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9180,7 +9184,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9191,7 +9195,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9202,7 +9206,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9213,7 +9217,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9224,7 +9228,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9235,7 +9239,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9246,7 +9250,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9257,7 +9261,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9268,7 +9272,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9279,7 +9283,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9290,7 +9294,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9301,7 +9305,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9312,7 +9316,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9323,7 +9327,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9334,7 +9338,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9345,7 +9349,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9356,7 +9360,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9367,7 +9371,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9378,7 +9382,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9389,7 +9393,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9400,7 +9404,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9411,7 +9415,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9422,7 +9426,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9433,7 +9437,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9444,7 +9448,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9455,7 +9459,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9466,7 +9470,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9477,7 +9481,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9488,7 +9492,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9499,7 +9503,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9510,7 +9514,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9521,7 +9525,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9532,7 +9536,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9543,7 +9547,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9554,7 +9558,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9565,7 +9569,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9576,7 +9580,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9587,7 +9591,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9598,7 +9602,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9609,7 +9613,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9620,7 +9624,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9631,7 +9635,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9642,7 +9646,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9653,7 +9657,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9664,7 +9668,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9675,7 +9679,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9686,7 +9690,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9697,7 +9701,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9708,7 +9712,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9719,7 +9723,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9730,7 +9734,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9741,7 +9745,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9752,7 +9756,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9763,7 +9767,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9774,7 +9778,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9785,7 +9789,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9796,7 +9800,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9807,7 +9811,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9818,7 +9822,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9829,7 +9833,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9840,7 +9844,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9851,7 +9855,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9862,7 +9866,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9873,7 +9877,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9884,7 +9888,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9895,7 +9899,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9906,7 +9910,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9917,7 +9921,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9928,7 +9932,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9939,7 +9943,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9950,7 +9954,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9961,7 +9965,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9972,7 +9976,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9983,7 +9987,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9994,7 +9998,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -10005,7 +10009,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -10016,7 +10020,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -10027,7 +10031,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -10038,7 +10042,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -10049,7 +10053,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -10060,7 +10064,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -10071,7 +10075,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -10082,7 +10086,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10093,7 +10097,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10104,7 +10108,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10115,7 +10119,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10126,7 +10130,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10137,7 +10141,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10148,7 +10152,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10159,7 +10163,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10170,7 +10174,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10181,7 +10185,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10192,7 +10196,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10203,7 +10207,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10214,7 +10218,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10225,7 +10229,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10236,7 +10240,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10247,7 +10251,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10258,7 +10262,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10269,7 +10273,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10280,7 +10284,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10291,7 +10295,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10302,7 +10306,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10313,7 +10317,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10324,7 +10328,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10335,7 +10339,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10346,7 +10350,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10357,7 +10361,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10368,7 +10372,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>102.73000000000005</v>
+        <v>14.030000000000058</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>

--- a/29组饭费统计.xlsx
+++ b/29组饭费统计.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CAE30-3FE7-4D74-BD44-DEC1665485A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B970DB1-EE72-41B3-82BC-D208071E623C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,9 +780,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -820,9 +820,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -855,26 +855,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -907,26 +890,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3021,8 +2987,8 @@
   <dimension ref="A1:D637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5479,8 +5445,13 @@
         <f t="shared" si="2"/>
         <v>14.030000000000058</v>
       </c>
-      <c r="C192" s="23"/>
-      <c r="D192" s="23"/>
+      <c r="C192" s="23">
+        <f>60+10+105</f>
+        <v>175</v>
+      </c>
+      <c r="D192" s="23">
+        <v>132.38</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="24">
@@ -5488,9 +5459,11 @@
       </c>
       <c r="B193" s="23">
         <f t="shared" si="2"/>
-        <v>14.030000000000058</v>
-      </c>
-      <c r="C193" s="23"/>
+        <v>56.650000000000063</v>
+      </c>
+      <c r="C193" s="23">
+        <v>70</v>
+      </c>
       <c r="D193" s="23"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,10 +5472,15 @@
       </c>
       <c r="B194" s="23">
         <f t="shared" si="2"/>
-        <v>14.030000000000058</v>
-      </c>
-      <c r="C194" s="23"/>
-      <c r="D194" s="23"/>
+        <v>126.65000000000006</v>
+      </c>
+      <c r="C194" s="23">
+        <f>55+30</f>
+        <v>85</v>
+      </c>
+      <c r="D194" s="23">
+        <v>160.80000000000001</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="24">
@@ -5510,9 +5488,12 @@
       </c>
       <c r="B195" s="23">
         <f t="shared" si="2"/>
-        <v>14.030000000000058</v>
-      </c>
-      <c r="C195" s="23"/>
+        <v>50.850000000000051</v>
+      </c>
+      <c r="C195" s="23">
+        <f>80</f>
+        <v>80</v>
+      </c>
       <c r="D195" s="23"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,7 +5502,7 @@
       </c>
       <c r="B196" s="23">
         <f t="shared" ref="B196:B259" si="3">B195+C195-D195</f>
-        <v>14.030000000000058</v>
+        <v>130.85000000000005</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -5532,9 +5513,11 @@
       </c>
       <c r="B197" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
-      </c>
-      <c r="C197" s="23"/>
+        <v>130.85000000000005</v>
+      </c>
+      <c r="C197" s="23">
+        <v>60</v>
+      </c>
       <c r="D197" s="23"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5542,22 +5525,30 @@
         <v>45130</v>
       </c>
       <c r="B198" s="23">
-        <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
-      </c>
-      <c r="C198" s="23"/>
-      <c r="D198" s="23"/>
+        <f>B197+C197-D197</f>
+        <v>190.85000000000005</v>
+      </c>
+      <c r="C198" s="23">
+        <v>90</v>
+      </c>
+      <c r="D198" s="23">
+        <v>154.15</v>
+      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="24">
         <v>45137</v>
       </c>
       <c r="B199" s="23">
-        <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
-      </c>
-      <c r="C199" s="23"/>
-      <c r="D199" s="23"/>
+        <f>B198+C198-D198</f>
+        <v>126.70000000000002</v>
+      </c>
+      <c r="C199" s="23">
+        <v>60</v>
+      </c>
+      <c r="D199" s="23">
+        <v>192.73</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="24">
@@ -5565,7 +5556,7 @@
       </c>
       <c r="B200" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -5576,7 +5567,7 @@
       </c>
       <c r="B201" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -5587,7 +5578,7 @@
       </c>
       <c r="B202" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -5598,7 +5589,7 @@
       </c>
       <c r="B203" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -5609,7 +5600,7 @@
       </c>
       <c r="B204" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -5620,7 +5611,7 @@
       </c>
       <c r="B205" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -5631,7 +5622,7 @@
       </c>
       <c r="B206" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -5642,7 +5633,7 @@
       </c>
       <c r="B207" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -5653,7 +5644,7 @@
       </c>
       <c r="B208" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -5664,7 +5655,7 @@
       </c>
       <c r="B209" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -5675,7 +5666,7 @@
       </c>
       <c r="B210" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -5686,7 +5677,7 @@
       </c>
       <c r="B211" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -5697,7 +5688,7 @@
       </c>
       <c r="B212" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -5708,7 +5699,7 @@
       </c>
       <c r="B213" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -5719,7 +5710,7 @@
       </c>
       <c r="B214" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -5730,7 +5721,7 @@
       </c>
       <c r="B215" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -5741,7 +5732,7 @@
       </c>
       <c r="B216" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -5752,7 +5743,7 @@
       </c>
       <c r="B217" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -5763,7 +5754,7 @@
       </c>
       <c r="B218" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -5774,7 +5765,7 @@
       </c>
       <c r="B219" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -5785,7 +5776,7 @@
       </c>
       <c r="B220" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -5796,7 +5787,7 @@
       </c>
       <c r="B221" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -5807,7 +5798,7 @@
       </c>
       <c r="B222" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -5818,7 +5809,7 @@
       </c>
       <c r="B223" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -5829,7 +5820,7 @@
       </c>
       <c r="B224" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -5840,7 +5831,7 @@
       </c>
       <c r="B225" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -5851,7 +5842,7 @@
       </c>
       <c r="B226" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -5862,7 +5853,7 @@
       </c>
       <c r="B227" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -5873,7 +5864,7 @@
       </c>
       <c r="B228" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -5884,7 +5875,7 @@
       </c>
       <c r="B229" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -5895,7 +5886,7 @@
       </c>
       <c r="B230" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -5906,7 +5897,7 @@
       </c>
       <c r="B231" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -5917,7 +5908,7 @@
       </c>
       <c r="B232" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -5928,7 +5919,7 @@
       </c>
       <c r="B233" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -5939,7 +5930,7 @@
       </c>
       <c r="B234" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -5950,7 +5941,7 @@
       </c>
       <c r="B235" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -5961,7 +5952,7 @@
       </c>
       <c r="B236" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -5972,7 +5963,7 @@
       </c>
       <c r="B237" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -5983,7 +5974,7 @@
       </c>
       <c r="B238" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -5994,7 +5985,7 @@
       </c>
       <c r="B239" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -6005,7 +5996,7 @@
       </c>
       <c r="B240" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
@@ -6016,7 +6007,7 @@
       </c>
       <c r="B241" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
@@ -6027,7 +6018,7 @@
       </c>
       <c r="B242" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -6038,7 +6029,7 @@
       </c>
       <c r="B243" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -6049,7 +6040,7 @@
       </c>
       <c r="B244" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -6060,7 +6051,7 @@
       </c>
       <c r="B245" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -6071,7 +6062,7 @@
       </c>
       <c r="B246" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -6082,7 +6073,7 @@
       </c>
       <c r="B247" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="25"/>
@@ -6093,7 +6084,7 @@
       </c>
       <c r="B248" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="25"/>
@@ -6104,7 +6095,7 @@
       </c>
       <c r="B249" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -6115,7 +6106,7 @@
       </c>
       <c r="B250" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -6126,7 +6117,7 @@
       </c>
       <c r="B251" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -6137,7 +6128,7 @@
       </c>
       <c r="B252" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -6148,7 +6139,7 @@
       </c>
       <c r="B253" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -6159,7 +6150,7 @@
       </c>
       <c r="B254" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="25"/>
@@ -6170,7 +6161,7 @@
       </c>
       <c r="B255" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C255" s="25"/>
       <c r="D255" s="25"/>
@@ -6181,7 +6172,7 @@
       </c>
       <c r="B256" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -6192,7 +6183,7 @@
       </c>
       <c r="B257" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -6203,7 +6194,7 @@
       </c>
       <c r="B258" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -6214,7 +6205,7 @@
       </c>
       <c r="B259" s="23">
         <f t="shared" si="3"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -6225,7 +6216,7 @@
       </c>
       <c r="B260" s="23">
         <f t="shared" ref="B260:B323" si="4">B259+C259-D259</f>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -6236,7 +6227,7 @@
       </c>
       <c r="B261" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C261" s="25"/>
       <c r="D261" s="25"/>
@@ -6247,7 +6238,7 @@
       </c>
       <c r="B262" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -6258,7 +6249,7 @@
       </c>
       <c r="B263" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -6269,7 +6260,7 @@
       </c>
       <c r="B264" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -6280,7 +6271,7 @@
       </c>
       <c r="B265" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -6291,7 +6282,7 @@
       </c>
       <c r="B266" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -6302,7 +6293,7 @@
       </c>
       <c r="B267" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -6313,7 +6304,7 @@
       </c>
       <c r="B268" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C268" s="25"/>
       <c r="D268" s="25"/>
@@ -6324,7 +6315,7 @@
       </c>
       <c r="B269" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C269" s="25"/>
       <c r="D269" s="25"/>
@@ -6335,7 +6326,7 @@
       </c>
       <c r="B270" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -6346,7 +6337,7 @@
       </c>
       <c r="B271" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -6357,7 +6348,7 @@
       </c>
       <c r="B272" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -6368,7 +6359,7 @@
       </c>
       <c r="B273" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -6379,7 +6370,7 @@
       </c>
       <c r="B274" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -6390,7 +6381,7 @@
       </c>
       <c r="B275" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -6401,7 +6392,7 @@
       </c>
       <c r="B276" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C276" s="25"/>
       <c r="D276" s="25"/>
@@ -6412,7 +6403,7 @@
       </c>
       <c r="B277" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -6423,7 +6414,7 @@
       </c>
       <c r="B278" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -6434,7 +6425,7 @@
       </c>
       <c r="B279" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -6445,7 +6436,7 @@
       </c>
       <c r="B280" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -6456,7 +6447,7 @@
       </c>
       <c r="B281" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -6467,7 +6458,7 @@
       </c>
       <c r="B282" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="25"/>
@@ -6478,7 +6469,7 @@
       </c>
       <c r="B283" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
@@ -6489,7 +6480,7 @@
       </c>
       <c r="B284" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -6500,7 +6491,7 @@
       </c>
       <c r="B285" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -6511,7 +6502,7 @@
       </c>
       <c r="B286" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -6522,7 +6513,7 @@
       </c>
       <c r="B287" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -6533,7 +6524,7 @@
       </c>
       <c r="B288" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -6544,7 +6535,7 @@
       </c>
       <c r="B289" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
@@ -6555,7 +6546,7 @@
       </c>
       <c r="B290" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
@@ -6566,7 +6557,7 @@
       </c>
       <c r="B291" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -6577,7 +6568,7 @@
       </c>
       <c r="B292" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -6588,7 +6579,7 @@
       </c>
       <c r="B293" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -6599,7 +6590,7 @@
       </c>
       <c r="B294" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -6610,7 +6601,7 @@
       </c>
       <c r="B295" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -6621,7 +6612,7 @@
       </c>
       <c r="B296" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
@@ -6632,7 +6623,7 @@
       </c>
       <c r="B297" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C297" s="25"/>
       <c r="D297" s="25"/>
@@ -6643,7 +6634,7 @@
       </c>
       <c r="B298" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -6654,7 +6645,7 @@
       </c>
       <c r="B299" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -6665,7 +6656,7 @@
       </c>
       <c r="B300" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -6676,7 +6667,7 @@
       </c>
       <c r="B301" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -6687,7 +6678,7 @@
       </c>
       <c r="B302" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -6698,7 +6689,7 @@
       </c>
       <c r="B303" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C303" s="25"/>
       <c r="D303" s="25"/>
@@ -6709,7 +6700,7 @@
       </c>
       <c r="B304" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="25"/>
@@ -6720,7 +6711,7 @@
       </c>
       <c r="B305" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -6731,7 +6722,7 @@
       </c>
       <c r="B306" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -6742,7 +6733,7 @@
       </c>
       <c r="B307" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -6753,7 +6744,7 @@
       </c>
       <c r="B308" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -6764,7 +6755,7 @@
       </c>
       <c r="B309" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -6775,7 +6766,7 @@
       </c>
       <c r="B310" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -6786,7 +6777,7 @@
       </c>
       <c r="B311" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -6797,7 +6788,7 @@
       </c>
       <c r="B312" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -6808,7 +6799,7 @@
       </c>
       <c r="B313" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -6819,7 +6810,7 @@
       </c>
       <c r="B314" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -6830,7 +6821,7 @@
       </c>
       <c r="B315" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -6841,7 +6832,7 @@
       </c>
       <c r="B316" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -6852,7 +6843,7 @@
       </c>
       <c r="B317" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="25"/>
@@ -6863,7 +6854,7 @@
       </c>
       <c r="B318" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
@@ -6874,7 +6865,7 @@
       </c>
       <c r="B319" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -6885,7 +6876,7 @@
       </c>
       <c r="B320" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -6896,7 +6887,7 @@
       </c>
       <c r="B321" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -6907,7 +6898,7 @@
       </c>
       <c r="B322" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -6918,7 +6909,7 @@
       </c>
       <c r="B323" s="23">
         <f t="shared" si="4"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -6929,7 +6920,7 @@
       </c>
       <c r="B324" s="23">
         <f t="shared" ref="B324:B387" si="5">B323+C323-D323</f>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="25"/>
@@ -6940,7 +6931,7 @@
       </c>
       <c r="B325" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="25"/>
@@ -6951,7 +6942,7 @@
       </c>
       <c r="B326" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C326" s="25"/>
       <c r="D326" s="25"/>
@@ -6962,7 +6953,7 @@
       </c>
       <c r="B327" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
@@ -6973,7 +6964,7 @@
       </c>
       <c r="B328" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
@@ -6984,7 +6975,7 @@
       </c>
       <c r="B329" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C329" s="25"/>
       <c r="D329" s="25"/>
@@ -6995,7 +6986,7 @@
       </c>
       <c r="B330" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C330" s="25"/>
       <c r="D330" s="25"/>
@@ -7006,7 +6997,7 @@
       </c>
       <c r="B331" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C331" s="25"/>
       <c r="D331" s="25"/>
@@ -7017,7 +7008,7 @@
       </c>
       <c r="B332" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
@@ -7028,7 +7019,7 @@
       </c>
       <c r="B333" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C333" s="25"/>
       <c r="D333" s="25"/>
@@ -7039,7 +7030,7 @@
       </c>
       <c r="B334" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -7050,7 +7041,7 @@
       </c>
       <c r="B335" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -7061,7 +7052,7 @@
       </c>
       <c r="B336" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
@@ -7072,7 +7063,7 @@
       </c>
       <c r="B337" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
@@ -7083,7 +7074,7 @@
       </c>
       <c r="B338" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
@@ -7094,7 +7085,7 @@
       </c>
       <c r="B339" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C339" s="25"/>
       <c r="D339" s="25"/>
@@ -7105,7 +7096,7 @@
       </c>
       <c r="B340" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -7116,7 +7107,7 @@
       </c>
       <c r="B341" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
@@ -7127,7 +7118,7 @@
       </c>
       <c r="B342" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C342" s="25"/>
       <c r="D342" s="25"/>
@@ -7138,7 +7129,7 @@
       </c>
       <c r="B343" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C343" s="25"/>
       <c r="D343" s="25"/>
@@ -7149,7 +7140,7 @@
       </c>
       <c r="B344" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="25"/>
@@ -7160,7 +7151,7 @@
       </c>
       <c r="B345" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
@@ -7171,7 +7162,7 @@
       </c>
       <c r="B346" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -7182,7 +7173,7 @@
       </c>
       <c r="B347" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -7193,7 +7184,7 @@
       </c>
       <c r="B348" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="25"/>
@@ -7204,7 +7195,7 @@
       </c>
       <c r="B349" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="25"/>
@@ -7215,7 +7206,7 @@
       </c>
       <c r="B350" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
@@ -7226,7 +7217,7 @@
       </c>
       <c r="B351" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="25"/>
@@ -7237,7 +7228,7 @@
       </c>
       <c r="B352" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="25"/>
@@ -7248,7 +7239,7 @@
       </c>
       <c r="B353" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C353" s="25"/>
       <c r="D353" s="25"/>
@@ -7259,7 +7250,7 @@
       </c>
       <c r="B354" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
@@ -7270,7 +7261,7 @@
       </c>
       <c r="B355" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
@@ -7281,7 +7272,7 @@
       </c>
       <c r="B356" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C356" s="25"/>
       <c r="D356" s="25"/>
@@ -7292,7 +7283,7 @@
       </c>
       <c r="B357" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C357" s="25"/>
       <c r="D357" s="25"/>
@@ -7303,7 +7294,7 @@
       </c>
       <c r="B358" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -7314,7 +7305,7 @@
       </c>
       <c r="B359" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
@@ -7325,7 +7316,7 @@
       </c>
       <c r="B360" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C360" s="25"/>
       <c r="D360" s="25"/>
@@ -7336,7 +7327,7 @@
       </c>
       <c r="B361" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C361" s="25"/>
       <c r="D361" s="25"/>
@@ -7347,7 +7338,7 @@
       </c>
       <c r="B362" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C362" s="25"/>
       <c r="D362" s="25"/>
@@ -7358,7 +7349,7 @@
       </c>
       <c r="B363" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
@@ -7369,7 +7360,7 @@
       </c>
       <c r="B364" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
@@ -7380,7 +7371,7 @@
       </c>
       <c r="B365" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C365" s="25"/>
       <c r="D365" s="25"/>
@@ -7391,7 +7382,7 @@
       </c>
       <c r="B366" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C366" s="25"/>
       <c r="D366" s="25"/>
@@ -7402,7 +7393,7 @@
       </c>
       <c r="B367" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C367" s="25"/>
       <c r="D367" s="25"/>
@@ -7413,7 +7404,7 @@
       </c>
       <c r="B368" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
@@ -7424,7 +7415,7 @@
       </c>
       <c r="B369" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C369" s="25"/>
       <c r="D369" s="25"/>
@@ -7435,7 +7426,7 @@
       </c>
       <c r="B370" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C370" s="25"/>
       <c r="D370" s="25"/>
@@ -7446,7 +7437,7 @@
       </c>
       <c r="B371" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C371" s="25"/>
       <c r="D371" s="25"/>
@@ -7457,7 +7448,7 @@
       </c>
       <c r="B372" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
@@ -7468,7 +7459,7 @@
       </c>
       <c r="B373" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -7479,7 +7470,7 @@
       </c>
       <c r="B374" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -7490,7 +7481,7 @@
       </c>
       <c r="B375" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C375" s="25"/>
       <c r="D375" s="25"/>
@@ -7501,7 +7492,7 @@
       </c>
       <c r="B376" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C376" s="25"/>
       <c r="D376" s="25"/>
@@ -7512,7 +7503,7 @@
       </c>
       <c r="B377" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
@@ -7523,7 +7514,7 @@
       </c>
       <c r="B378" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C378" s="25"/>
       <c r="D378" s="25"/>
@@ -7534,7 +7525,7 @@
       </c>
       <c r="B379" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="25"/>
@@ -7545,7 +7536,7 @@
       </c>
       <c r="B380" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="25"/>
@@ -7556,7 +7547,7 @@
       </c>
       <c r="B381" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C381" s="25"/>
       <c r="D381" s="25"/>
@@ -7567,7 +7558,7 @@
       </c>
       <c r="B382" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
@@ -7578,7 +7569,7 @@
       </c>
       <c r="B383" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
@@ -7589,7 +7580,7 @@
       </c>
       <c r="B384" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="25"/>
@@ -7600,7 +7591,7 @@
       </c>
       <c r="B385" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -7611,7 +7602,7 @@
       </c>
       <c r="B386" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -7622,7 +7613,7 @@
       </c>
       <c r="B387" s="23">
         <f t="shared" si="5"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
@@ -7633,7 +7624,7 @@
       </c>
       <c r="B388" s="23">
         <f t="shared" ref="B388:B451" si="6">B387+C387-D387</f>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C388" s="25"/>
       <c r="D388" s="25"/>
@@ -7644,7 +7635,7 @@
       </c>
       <c r="B389" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C389" s="25"/>
       <c r="D389" s="25"/>
@@ -7655,7 +7646,7 @@
       </c>
       <c r="B390" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C390" s="25"/>
       <c r="D390" s="25"/>
@@ -7666,7 +7657,7 @@
       </c>
       <c r="B391" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
@@ -7677,7 +7668,7 @@
       </c>
       <c r="B392" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
@@ -7688,7 +7679,7 @@
       </c>
       <c r="B393" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="25"/>
@@ -7699,7 +7690,7 @@
       </c>
       <c r="B394" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
@@ -7710,7 +7701,7 @@
       </c>
       <c r="B395" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="25"/>
@@ -7721,7 +7712,7 @@
       </c>
       <c r="B396" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
@@ -7732,7 +7723,7 @@
       </c>
       <c r="B397" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -7743,7 +7734,7 @@
       </c>
       <c r="B398" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -7754,7 +7745,7 @@
       </c>
       <c r="B399" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="25"/>
@@ -7765,7 +7756,7 @@
       </c>
       <c r="B400" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
@@ -7776,7 +7767,7 @@
       </c>
       <c r="B401" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
@@ -7787,7 +7778,7 @@
       </c>
       <c r="B402" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="25"/>
@@ -7798,7 +7789,7 @@
       </c>
       <c r="B403" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C403" s="25"/>
       <c r="D403" s="25"/>
@@ -7809,7 +7800,7 @@
       </c>
       <c r="B404" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C404" s="25"/>
       <c r="D404" s="25"/>
@@ -7820,7 +7811,7 @@
       </c>
       <c r="B405" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
@@ -7831,7 +7822,7 @@
       </c>
       <c r="B406" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="25"/>
@@ -7842,7 +7833,7 @@
       </c>
       <c r="B407" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="25"/>
@@ -7853,7 +7844,7 @@
       </c>
       <c r="B408" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="25"/>
@@ -7864,7 +7855,7 @@
       </c>
       <c r="B409" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -7875,7 +7866,7 @@
       </c>
       <c r="B410" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -7886,7 +7877,7 @@
       </c>
       <c r="B411" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="25"/>
@@ -7897,7 +7888,7 @@
       </c>
       <c r="B412" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C412" s="25"/>
       <c r="D412" s="25"/>
@@ -7908,7 +7899,7 @@
       </c>
       <c r="B413" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C413" s="25"/>
       <c r="D413" s="25"/>
@@ -7919,7 +7910,7 @@
       </c>
       <c r="B414" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
@@ -7930,7 +7921,7 @@
       </c>
       <c r="B415" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="25"/>
@@ -7941,7 +7932,7 @@
       </c>
       <c r="B416" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C416" s="25"/>
       <c r="D416" s="25"/>
@@ -7952,7 +7943,7 @@
       </c>
       <c r="B417" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C417" s="25"/>
       <c r="D417" s="25"/>
@@ -7963,7 +7954,7 @@
       </c>
       <c r="B418" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
@@ -7974,7 +7965,7 @@
       </c>
       <c r="B419" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
@@ -7985,7 +7976,7 @@
       </c>
       <c r="B420" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="25"/>
@@ -7996,7 +7987,7 @@
       </c>
       <c r="B421" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -8007,7 +7998,7 @@
       </c>
       <c r="B422" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -8018,7 +8009,7 @@
       </c>
       <c r="B423" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
@@ -8029,7 +8020,7 @@
       </c>
       <c r="B424" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
@@ -8040,7 +8031,7 @@
       </c>
       <c r="B425" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
@@ -8051,7 +8042,7 @@
       </c>
       <c r="B426" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C426" s="25"/>
       <c r="D426" s="25"/>
@@ -8062,7 +8053,7 @@
       </c>
       <c r="B427" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="25"/>
@@ -8073,7 +8064,7 @@
       </c>
       <c r="B428" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C428" s="25"/>
       <c r="D428" s="25"/>
@@ -8084,7 +8075,7 @@
       </c>
       <c r="B429" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
@@ -8095,7 +8086,7 @@
       </c>
       <c r="B430" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
@@ -8106,7 +8097,7 @@
       </c>
       <c r="B431" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="25"/>
@@ -8117,7 +8108,7 @@
       </c>
       <c r="B432" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="25"/>
@@ -8128,7 +8119,7 @@
       </c>
       <c r="B433" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -8139,7 +8130,7 @@
       </c>
       <c r="B434" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -8150,7 +8141,7 @@
       </c>
       <c r="B435" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
@@ -8161,7 +8152,7 @@
       </c>
       <c r="B436" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="25"/>
@@ -8172,7 +8163,7 @@
       </c>
       <c r="B437" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="25"/>
@@ -8183,7 +8174,7 @@
       </c>
       <c r="B438" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="25"/>
@@ -8194,7 +8185,7 @@
       </c>
       <c r="B439" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="25"/>
@@ -8205,7 +8196,7 @@
       </c>
       <c r="B440" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C440" s="25"/>
       <c r="D440" s="25"/>
@@ -8216,7 +8207,7 @@
       </c>
       <c r="B441" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C441" s="25"/>
       <c r="D441" s="25"/>
@@ -8227,7 +8218,7 @@
       </c>
       <c r="B442" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
@@ -8238,7 +8229,7 @@
       </c>
       <c r="B443" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C443" s="25"/>
       <c r="D443" s="25"/>
@@ -8249,7 +8240,7 @@
       </c>
       <c r="B444" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C444" s="25"/>
       <c r="D444" s="25"/>
@@ -8260,7 +8251,7 @@
       </c>
       <c r="B445" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -8271,7 +8262,7 @@
       </c>
       <c r="B446" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -8282,7 +8273,7 @@
       </c>
       <c r="B447" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="25"/>
@@ -8293,7 +8284,7 @@
       </c>
       <c r="B448" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
@@ -8304,7 +8295,7 @@
       </c>
       <c r="B449" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C449" s="25"/>
       <c r="D449" s="25"/>
@@ -8315,7 +8306,7 @@
       </c>
       <c r="B450" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="25"/>
@@ -8326,7 +8317,7 @@
       </c>
       <c r="B451" s="23">
         <f t="shared" si="6"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
@@ -8337,7 +8328,7 @@
       </c>
       <c r="B452" s="23">
         <f t="shared" ref="B452:B515" si="7">B451+C451-D451</f>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="25"/>
@@ -8348,7 +8339,7 @@
       </c>
       <c r="B453" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C453" s="25"/>
       <c r="D453" s="25"/>
@@ -8359,7 +8350,7 @@
       </c>
       <c r="B454" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C454" s="25"/>
       <c r="D454" s="25"/>
@@ -8370,7 +8361,7 @@
       </c>
       <c r="B455" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C455" s="25"/>
       <c r="D455" s="25"/>
@@ -8381,7 +8372,7 @@
       </c>
       <c r="B456" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C456" s="25"/>
       <c r="D456" s="25"/>
@@ -8392,7 +8383,7 @@
       </c>
       <c r="B457" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -8403,7 +8394,7 @@
       </c>
       <c r="B458" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -8414,7 +8405,7 @@
       </c>
       <c r="B459" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C459" s="25"/>
       <c r="D459" s="25"/>
@@ -8425,7 +8416,7 @@
       </c>
       <c r="B460" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C460" s="25"/>
       <c r="D460" s="25"/>
@@ -8436,7 +8427,7 @@
       </c>
       <c r="B461" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C461" s="25"/>
       <c r="D461" s="25"/>
@@ -8447,7 +8438,7 @@
       </c>
       <c r="B462" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C462" s="25"/>
       <c r="D462" s="25"/>
@@ -8458,7 +8449,7 @@
       </c>
       <c r="B463" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C463" s="25"/>
       <c r="D463" s="25"/>
@@ -8469,7 +8460,7 @@
       </c>
       <c r="B464" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C464" s="25"/>
       <c r="D464" s="25"/>
@@ -8480,7 +8471,7 @@
       </c>
       <c r="B465" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C465" s="25"/>
       <c r="D465" s="25"/>
@@ -8491,7 +8482,7 @@
       </c>
       <c r="B466" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C466" s="25"/>
       <c r="D466" s="25"/>
@@ -8502,7 +8493,7 @@
       </c>
       <c r="B467" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C467" s="25"/>
       <c r="D467" s="25"/>
@@ -8513,7 +8504,7 @@
       </c>
       <c r="B468" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
@@ -8524,7 +8515,7 @@
       </c>
       <c r="B469" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -8535,7 +8526,7 @@
       </c>
       <c r="B470" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -8546,7 +8537,7 @@
       </c>
       <c r="B471" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
@@ -8557,7 +8548,7 @@
       </c>
       <c r="B472" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
@@ -8568,7 +8559,7 @@
       </c>
       <c r="B473" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
@@ -8579,7 +8570,7 @@
       </c>
       <c r="B474" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
@@ -8590,7 +8581,7 @@
       </c>
       <c r="B475" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
@@ -8601,7 +8592,7 @@
       </c>
       <c r="B476" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
@@ -8612,7 +8603,7 @@
       </c>
       <c r="B477" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
@@ -8623,7 +8614,7 @@
       </c>
       <c r="B478" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
@@ -8634,7 +8625,7 @@
       </c>
       <c r="B479" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
@@ -8645,7 +8636,7 @@
       </c>
       <c r="B480" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
@@ -8656,7 +8647,7 @@
       </c>
       <c r="B481" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -8667,7 +8658,7 @@
       </c>
       <c r="B482" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -8678,7 +8669,7 @@
       </c>
       <c r="B483" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
@@ -8689,7 +8680,7 @@
       </c>
       <c r="B484" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
@@ -8700,7 +8691,7 @@
       </c>
       <c r="B485" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
@@ -8711,7 +8702,7 @@
       </c>
       <c r="B486" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
@@ -8722,7 +8713,7 @@
       </c>
       <c r="B487" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
@@ -8733,7 +8724,7 @@
       </c>
       <c r="B488" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
@@ -8744,7 +8735,7 @@
       </c>
       <c r="B489" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
@@ -8755,7 +8746,7 @@
       </c>
       <c r="B490" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
@@ -8766,7 +8757,7 @@
       </c>
       <c r="B491" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
@@ -8777,7 +8768,7 @@
       </c>
       <c r="B492" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
@@ -8788,7 +8779,7 @@
       </c>
       <c r="B493" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -8799,7 +8790,7 @@
       </c>
       <c r="B494" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -8810,7 +8801,7 @@
       </c>
       <c r="B495" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
@@ -8821,7 +8812,7 @@
       </c>
       <c r="B496" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
@@ -8832,7 +8823,7 @@
       </c>
       <c r="B497" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
@@ -8843,7 +8834,7 @@
       </c>
       <c r="B498" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
@@ -8854,7 +8845,7 @@
       </c>
       <c r="B499" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
@@ -8865,7 +8856,7 @@
       </c>
       <c r="B500" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
@@ -8876,7 +8867,7 @@
       </c>
       <c r="B501" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
@@ -8887,7 +8878,7 @@
       </c>
       <c r="B502" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
@@ -8898,7 +8889,7 @@
       </c>
       <c r="B503" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
@@ -8909,7 +8900,7 @@
       </c>
       <c r="B504" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
@@ -8920,7 +8911,7 @@
       </c>
       <c r="B505" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -8931,7 +8922,7 @@
       </c>
       <c r="B506" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -8942,7 +8933,7 @@
       </c>
       <c r="B507" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="25"/>
@@ -8953,7 +8944,7 @@
       </c>
       <c r="B508" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="25"/>
@@ -8964,7 +8955,7 @@
       </c>
       <c r="B509" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C509" s="25"/>
       <c r="D509" s="25"/>
@@ -8975,7 +8966,7 @@
       </c>
       <c r="B510" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C510" s="25"/>
       <c r="D510" s="25"/>
@@ -8986,7 +8977,7 @@
       </c>
       <c r="B511" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="25"/>
@@ -8997,7 +8988,7 @@
       </c>
       <c r="B512" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C512" s="25"/>
       <c r="D512" s="25"/>
@@ -9008,7 +8999,7 @@
       </c>
       <c r="B513" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="25"/>
@@ -9019,7 +9010,7 @@
       </c>
       <c r="B514" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C514" s="25"/>
       <c r="D514" s="25"/>
@@ -9030,7 +9021,7 @@
       </c>
       <c r="B515" s="23">
         <f t="shared" si="7"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C515" s="25"/>
       <c r="D515" s="25"/>
@@ -9041,7 +9032,7 @@
       </c>
       <c r="B516" s="23">
         <f t="shared" ref="B516:B579" si="8">B515+C515-D515</f>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C516" s="25"/>
       <c r="D516" s="25"/>
@@ -9052,7 +9043,7 @@
       </c>
       <c r="B517" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -9063,7 +9054,7 @@
       </c>
       <c r="B518" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -9074,7 +9065,7 @@
       </c>
       <c r="B519" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C519" s="25"/>
       <c r="D519" s="25"/>
@@ -9085,7 +9076,7 @@
       </c>
       <c r="B520" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C520" s="25"/>
       <c r="D520" s="25"/>
@@ -9096,7 +9087,7 @@
       </c>
       <c r="B521" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C521" s="25"/>
       <c r="D521" s="25"/>
@@ -9107,7 +9098,7 @@
       </c>
       <c r="B522" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C522" s="25"/>
       <c r="D522" s="25"/>
@@ -9118,7 +9109,7 @@
       </c>
       <c r="B523" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C523" s="25"/>
       <c r="D523" s="25"/>
@@ -9129,7 +9120,7 @@
       </c>
       <c r="B524" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C524" s="25"/>
       <c r="D524" s="25"/>
@@ -9140,7 +9131,7 @@
       </c>
       <c r="B525" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C525" s="25"/>
       <c r="D525" s="25"/>
@@ -9151,7 +9142,7 @@
       </c>
       <c r="B526" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C526" s="25"/>
       <c r="D526" s="25"/>
@@ -9162,7 +9153,7 @@
       </c>
       <c r="B527" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C527" s="25"/>
       <c r="D527" s="25"/>
@@ -9173,7 +9164,7 @@
       </c>
       <c r="B528" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C528" s="25"/>
       <c r="D528" s="25"/>
@@ -9184,7 +9175,7 @@
       </c>
       <c r="B529" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -9195,7 +9186,7 @@
       </c>
       <c r="B530" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -9206,7 +9197,7 @@
       </c>
       <c r="B531" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C531" s="25"/>
       <c r="D531" s="25"/>
@@ -9217,7 +9208,7 @@
       </c>
       <c r="B532" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C532" s="25"/>
       <c r="D532" s="25"/>
@@ -9228,7 +9219,7 @@
       </c>
       <c r="B533" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C533" s="25"/>
       <c r="D533" s="25"/>
@@ -9239,7 +9230,7 @@
       </c>
       <c r="B534" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C534" s="25"/>
       <c r="D534" s="25"/>
@@ -9250,7 +9241,7 @@
       </c>
       <c r="B535" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C535" s="25"/>
       <c r="D535" s="25"/>
@@ -9261,7 +9252,7 @@
       </c>
       <c r="B536" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C536" s="25"/>
       <c r="D536" s="25"/>
@@ -9272,7 +9263,7 @@
       </c>
       <c r="B537" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C537" s="25"/>
       <c r="D537" s="25"/>
@@ -9283,7 +9274,7 @@
       </c>
       <c r="B538" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C538" s="25"/>
       <c r="D538" s="25"/>
@@ -9294,7 +9285,7 @@
       </c>
       <c r="B539" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C539" s="25"/>
       <c r="D539" s="25"/>
@@ -9305,7 +9296,7 @@
       </c>
       <c r="B540" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C540" s="25"/>
       <c r="D540" s="25"/>
@@ -9316,7 +9307,7 @@
       </c>
       <c r="B541" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -9327,7 +9318,7 @@
       </c>
       <c r="B542" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -9338,7 +9329,7 @@
       </c>
       <c r="B543" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C543" s="25"/>
       <c r="D543" s="25"/>
@@ -9349,7 +9340,7 @@
       </c>
       <c r="B544" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C544" s="25"/>
       <c r="D544" s="25"/>
@@ -9360,7 +9351,7 @@
       </c>
       <c r="B545" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C545" s="25"/>
       <c r="D545" s="25"/>
@@ -9371,7 +9362,7 @@
       </c>
       <c r="B546" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C546" s="25"/>
       <c r="D546" s="25"/>
@@ -9382,7 +9373,7 @@
       </c>
       <c r="B547" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C547" s="25"/>
       <c r="D547" s="25"/>
@@ -9393,7 +9384,7 @@
       </c>
       <c r="B548" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C548" s="25"/>
       <c r="D548" s="25"/>
@@ -9404,7 +9395,7 @@
       </c>
       <c r="B549" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C549" s="25"/>
       <c r="D549" s="25"/>
@@ -9415,7 +9406,7 @@
       </c>
       <c r="B550" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C550" s="25"/>
       <c r="D550" s="25"/>
@@ -9426,7 +9417,7 @@
       </c>
       <c r="B551" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C551" s="25"/>
       <c r="D551" s="25"/>
@@ -9437,7 +9428,7 @@
       </c>
       <c r="B552" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C552" s="25"/>
       <c r="D552" s="25"/>
@@ -9448,7 +9439,7 @@
       </c>
       <c r="B553" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -9459,7 +9450,7 @@
       </c>
       <c r="B554" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -9470,7 +9461,7 @@
       </c>
       <c r="B555" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C555" s="25"/>
       <c r="D555" s="25"/>
@@ -9481,7 +9472,7 @@
       </c>
       <c r="B556" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C556" s="25"/>
       <c r="D556" s="25"/>
@@ -9492,7 +9483,7 @@
       </c>
       <c r="B557" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C557" s="25"/>
       <c r="D557" s="25"/>
@@ -9503,7 +9494,7 @@
       </c>
       <c r="B558" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C558" s="25"/>
       <c r="D558" s="25"/>
@@ -9514,7 +9505,7 @@
       </c>
       <c r="B559" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C559" s="25"/>
       <c r="D559" s="25"/>
@@ -9525,7 +9516,7 @@
       </c>
       <c r="B560" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C560" s="25"/>
       <c r="D560" s="25"/>
@@ -9536,7 +9527,7 @@
       </c>
       <c r="B561" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C561" s="25"/>
       <c r="D561" s="25"/>
@@ -9547,7 +9538,7 @@
       </c>
       <c r="B562" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C562" s="25"/>
       <c r="D562" s="25"/>
@@ -9558,7 +9549,7 @@
       </c>
       <c r="B563" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C563" s="25"/>
       <c r="D563" s="25"/>
@@ -9569,7 +9560,7 @@
       </c>
       <c r="B564" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C564" s="25"/>
       <c r="D564" s="25"/>
@@ -9580,7 +9571,7 @@
       </c>
       <c r="B565" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -9591,7 +9582,7 @@
       </c>
       <c r="B566" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -9602,7 +9593,7 @@
       </c>
       <c r="B567" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C567" s="25"/>
       <c r="D567" s="25"/>
@@ -9613,7 +9604,7 @@
       </c>
       <c r="B568" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C568" s="25"/>
       <c r="D568" s="25"/>
@@ -9624,7 +9615,7 @@
       </c>
       <c r="B569" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C569" s="25"/>
       <c r="D569" s="25"/>
@@ -9635,7 +9626,7 @@
       </c>
       <c r="B570" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C570" s="25"/>
       <c r="D570" s="25"/>
@@ -9646,7 +9637,7 @@
       </c>
       <c r="B571" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C571" s="25"/>
       <c r="D571" s="25"/>
@@ -9657,7 +9648,7 @@
       </c>
       <c r="B572" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C572" s="25"/>
       <c r="D572" s="25"/>
@@ -9668,7 +9659,7 @@
       </c>
       <c r="B573" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C573" s="25"/>
       <c r="D573" s="25"/>
@@ -9679,7 +9670,7 @@
       </c>
       <c r="B574" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C574" s="25"/>
       <c r="D574" s="25"/>
@@ -9690,7 +9681,7 @@
       </c>
       <c r="B575" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C575" s="25"/>
       <c r="D575" s="25"/>
@@ -9701,7 +9692,7 @@
       </c>
       <c r="B576" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C576" s="25"/>
       <c r="D576" s="25"/>
@@ -9712,7 +9703,7 @@
       </c>
       <c r="B577" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -9723,7 +9714,7 @@
       </c>
       <c r="B578" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -9734,7 +9725,7 @@
       </c>
       <c r="B579" s="23">
         <f t="shared" si="8"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C579" s="25"/>
       <c r="D579" s="25"/>
@@ -9745,7 +9736,7 @@
       </c>
       <c r="B580" s="23">
         <f t="shared" ref="B580:B637" si="9">B579+C579-D579</f>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C580" s="25"/>
       <c r="D580" s="25"/>
@@ -9756,7 +9747,7 @@
       </c>
       <c r="B581" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C581" s="25"/>
       <c r="D581" s="25"/>
@@ -9767,7 +9758,7 @@
       </c>
       <c r="B582" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C582" s="25"/>
       <c r="D582" s="25"/>
@@ -9778,7 +9769,7 @@
       </c>
       <c r="B583" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C583" s="25"/>
       <c r="D583" s="25"/>
@@ -9789,7 +9780,7 @@
       </c>
       <c r="B584" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C584" s="25"/>
       <c r="D584" s="25"/>
@@ -9800,7 +9791,7 @@
       </c>
       <c r="B585" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C585" s="25"/>
       <c r="D585" s="25"/>
@@ -9811,7 +9802,7 @@
       </c>
       <c r="B586" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C586" s="25"/>
       <c r="D586" s="25"/>
@@ -9822,7 +9813,7 @@
       </c>
       <c r="B587" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C587" s="25"/>
       <c r="D587" s="25"/>
@@ -9833,7 +9824,7 @@
       </c>
       <c r="B588" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C588" s="25"/>
       <c r="D588" s="25"/>
@@ -9844,7 +9835,7 @@
       </c>
       <c r="B589" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -9855,7 +9846,7 @@
       </c>
       <c r="B590" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -9866,7 +9857,7 @@
       </c>
       <c r="B591" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C591" s="25"/>
       <c r="D591" s="25"/>
@@ -9877,7 +9868,7 @@
       </c>
       <c r="B592" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C592" s="25"/>
       <c r="D592" s="25"/>
@@ -9888,7 +9879,7 @@
       </c>
       <c r="B593" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C593" s="25"/>
       <c r="D593" s="25"/>
@@ -9899,7 +9890,7 @@
       </c>
       <c r="B594" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C594" s="25"/>
       <c r="D594" s="25"/>
@@ -9910,7 +9901,7 @@
       </c>
       <c r="B595" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C595" s="25"/>
       <c r="D595" s="25"/>
@@ -9921,7 +9912,7 @@
       </c>
       <c r="B596" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C596" s="25"/>
       <c r="D596" s="25"/>
@@ -9932,7 +9923,7 @@
       </c>
       <c r="B597" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C597" s="25"/>
       <c r="D597" s="25"/>
@@ -9943,7 +9934,7 @@
       </c>
       <c r="B598" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C598" s="25"/>
       <c r="D598" s="25"/>
@@ -9954,7 +9945,7 @@
       </c>
       <c r="B599" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C599" s="25"/>
       <c r="D599" s="25"/>
@@ -9965,7 +9956,7 @@
       </c>
       <c r="B600" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C600" s="25"/>
       <c r="D600" s="25"/>
@@ -9976,7 +9967,7 @@
       </c>
       <c r="B601" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -9987,7 +9978,7 @@
       </c>
       <c r="B602" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -9998,7 +9989,7 @@
       </c>
       <c r="B603" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C603" s="25"/>
       <c r="D603" s="25"/>
@@ -10009,7 +10000,7 @@
       </c>
       <c r="B604" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C604" s="25"/>
       <c r="D604" s="25"/>
@@ -10020,7 +10011,7 @@
       </c>
       <c r="B605" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C605" s="25"/>
       <c r="D605" s="25"/>
@@ -10031,7 +10022,7 @@
       </c>
       <c r="B606" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C606" s="25"/>
       <c r="D606" s="25"/>
@@ -10042,7 +10033,7 @@
       </c>
       <c r="B607" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C607" s="25"/>
       <c r="D607" s="25"/>
@@ -10053,7 +10044,7 @@
       </c>
       <c r="B608" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C608" s="25"/>
       <c r="D608" s="25"/>
@@ -10064,7 +10055,7 @@
       </c>
       <c r="B609" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C609" s="25"/>
       <c r="D609" s="25"/>
@@ -10075,7 +10066,7 @@
       </c>
       <c r="B610" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C610" s="25"/>
       <c r="D610" s="25"/>
@@ -10086,7 +10077,7 @@
       </c>
       <c r="B611" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C611" s="25"/>
       <c r="D611" s="25"/>
@@ -10097,7 +10088,7 @@
       </c>
       <c r="B612" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C612" s="25"/>
       <c r="D612" s="25"/>
@@ -10108,7 +10099,7 @@
       </c>
       <c r="B613" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -10119,7 +10110,7 @@
       </c>
       <c r="B614" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -10130,7 +10121,7 @@
       </c>
       <c r="B615" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C615" s="25"/>
       <c r="D615" s="25"/>
@@ -10141,7 +10132,7 @@
       </c>
       <c r="B616" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C616" s="25"/>
       <c r="D616" s="25"/>
@@ -10152,7 +10143,7 @@
       </c>
       <c r="B617" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C617" s="25"/>
       <c r="D617" s="25"/>
@@ -10163,7 +10154,7 @@
       </c>
       <c r="B618" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C618" s="25"/>
       <c r="D618" s="25"/>
@@ -10174,7 +10165,7 @@
       </c>
       <c r="B619" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C619" s="25"/>
       <c r="D619" s="25"/>
@@ -10185,7 +10176,7 @@
       </c>
       <c r="B620" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C620" s="25"/>
       <c r="D620" s="25"/>
@@ -10196,7 +10187,7 @@
       </c>
       <c r="B621" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C621" s="25"/>
       <c r="D621" s="25"/>
@@ -10207,7 +10198,7 @@
       </c>
       <c r="B622" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C622" s="25"/>
       <c r="D622" s="25"/>
@@ -10218,7 +10209,7 @@
       </c>
       <c r="B623" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C623" s="25"/>
       <c r="D623" s="25"/>
@@ -10229,7 +10220,7 @@
       </c>
       <c r="B624" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C624" s="25"/>
       <c r="D624" s="25"/>
@@ -10240,7 +10231,7 @@
       </c>
       <c r="B625" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -10251,7 +10242,7 @@
       </c>
       <c r="B626" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -10262,7 +10253,7 @@
       </c>
       <c r="B627" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C627" s="25"/>
       <c r="D627" s="25"/>
@@ -10273,7 +10264,7 @@
       </c>
       <c r="B628" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C628" s="25"/>
       <c r="D628" s="25"/>
@@ -10284,7 +10275,7 @@
       </c>
       <c r="B629" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C629" s="25"/>
       <c r="D629" s="25"/>
@@ -10295,7 +10286,7 @@
       </c>
       <c r="B630" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C630" s="25"/>
       <c r="D630" s="25"/>
@@ -10306,7 +10297,7 @@
       </c>
       <c r="B631" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C631" s="25"/>
       <c r="D631" s="25"/>
@@ -10317,7 +10308,7 @@
       </c>
       <c r="B632" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C632" s="25"/>
       <c r="D632" s="25"/>
@@ -10328,7 +10319,7 @@
       </c>
       <c r="B633" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C633" s="25"/>
       <c r="D633" s="25"/>
@@ -10339,7 +10330,7 @@
       </c>
       <c r="B634" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C634" s="25"/>
       <c r="D634" s="25"/>
@@ -10350,7 +10341,7 @@
       </c>
       <c r="B635" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C635" s="25"/>
       <c r="D635" s="25"/>
@@ -10361,7 +10352,7 @@
       </c>
       <c r="B636" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C636" s="25"/>
       <c r="D636" s="25"/>
@@ -10372,7 +10363,7 @@
       </c>
       <c r="B637" s="23">
         <f t="shared" si="9"/>
-        <v>14.030000000000058</v>
+        <v>-6.0299999999999727</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>
